--- a/print_shop_orders_rfm.xlsx
+++ b/print_shop_orders_rfm.xlsx
@@ -8,9 +8,9 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="/Users/joshuajung/Documents/P Projects/"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:9_{CB71F766-4A7E-6349-B312-9638A791B65E}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{C58682A8-6F93-9D4F-8683-D0025765F0F4}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="380" yWindow="500" windowWidth="28040" windowHeight="16940" xr2:uid="{4EFBE7AD-3584-2B42-A65F-3D0EFE05DA7A}"/>
+    <workbookView xWindow="380" yWindow="500" windowWidth="28040" windowHeight="16940" activeTab="2" xr2:uid="{4EFBE7AD-3584-2B42-A65F-3D0EFE05DA7A}"/>
   </bookViews>
   <sheets>
     <sheet name="Pivot 1" sheetId="3" r:id="rId1"/>
@@ -20,8 +20,8 @@
   </sheets>
   <calcPr calcId="191029"/>
   <pivotCaches>
-    <pivotCache cacheId="12" r:id="rId5"/>
-    <pivotCache cacheId="59" r:id="rId6"/>
+    <pivotCache cacheId="62" r:id="rId5"/>
+    <pivotCache cacheId="63" r:id="rId6"/>
   </pivotCaches>
   <extLst>
     <ext xmlns:xcalcf="http://schemas.microsoft.com/office/spreadsheetml/2018/calcfeatures" uri="{B58B0392-4F1F-4190-BB64-5DF3571DCE5F}">
@@ -5171,10 +5171,9 @@
     <xf numFmtId="0" fontId="1" fillId="31" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
     <xf numFmtId="0" fontId="1" fillId="32" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
   </cellStyleXfs>
-  <cellXfs count="5">
+  <cellXfs count="4">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
     <xf numFmtId="14" fontId="0" fillId="0" borderId="0" xfId="0" applyNumberFormat="1"/>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyNumberFormat="1"/>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" pivotButton="1"/>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyAlignment="1">
       <alignment horizontal="left"/>
@@ -22059,7 +22058,7 @@
 </file>
 
 <file path=xl/pivotTables/pivotTable1.xml><?xml version="1.0" encoding="utf-8"?>
-<pivotTableDefinition xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" mc:Ignorable="xr" xr:uid="{02FB133C-499F-174F-8D55-136F50FDB764}" name="PivotTable2" cacheId="12" applyNumberFormats="0" applyBorderFormats="0" applyFontFormats="0" applyPatternFormats="0" applyAlignmentFormats="0" applyWidthHeightFormats="1" dataCaption="Values" updatedVersion="8" minRefreshableVersion="3" useAutoFormatting="1" itemPrintTitles="1" createdVersion="8" indent="0" outline="1" outlineData="1" multipleFieldFilters="0">
+<pivotTableDefinition xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" mc:Ignorable="xr" xr:uid="{02FB133C-499F-174F-8D55-136F50FDB764}" name="PivotTable2" cacheId="62" applyNumberFormats="0" applyBorderFormats="0" applyFontFormats="0" applyPatternFormats="0" applyAlignmentFormats="0" applyWidthHeightFormats="1" dataCaption="Values" updatedVersion="8" minRefreshableVersion="3" useAutoFormatting="1" itemPrintTitles="1" createdVersion="8" indent="0" outline="1" outlineData="1" multipleFieldFilters="0">
   <location ref="A3:D297" firstHeaderRow="0" firstDataRow="1" firstDataCol="1"/>
   <pivotFields count="9">
     <pivotField dataField="1" showAll="0"/>
@@ -23288,7 +23287,86 @@
 </file>
 
 <file path=xl/pivotTables/pivotTable2.xml><?xml version="1.0" encoding="utf-8"?>
-<pivotTableDefinition xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" mc:Ignorable="xr" xr:uid="{F09856A8-3B7C-B440-80EB-37252CCE443A}" name="PivotTable4" cacheId="59" applyNumberFormats="0" applyBorderFormats="0" applyFontFormats="0" applyPatternFormats="0" applyAlignmentFormats="0" applyWidthHeightFormats="1" dataCaption="Values" updatedVersion="8" minRefreshableVersion="3" useAutoFormatting="1" itemPrintTitles="1" createdVersion="8" indent="0" outline="1" outlineData="1" multipleFieldFilters="0">
+<pivotTableDefinition xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" mc:Ignorable="xr" xr:uid="{A7F47800-0D93-464F-AABF-88FF7B82C069}" name="PivotTable3" cacheId="63" applyNumberFormats="0" applyBorderFormats="0" applyFontFormats="0" applyPatternFormats="0" applyAlignmentFormats="0" applyWidthHeightFormats="1" dataCaption="Values" updatedVersion="8" minRefreshableVersion="3" useAutoFormatting="1" itemPrintTitles="1" createdVersion="8" indent="0" outline="1" outlineData="1" multipleFieldFilters="0" chartFormat="1">
+  <location ref="A3:B9" firstHeaderRow="1" firstDataRow="1" firstDataCol="1"/>
+  <pivotFields count="9">
+    <pivotField dataField="1" showAll="0"/>
+    <pivotField showAll="0"/>
+    <pivotField showAll="0"/>
+    <pivotField showAll="0"/>
+    <pivotField showAll="0"/>
+    <pivotField showAll="0"/>
+    <pivotField showAll="0"/>
+    <pivotField showAll="0"/>
+    <pivotField axis="axisRow" showAll="0" sortType="ascending">
+      <items count="10">
+        <item x="1"/>
+        <item m="1" x="5"/>
+        <item x="0"/>
+        <item m="1" x="7"/>
+        <item x="2"/>
+        <item x="4"/>
+        <item m="1" x="6"/>
+        <item m="1" x="8"/>
+        <item x="3"/>
+        <item t="default"/>
+      </items>
+    </pivotField>
+  </pivotFields>
+  <rowFields count="1">
+    <field x="8"/>
+  </rowFields>
+  <rowItems count="6">
+    <i>
+      <x/>
+    </i>
+    <i>
+      <x v="2"/>
+    </i>
+    <i>
+      <x v="4"/>
+    </i>
+    <i>
+      <x v="5"/>
+    </i>
+    <i>
+      <x v="8"/>
+    </i>
+    <i t="grand">
+      <x/>
+    </i>
+  </rowItems>
+  <colItems count="1">
+    <i/>
+  </colItems>
+  <dataFields count="1">
+    <dataField name="Count of Customer_ID" fld="0" subtotal="count" baseField="0" baseItem="0"/>
+  </dataFields>
+  <chartFormats count="1">
+    <chartFormat chart="0" format="0" series="1">
+      <pivotArea type="data" outline="0" fieldPosition="0">
+        <references count="1">
+          <reference field="4294967294" count="1" selected="0">
+            <x v="0"/>
+          </reference>
+        </references>
+      </pivotArea>
+    </chartFormat>
+  </chartFormats>
+  <pivotTableStyleInfo name="PivotStyleLight16" showRowHeaders="1" showColHeaders="1" showRowStripes="0" showColStripes="0" showLastColumn="1"/>
+  <extLst>
+    <ext xmlns:x14="http://schemas.microsoft.com/office/spreadsheetml/2009/9/main" uri="{962EF5D1-5CA2-4c93-8EF4-DBF5C05439D2}">
+      <x14:pivotTableDefinition xmlns:xm="http://schemas.microsoft.com/office/excel/2006/main" hideValuesRow="1"/>
+    </ext>
+    <ext xmlns:xpdl="http://schemas.microsoft.com/office/spreadsheetml/2016/pivotdefaultlayout" uri="{747A6164-185A-40DC-8AA5-F01512510D54}">
+      <xpdl:pivotTableDefinition16/>
+    </ext>
+  </extLst>
+</pivotTableDefinition>
+</file>
+
+<file path=xl/pivotTables/pivotTable3.xml><?xml version="1.0" encoding="utf-8"?>
+<pivotTableDefinition xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" mc:Ignorable="xr" xr:uid="{F09856A8-3B7C-B440-80EB-37252CCE443A}" name="PivotTable4" cacheId="63" applyNumberFormats="0" applyBorderFormats="0" applyFontFormats="0" applyPatternFormats="0" applyAlignmentFormats="0" applyWidthHeightFormats="1" dataCaption="Values" updatedVersion="8" minRefreshableVersion="3" useAutoFormatting="1" itemPrintTitles="1" createdVersion="8" indent="0" outline="1" outlineData="1" multipleFieldFilters="0">
   <location ref="A16:D22" firstHeaderRow="0" firstDataRow="1" firstDataCol="1"/>
   <pivotFields count="9">
     <pivotField showAll="0"/>
@@ -23356,85 +23434,6 @@
     <dataField name="Average of Frequency" fld="2" subtotal="average" baseField="0" baseItem="0"/>
     <dataField name="Average of Monetary" fld="3" subtotal="average" baseField="0" baseItem="0"/>
   </dataFields>
-  <pivotTableStyleInfo name="PivotStyleLight16" showRowHeaders="1" showColHeaders="1" showRowStripes="0" showColStripes="0" showLastColumn="1"/>
-  <extLst>
-    <ext xmlns:x14="http://schemas.microsoft.com/office/spreadsheetml/2009/9/main" uri="{962EF5D1-5CA2-4c93-8EF4-DBF5C05439D2}">
-      <x14:pivotTableDefinition xmlns:xm="http://schemas.microsoft.com/office/excel/2006/main" hideValuesRow="1"/>
-    </ext>
-    <ext xmlns:xpdl="http://schemas.microsoft.com/office/spreadsheetml/2016/pivotdefaultlayout" uri="{747A6164-185A-40DC-8AA5-F01512510D54}">
-      <xpdl:pivotTableDefinition16/>
-    </ext>
-  </extLst>
-</pivotTableDefinition>
-</file>
-
-<file path=xl/pivotTables/pivotTable3.xml><?xml version="1.0" encoding="utf-8"?>
-<pivotTableDefinition xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" mc:Ignorable="xr" xr:uid="{A7F47800-0D93-464F-AABF-88FF7B82C069}" name="PivotTable3" cacheId="59" applyNumberFormats="0" applyBorderFormats="0" applyFontFormats="0" applyPatternFormats="0" applyAlignmentFormats="0" applyWidthHeightFormats="1" dataCaption="Values" updatedVersion="8" minRefreshableVersion="3" useAutoFormatting="1" itemPrintTitles="1" createdVersion="8" indent="0" outline="1" outlineData="1" multipleFieldFilters="0" chartFormat="1">
-  <location ref="A3:B9" firstHeaderRow="1" firstDataRow="1" firstDataCol="1"/>
-  <pivotFields count="9">
-    <pivotField dataField="1" showAll="0"/>
-    <pivotField showAll="0"/>
-    <pivotField showAll="0"/>
-    <pivotField showAll="0"/>
-    <pivotField showAll="0"/>
-    <pivotField showAll="0"/>
-    <pivotField showAll="0"/>
-    <pivotField showAll="0"/>
-    <pivotField axis="axisRow" showAll="0" sortType="ascending">
-      <items count="10">
-        <item x="1"/>
-        <item m="1" x="5"/>
-        <item x="0"/>
-        <item m="1" x="7"/>
-        <item x="2"/>
-        <item x="4"/>
-        <item m="1" x="6"/>
-        <item m="1" x="8"/>
-        <item x="3"/>
-        <item t="default"/>
-      </items>
-    </pivotField>
-  </pivotFields>
-  <rowFields count="1">
-    <field x="8"/>
-  </rowFields>
-  <rowItems count="6">
-    <i>
-      <x/>
-    </i>
-    <i>
-      <x v="2"/>
-    </i>
-    <i>
-      <x v="4"/>
-    </i>
-    <i>
-      <x v="5"/>
-    </i>
-    <i>
-      <x v="8"/>
-    </i>
-    <i t="grand">
-      <x/>
-    </i>
-  </rowItems>
-  <colItems count="1">
-    <i/>
-  </colItems>
-  <dataFields count="1">
-    <dataField name="Count of Customer_ID" fld="0" subtotal="count" baseField="0" baseItem="0"/>
-  </dataFields>
-  <chartFormats count="1">
-    <chartFormat chart="0" format="0" series="1">
-      <pivotArea type="data" outline="0" fieldPosition="0">
-        <references count="1">
-          <reference field="4294967294" count="1" selected="0">
-            <x v="0"/>
-          </reference>
-        </references>
-      </pivotArea>
-    </chartFormat>
-  </chartFormats>
   <pivotTableStyleInfo name="PivotStyleLight16" showRowHeaders="1" showColHeaders="1" showRowStripes="0" showColStripes="0" showLastColumn="1"/>
   <extLst>
     <ext xmlns:x14="http://schemas.microsoft.com/office/spreadsheetml/2009/9/main" uri="{962EF5D1-5CA2-4c93-8EF4-DBF5C05439D2}">
@@ -23766,7 +23765,7 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{834A9F60-3603-9E4A-8F10-E722D2A39A8C}">
   <dimension ref="A2:H297"/>
   <sheetViews>
-    <sheetView tabSelected="1" workbookViewId="0">
+    <sheetView workbookViewId="0">
       <selection activeCell="B5" sqref="B5"/>
     </sheetView>
   </sheetViews>
@@ -23790,7 +23789,7 @@
       </c>
     </row>
     <row r="3" spans="1:8" x14ac:dyDescent="0.2">
-      <c r="A3" s="3" t="s">
+      <c r="A3" s="2" t="s">
         <v>1516</v>
       </c>
       <c r="B3" t="s">
@@ -23816,23 +23815,23 @@
       </c>
     </row>
     <row r="4" spans="1:8" x14ac:dyDescent="0.2">
-      <c r="A4" s="4" t="s">
+      <c r="A4" s="3" t="s">
         <v>587</v>
       </c>
       <c r="B4" s="1">
         <v>46034</v>
       </c>
-      <c r="C4" s="2">
+      <c r="C4">
         <v>8</v>
       </c>
-      <c r="D4" s="2">
+      <c r="D4">
         <v>439.80999999999995</v>
       </c>
       <c r="E4" t="str">
         <f>A4</f>
         <v>CUST_0001</v>
       </c>
-      <c r="F4" s="2">
+      <c r="F4">
         <f ca="1">TODAY()-B4</f>
         <v>29</v>
       </c>
@@ -23846,23 +23845,23 @@
       </c>
     </row>
     <row r="5" spans="1:8" x14ac:dyDescent="0.2">
-      <c r="A5" s="4" t="s">
+      <c r="A5" s="3" t="s">
         <v>116</v>
       </c>
       <c r="B5" s="1">
         <v>46041</v>
       </c>
-      <c r="C5" s="2">
+      <c r="C5">
         <v>4</v>
       </c>
-      <c r="D5" s="2">
+      <c r="D5">
         <v>369.9</v>
       </c>
       <c r="E5" t="str">
         <f t="shared" ref="E5:E68" si="0">A5</f>
         <v>CUST_0002</v>
       </c>
-      <c r="F5" s="2">
+      <c r="F5">
         <f t="shared" ref="F5:F68" ca="1" si="1">TODAY()-B5</f>
         <v>22</v>
       </c>
@@ -23876,23 +23875,23 @@
       </c>
     </row>
     <row r="6" spans="1:8" x14ac:dyDescent="0.2">
-      <c r="A6" s="4" t="s">
+      <c r="A6" s="3" t="s">
         <v>1031</v>
       </c>
       <c r="B6" s="1">
         <v>45822</v>
       </c>
-      <c r="C6" s="2">
+      <c r="C6">
         <v>1</v>
       </c>
-      <c r="D6" s="2">
+      <c r="D6">
         <v>79.959999999999994</v>
       </c>
       <c r="E6" t="str">
         <f t="shared" si="0"/>
         <v>CUST_0003</v>
       </c>
-      <c r="F6" s="2">
+      <c r="F6">
         <f t="shared" ca="1" si="1"/>
         <v>241</v>
       </c>
@@ -23906,23 +23905,23 @@
       </c>
     </row>
     <row r="7" spans="1:8" x14ac:dyDescent="0.2">
-      <c r="A7" s="4" t="s">
+      <c r="A7" s="3" t="s">
         <v>458</v>
       </c>
       <c r="B7" s="1">
         <v>46001</v>
       </c>
-      <c r="C7" s="2">
+      <c r="C7">
         <v>5</v>
       </c>
-      <c r="D7" s="2">
+      <c r="D7">
         <v>319.86</v>
       </c>
       <c r="E7" t="str">
         <f t="shared" si="0"/>
         <v>CUST_0004</v>
       </c>
-      <c r="F7" s="2">
+      <c r="F7">
         <f t="shared" ca="1" si="1"/>
         <v>62</v>
       </c>
@@ -23936,23 +23935,23 @@
       </c>
     </row>
     <row r="8" spans="1:8" x14ac:dyDescent="0.2">
-      <c r="A8" s="4" t="s">
+      <c r="A8" s="3" t="s">
         <v>215</v>
       </c>
       <c r="B8" s="1">
         <v>45968</v>
       </c>
-      <c r="C8" s="2">
+      <c r="C8">
         <v>7</v>
       </c>
-      <c r="D8" s="2">
+      <c r="D8">
         <v>564.74999999999886</v>
       </c>
       <c r="E8" t="str">
         <f t="shared" si="0"/>
         <v>CUST_0005</v>
       </c>
-      <c r="F8" s="2">
+      <c r="F8">
         <f t="shared" ca="1" si="1"/>
         <v>95</v>
       </c>
@@ -23966,23 +23965,23 @@
       </c>
     </row>
     <row r="9" spans="1:8" x14ac:dyDescent="0.2">
-      <c r="A9" s="4" t="s">
+      <c r="A9" s="3" t="s">
         <v>470</v>
       </c>
       <c r="B9" s="1">
         <v>46018</v>
       </c>
-      <c r="C9" s="2">
+      <c r="C9">
         <v>4</v>
       </c>
-      <c r="D9" s="2">
+      <c r="D9">
         <v>354.88</v>
       </c>
       <c r="E9" t="str">
         <f t="shared" si="0"/>
         <v>CUST_0006</v>
       </c>
-      <c r="F9" s="2">
+      <c r="F9">
         <f t="shared" ca="1" si="1"/>
         <v>45</v>
       </c>
@@ -23996,23 +23995,23 @@
       </c>
     </row>
     <row r="10" spans="1:8" x14ac:dyDescent="0.2">
-      <c r="A10" s="4" t="s">
+      <c r="A10" s="3" t="s">
         <v>767</v>
       </c>
       <c r="B10" s="1">
         <v>45933</v>
       </c>
-      <c r="C10" s="2">
+      <c r="C10">
         <v>3</v>
       </c>
-      <c r="D10" s="2">
+      <c r="D10">
         <v>239.90999999999997</v>
       </c>
       <c r="E10" t="str">
         <f t="shared" si="0"/>
         <v>CUST_0007</v>
       </c>
-      <c r="F10" s="2">
+      <c r="F10">
         <f t="shared" ca="1" si="1"/>
         <v>130</v>
       </c>
@@ -24026,23 +24025,23 @@
       </c>
     </row>
     <row r="11" spans="1:8" x14ac:dyDescent="0.2">
-      <c r="A11" s="4" t="s">
+      <c r="A11" s="3" t="s">
         <v>842</v>
       </c>
       <c r="B11" s="1">
         <v>45983</v>
       </c>
-      <c r="C11" s="2">
+      <c r="C11">
         <v>4</v>
       </c>
-      <c r="D11" s="2">
+      <c r="D11">
         <v>334.88</v>
       </c>
       <c r="E11" t="str">
         <f t="shared" si="0"/>
         <v>CUST_0008</v>
       </c>
-      <c r="F11" s="2">
+      <c r="F11">
         <f t="shared" ca="1" si="1"/>
         <v>80</v>
       </c>
@@ -24056,23 +24055,23 @@
       </c>
     </row>
     <row r="12" spans="1:8" x14ac:dyDescent="0.2">
-      <c r="A12" s="4" t="s">
+      <c r="A12" s="3" t="s">
         <v>164</v>
       </c>
       <c r="B12" s="1">
         <v>46046</v>
       </c>
-      <c r="C12" s="2">
+      <c r="C12">
         <v>4</v>
       </c>
-      <c r="D12" s="2">
+      <c r="D12">
         <v>259.8399999999998</v>
       </c>
       <c r="E12" t="str">
         <f t="shared" si="0"/>
         <v>CUST_0009</v>
       </c>
-      <c r="F12" s="2">
+      <c r="F12">
         <f t="shared" ca="1" si="1"/>
         <v>17</v>
       </c>
@@ -24086,23 +24085,23 @@
       </c>
     </row>
     <row r="13" spans="1:8" x14ac:dyDescent="0.2">
-      <c r="A13" s="4" t="s">
+      <c r="A13" s="3" t="s">
         <v>637</v>
       </c>
       <c r="B13" s="1">
         <v>45871</v>
       </c>
-      <c r="C13" s="2">
+      <c r="C13">
         <v>4</v>
       </c>
-      <c r="D13" s="2">
+      <c r="D13">
         <v>349.85999999999996</v>
       </c>
       <c r="E13" t="str">
         <f t="shared" si="0"/>
         <v>CUST_0010</v>
       </c>
-      <c r="F13" s="2">
+      <c r="F13">
         <f t="shared" ca="1" si="1"/>
         <v>192</v>
       </c>
@@ -24116,23 +24115,23 @@
       </c>
     </row>
     <row r="14" spans="1:8" x14ac:dyDescent="0.2">
-      <c r="A14" s="4" t="s">
+      <c r="A14" s="3" t="s">
         <v>1225</v>
       </c>
       <c r="B14" s="1">
         <v>45845</v>
       </c>
-      <c r="C14" s="2">
+      <c r="C14">
         <v>3</v>
       </c>
-      <c r="D14" s="2">
+      <c r="D14">
         <v>299.90999999999997</v>
       </c>
       <c r="E14" t="str">
         <f t="shared" si="0"/>
         <v>CUST_0011</v>
       </c>
-      <c r="F14" s="2">
+      <c r="F14">
         <f t="shared" ca="1" si="1"/>
         <v>218</v>
       </c>
@@ -24146,23 +24145,23 @@
       </c>
     </row>
     <row r="15" spans="1:8" x14ac:dyDescent="0.2">
-      <c r="A15" s="4" t="s">
+      <c r="A15" s="3" t="s">
         <v>670</v>
       </c>
       <c r="B15" s="1">
         <v>46041</v>
       </c>
-      <c r="C15" s="2">
+      <c r="C15">
         <v>5</v>
       </c>
-      <c r="D15" s="2">
+      <c r="D15">
         <v>219.86</v>
       </c>
       <c r="E15" t="str">
         <f t="shared" si="0"/>
         <v>CUST_0012</v>
       </c>
-      <c r="F15" s="2">
+      <c r="F15">
         <f t="shared" ca="1" si="1"/>
         <v>22</v>
       </c>
@@ -24176,23 +24175,23 @@
       </c>
     </row>
     <row r="16" spans="1:8" x14ac:dyDescent="0.2">
-      <c r="A16" s="4" t="s">
+      <c r="A16" s="3" t="s">
         <v>249</v>
       </c>
       <c r="B16" s="1">
         <v>45997</v>
       </c>
-      <c r="C16" s="2">
+      <c r="C16">
         <v>5</v>
       </c>
-      <c r="D16" s="2">
+      <c r="D16">
         <v>349.85</v>
       </c>
       <c r="E16" t="str">
         <f t="shared" si="0"/>
         <v>CUST_0013</v>
       </c>
-      <c r="F16" s="2">
+      <c r="F16">
         <f t="shared" ca="1" si="1"/>
         <v>66</v>
       </c>
@@ -24206,23 +24205,23 @@
       </c>
     </row>
     <row r="17" spans="1:8" x14ac:dyDescent="0.2">
-      <c r="A17" s="4" t="s">
+      <c r="A17" s="3" t="s">
         <v>96</v>
       </c>
       <c r="B17" s="1">
         <v>45955</v>
       </c>
-      <c r="C17" s="2">
+      <c r="C17">
         <v>6</v>
       </c>
-      <c r="D17" s="2">
+      <c r="D17">
         <v>314.81</v>
       </c>
       <c r="E17" t="str">
         <f t="shared" si="0"/>
         <v>CUST_0014</v>
       </c>
-      <c r="F17" s="2">
+      <c r="F17">
         <f t="shared" ca="1" si="1"/>
         <v>108</v>
       </c>
@@ -24236,23 +24235,23 @@
       </c>
     </row>
     <row r="18" spans="1:8" x14ac:dyDescent="0.2">
-      <c r="A18" s="4" t="s">
+      <c r="A18" s="3" t="s">
         <v>160</v>
       </c>
       <c r="B18" s="1">
         <v>46000</v>
       </c>
-      <c r="C18" s="2">
+      <c r="C18">
         <v>5</v>
       </c>
-      <c r="D18" s="2">
+      <c r="D18">
         <v>219.9</v>
       </c>
       <c r="E18" t="str">
         <f t="shared" si="0"/>
         <v>CUST_0015</v>
       </c>
-      <c r="F18" s="2">
+      <c r="F18">
         <f t="shared" ca="1" si="1"/>
         <v>63</v>
       </c>
@@ -24266,23 +24265,23 @@
       </c>
     </row>
     <row r="19" spans="1:8" x14ac:dyDescent="0.2">
-      <c r="A19" s="4" t="s">
+      <c r="A19" s="3" t="s">
         <v>649</v>
       </c>
       <c r="B19" s="1">
         <v>46043</v>
       </c>
-      <c r="C19" s="2">
+      <c r="C19">
         <v>2</v>
       </c>
-      <c r="D19" s="2">
+      <c r="D19">
         <v>269.93</v>
       </c>
       <c r="E19" t="str">
         <f t="shared" si="0"/>
         <v>CUST_0016</v>
       </c>
-      <c r="F19" s="2">
+      <c r="F19">
         <f t="shared" ca="1" si="1"/>
         <v>20</v>
       </c>
@@ -24296,23 +24295,23 @@
       </c>
     </row>
     <row r="20" spans="1:8" x14ac:dyDescent="0.2">
-      <c r="A20" s="4" t="s">
+      <c r="A20" s="3" t="s">
         <v>463</v>
       </c>
       <c r="B20" s="1">
         <v>45942</v>
       </c>
-      <c r="C20" s="2">
+      <c r="C20">
         <v>5</v>
       </c>
-      <c r="D20" s="2">
+      <c r="D20">
         <v>409.83</v>
       </c>
       <c r="E20" t="str">
         <f t="shared" si="0"/>
         <v>CUST_0017</v>
       </c>
-      <c r="F20" s="2">
+      <c r="F20">
         <f t="shared" ca="1" si="1"/>
         <v>121</v>
       </c>
@@ -24326,23 +24325,23 @@
       </c>
     </row>
     <row r="21" spans="1:8" x14ac:dyDescent="0.2">
-      <c r="A21" s="4" t="s">
+      <c r="A21" s="3" t="s">
         <v>489</v>
       </c>
       <c r="B21" s="1">
         <v>45962</v>
       </c>
-      <c r="C21" s="2">
+      <c r="C21">
         <v>2</v>
       </c>
-      <c r="D21" s="2">
+      <c r="D21">
         <v>54.95</v>
       </c>
       <c r="E21" t="str">
         <f t="shared" si="0"/>
         <v>CUST_0018</v>
       </c>
-      <c r="F21" s="2">
+      <c r="F21">
         <f t="shared" ca="1" si="1"/>
         <v>101</v>
       </c>
@@ -24356,23 +24355,23 @@
       </c>
     </row>
     <row r="22" spans="1:8" x14ac:dyDescent="0.2">
-      <c r="A22" s="4" t="s">
+      <c r="A22" s="3" t="s">
         <v>721</v>
       </c>
       <c r="B22" s="1">
         <v>45943</v>
       </c>
-      <c r="C22" s="2">
+      <c r="C22">
         <v>3</v>
       </c>
-      <c r="D22" s="2">
+      <c r="D22">
         <v>109.94</v>
       </c>
       <c r="E22" t="str">
         <f t="shared" si="0"/>
         <v>CUST_0019</v>
       </c>
-      <c r="F22" s="2">
+      <c r="F22">
         <f t="shared" ca="1" si="1"/>
         <v>120</v>
       </c>
@@ -24386,23 +24385,23 @@
       </c>
     </row>
     <row r="23" spans="1:8" x14ac:dyDescent="0.2">
-      <c r="A23" s="4" t="s">
+      <c r="A23" s="3" t="s">
         <v>527</v>
       </c>
       <c r="B23" s="1">
         <v>45834</v>
       </c>
-      <c r="C23" s="2">
+      <c r="C23">
         <v>4</v>
       </c>
-      <c r="D23" s="2">
+      <c r="D23">
         <v>389.89</v>
       </c>
       <c r="E23" t="str">
         <f t="shared" si="0"/>
         <v>CUST_0020</v>
       </c>
-      <c r="F23" s="2">
+      <c r="F23">
         <f t="shared" ca="1" si="1"/>
         <v>229</v>
       </c>
@@ -24416,23 +24415,23 @@
       </c>
     </row>
     <row r="24" spans="1:8" x14ac:dyDescent="0.2">
-      <c r="A24" s="4" t="s">
+      <c r="A24" s="3" t="s">
         <v>27</v>
       </c>
       <c r="B24" s="1">
         <v>45932</v>
       </c>
-      <c r="C24" s="2">
+      <c r="C24">
         <v>2</v>
       </c>
-      <c r="D24" s="2">
+      <c r="D24">
         <v>119.96</v>
       </c>
       <c r="E24" t="str">
         <f t="shared" si="0"/>
         <v>CUST_0021</v>
       </c>
-      <c r="F24" s="2">
+      <c r="F24">
         <f t="shared" ca="1" si="1"/>
         <v>131</v>
       </c>
@@ -24446,23 +24445,23 @@
       </c>
     </row>
     <row r="25" spans="1:8" x14ac:dyDescent="0.2">
-      <c r="A25" s="4" t="s">
+      <c r="A25" s="3" t="s">
         <v>60</v>
       </c>
       <c r="B25" s="1">
         <v>45908</v>
       </c>
-      <c r="C25" s="2">
+      <c r="C25">
         <v>3</v>
       </c>
-      <c r="D25" s="2">
+      <c r="D25">
         <v>114.89</v>
       </c>
       <c r="E25" t="str">
         <f t="shared" si="0"/>
         <v>CUST_0022</v>
       </c>
-      <c r="F25" s="2">
+      <c r="F25">
         <f t="shared" ca="1" si="1"/>
         <v>155</v>
       </c>
@@ -24476,23 +24475,23 @@
       </c>
     </row>
     <row r="26" spans="1:8" x14ac:dyDescent="0.2">
-      <c r="A26" s="4" t="s">
+      <c r="A26" s="3" t="s">
         <v>633</v>
       </c>
       <c r="B26" s="1">
         <v>45957</v>
       </c>
-      <c r="C26" s="2">
+      <c r="C26">
         <v>4</v>
       </c>
-      <c r="D26" s="2">
+      <c r="D26">
         <v>404.87</v>
       </c>
       <c r="E26" t="str">
         <f t="shared" si="0"/>
         <v>CUST_0023</v>
       </c>
-      <c r="F26" s="2">
+      <c r="F26">
         <f t="shared" ca="1" si="1"/>
         <v>106</v>
       </c>
@@ -24506,23 +24505,23 @@
       </c>
     </row>
     <row r="27" spans="1:8" x14ac:dyDescent="0.2">
-      <c r="A27" s="4" t="s">
+      <c r="A27" s="3" t="s">
         <v>735</v>
       </c>
       <c r="B27" s="1">
         <v>46036</v>
       </c>
-      <c r="C27" s="2">
+      <c r="C27">
         <v>7</v>
       </c>
-      <c r="D27" s="2">
+      <c r="D27">
         <v>504.78000000000009</v>
       </c>
       <c r="E27" t="str">
         <f t="shared" si="0"/>
         <v>CUST_0025</v>
       </c>
-      <c r="F27" s="2">
+      <c r="F27">
         <f t="shared" ca="1" si="1"/>
         <v>27</v>
       </c>
@@ -24536,23 +24535,23 @@
       </c>
     </row>
     <row r="28" spans="1:8" x14ac:dyDescent="0.2">
-      <c r="A28" s="4" t="s">
+      <c r="A28" s="3" t="s">
         <v>521</v>
       </c>
       <c r="B28" s="1">
         <v>46031</v>
       </c>
-      <c r="C28" s="2">
+      <c r="C28">
         <v>4</v>
       </c>
-      <c r="D28" s="2">
+      <c r="D28">
         <v>344.89</v>
       </c>
       <c r="E28" t="str">
         <f t="shared" si="0"/>
         <v>CUST_0026</v>
       </c>
-      <c r="F28" s="2">
+      <c r="F28">
         <f t="shared" ca="1" si="1"/>
         <v>32</v>
       </c>
@@ -24566,23 +24565,23 @@
       </c>
     </row>
     <row r="29" spans="1:8" x14ac:dyDescent="0.2">
-      <c r="A29" s="4" t="s">
+      <c r="A29" s="3" t="s">
         <v>449</v>
       </c>
       <c r="B29" s="1">
         <v>45907</v>
       </c>
-      <c r="C29" s="2">
+      <c r="C29">
         <v>2</v>
       </c>
-      <c r="D29" s="2">
+      <c r="D29">
         <v>84.94</v>
       </c>
       <c r="E29" t="str">
         <f t="shared" si="0"/>
         <v>CUST_0027</v>
       </c>
-      <c r="F29" s="2">
+      <c r="F29">
         <f t="shared" ca="1" si="1"/>
         <v>156</v>
       </c>
@@ -24596,23 +24595,23 @@
       </c>
     </row>
     <row r="30" spans="1:8" x14ac:dyDescent="0.2">
-      <c r="A30" s="4" t="s">
+      <c r="A30" s="3" t="s">
         <v>184</v>
       </c>
       <c r="B30" s="1">
         <v>45859</v>
       </c>
-      <c r="C30" s="2">
+      <c r="C30">
         <v>5</v>
       </c>
-      <c r="D30" s="2">
+      <c r="D30">
         <v>394.83000000000004</v>
       </c>
       <c r="E30" t="str">
         <f t="shared" si="0"/>
         <v>CUST_0028</v>
       </c>
-      <c r="F30" s="2">
+      <c r="F30">
         <f t="shared" ca="1" si="1"/>
         <v>204</v>
       </c>
@@ -24626,23 +24625,23 @@
       </c>
     </row>
     <row r="31" spans="1:8" x14ac:dyDescent="0.2">
-      <c r="A31" s="4" t="s">
+      <c r="A31" s="3" t="s">
         <v>245</v>
       </c>
       <c r="B31" s="1">
         <v>45919</v>
       </c>
-      <c r="C31" s="2">
+      <c r="C31">
         <v>5</v>
       </c>
-      <c r="D31" s="2">
+      <c r="D31">
         <v>224.88000000000002</v>
       </c>
       <c r="E31" t="str">
         <f t="shared" si="0"/>
         <v>CUST_0029</v>
       </c>
-      <c r="F31" s="2">
+      <c r="F31">
         <f t="shared" ca="1" si="1"/>
         <v>144</v>
       </c>
@@ -24656,23 +24655,23 @@
       </c>
     </row>
     <row r="32" spans="1:8" x14ac:dyDescent="0.2">
-      <c r="A32" s="4" t="s">
+      <c r="A32" s="3" t="s">
         <v>947</v>
       </c>
       <c r="B32" s="1">
         <v>45948</v>
       </c>
-      <c r="C32" s="2">
+      <c r="C32">
         <v>1</v>
       </c>
-      <c r="D32" s="2">
+      <c r="D32">
         <v>79.959999999999994</v>
       </c>
       <c r="E32" t="str">
         <f t="shared" si="0"/>
         <v>CUST_0030</v>
       </c>
-      <c r="F32" s="2">
+      <c r="F32">
         <f t="shared" ca="1" si="1"/>
         <v>115</v>
       </c>
@@ -24686,23 +24685,23 @@
       </c>
     </row>
     <row r="33" spans="1:8" x14ac:dyDescent="0.2">
-      <c r="A33" s="4" t="s">
+      <c r="A33" s="3" t="s">
         <v>1089</v>
       </c>
       <c r="B33" s="1">
         <v>45723</v>
       </c>
-      <c r="C33" s="2">
+      <c r="C33">
         <v>1</v>
       </c>
-      <c r="D33" s="2">
+      <c r="D33">
         <v>39.99</v>
       </c>
       <c r="E33" t="str">
         <f t="shared" si="0"/>
         <v>CUST_0031</v>
       </c>
-      <c r="F33" s="2">
+      <c r="F33">
         <f t="shared" ca="1" si="1"/>
         <v>340</v>
       </c>
@@ -24716,23 +24715,23 @@
       </c>
     </row>
     <row r="34" spans="1:8" x14ac:dyDescent="0.2">
-      <c r="A34" s="4" t="s">
+      <c r="A34" s="3" t="s">
         <v>1305</v>
       </c>
       <c r="B34" s="1">
         <v>45902</v>
       </c>
-      <c r="C34" s="2">
+      <c r="C34">
         <v>1</v>
       </c>
-      <c r="D34" s="2">
+      <c r="D34">
         <v>19.98</v>
       </c>
       <c r="E34" t="str">
         <f t="shared" si="0"/>
         <v>CUST_0032</v>
       </c>
-      <c r="F34" s="2">
+      <c r="F34">
         <f t="shared" ca="1" si="1"/>
         <v>161</v>
       </c>
@@ -24746,23 +24745,23 @@
       </c>
     </row>
     <row r="35" spans="1:8" x14ac:dyDescent="0.2">
-      <c r="A35" s="4" t="s">
+      <c r="A35" s="3" t="s">
         <v>191</v>
       </c>
       <c r="B35" s="1">
         <v>45924</v>
       </c>
-      <c r="C35" s="2">
+      <c r="C35">
         <v>3</v>
       </c>
-      <c r="D35" s="2">
+      <c r="D35">
         <v>129.91999999999999</v>
       </c>
       <c r="E35" t="str">
         <f t="shared" si="0"/>
         <v>CUST_0033</v>
       </c>
-      <c r="F35" s="2">
+      <c r="F35">
         <f t="shared" ca="1" si="1"/>
         <v>139</v>
       </c>
@@ -24776,23 +24775,23 @@
       </c>
     </row>
     <row r="36" spans="1:8" x14ac:dyDescent="0.2">
-      <c r="A36" s="4" t="s">
+      <c r="A36" s="3" t="s">
         <v>916</v>
       </c>
       <c r="B36" s="1">
         <v>45902</v>
       </c>
-      <c r="C36" s="2">
+      <c r="C36">
         <v>5</v>
       </c>
-      <c r="D36" s="2">
+      <c r="D36">
         <v>219.92000000000002</v>
       </c>
       <c r="E36" t="str">
         <f t="shared" si="0"/>
         <v>CUST_0034</v>
       </c>
-      <c r="F36" s="2">
+      <c r="F36">
         <f t="shared" ca="1" si="1"/>
         <v>161</v>
       </c>
@@ -24806,23 +24805,23 @@
       </c>
     </row>
     <row r="37" spans="1:8" x14ac:dyDescent="0.2">
-      <c r="A37" s="4" t="s">
+      <c r="A37" s="3" t="s">
         <v>108</v>
       </c>
       <c r="B37" s="1">
         <v>45999</v>
       </c>
-      <c r="C37" s="2">
+      <c r="C37">
         <v>6</v>
       </c>
-      <c r="D37" s="2">
+      <c r="D37">
         <v>479.81999999999994</v>
       </c>
       <c r="E37" t="str">
         <f t="shared" si="0"/>
         <v>CUST_0035</v>
       </c>
-      <c r="F37" s="2">
+      <c r="F37">
         <f t="shared" ca="1" si="1"/>
         <v>64</v>
       </c>
@@ -24836,23 +24835,23 @@
       </c>
     </row>
     <row r="38" spans="1:8" x14ac:dyDescent="0.2">
-      <c r="A38" s="4" t="s">
+      <c r="A38" s="3" t="s">
         <v>247</v>
       </c>
       <c r="B38" s="1">
         <v>46010</v>
       </c>
-      <c r="C38" s="2">
+      <c r="C38">
         <v>6</v>
       </c>
-      <c r="D38" s="2">
+      <c r="D38">
         <v>269.85999999999899</v>
       </c>
       <c r="E38" t="str">
         <f t="shared" si="0"/>
         <v>CUST_0036</v>
       </c>
-      <c r="F38" s="2">
+      <c r="F38">
         <f t="shared" ca="1" si="1"/>
         <v>53</v>
       </c>
@@ -24866,23 +24865,23 @@
       </c>
     </row>
     <row r="39" spans="1:8" x14ac:dyDescent="0.2">
-      <c r="A39" s="4" t="s">
+      <c r="A39" s="3" t="s">
         <v>393</v>
       </c>
       <c r="B39" s="1">
         <v>45869</v>
       </c>
-      <c r="C39" s="2">
+      <c r="C39">
         <v>3</v>
       </c>
-      <c r="D39" s="2">
+      <c r="D39">
         <v>409.9</v>
       </c>
       <c r="E39" t="str">
         <f t="shared" si="0"/>
         <v>CUST_0037</v>
       </c>
-      <c r="F39" s="2">
+      <c r="F39">
         <f t="shared" ca="1" si="1"/>
         <v>194</v>
       </c>
@@ -24896,23 +24895,23 @@
       </c>
     </row>
     <row r="40" spans="1:8" x14ac:dyDescent="0.2">
-      <c r="A40" s="4" t="s">
+      <c r="A40" s="3" t="s">
         <v>442</v>
       </c>
       <c r="B40" s="1">
         <v>46028</v>
       </c>
-      <c r="C40" s="2">
+      <c r="C40">
         <v>5</v>
       </c>
-      <c r="D40" s="2">
+      <c r="D40">
         <v>384.84999999999997</v>
       </c>
       <c r="E40" t="str">
         <f t="shared" si="0"/>
         <v>CUST_0038</v>
       </c>
-      <c r="F40" s="2">
+      <c r="F40">
         <f t="shared" ca="1" si="1"/>
         <v>35</v>
       </c>
@@ -24926,23 +24925,23 @@
       </c>
     </row>
     <row r="41" spans="1:8" x14ac:dyDescent="0.2">
-      <c r="A41" s="4" t="s">
+      <c r="A41" s="3" t="s">
         <v>370</v>
       </c>
       <c r="B41" s="1">
         <v>45969</v>
       </c>
-      <c r="C41" s="2">
+      <c r="C41">
         <v>9</v>
       </c>
-      <c r="D41" s="2">
+      <c r="D41">
         <v>624.69999999999914</v>
       </c>
       <c r="E41" t="str">
         <f t="shared" si="0"/>
         <v>CUST_0039</v>
       </c>
-      <c r="F41" s="2">
+      <c r="F41">
         <f t="shared" ca="1" si="1"/>
         <v>94</v>
       </c>
@@ -24956,23 +24955,23 @@
       </c>
     </row>
     <row r="42" spans="1:8" x14ac:dyDescent="0.2">
-      <c r="A42" s="4" t="s">
+      <c r="A42" s="3" t="s">
         <v>1091</v>
       </c>
       <c r="B42" s="1">
         <v>45806</v>
       </c>
-      <c r="C42" s="2">
+      <c r="C42">
         <v>2</v>
       </c>
-      <c r="D42" s="2">
+      <c r="D42">
         <v>199.93</v>
       </c>
       <c r="E42" t="str">
         <f t="shared" si="0"/>
         <v>CUST_0040</v>
       </c>
-      <c r="F42" s="2">
+      <c r="F42">
         <f t="shared" ca="1" si="1"/>
         <v>257</v>
       </c>
@@ -24986,23 +24985,23 @@
       </c>
     </row>
     <row r="43" spans="1:8" x14ac:dyDescent="0.2">
-      <c r="A43" s="4" t="s">
+      <c r="A43" s="3" t="s">
         <v>156</v>
       </c>
       <c r="B43" s="1">
         <v>46021</v>
       </c>
-      <c r="C43" s="2">
+      <c r="C43">
         <v>4</v>
       </c>
-      <c r="D43" s="2">
+      <c r="D43">
         <v>209.89</v>
       </c>
       <c r="E43" t="str">
         <f t="shared" si="0"/>
         <v>CUST_0041</v>
       </c>
-      <c r="F43" s="2">
+      <c r="F43">
         <f t="shared" ca="1" si="1"/>
         <v>42</v>
       </c>
@@ -25016,23 +25015,23 @@
       </c>
     </row>
     <row r="44" spans="1:8" x14ac:dyDescent="0.2">
-      <c r="A44" s="4" t="s">
+      <c r="A44" s="3" t="s">
         <v>225</v>
       </c>
       <c r="B44" s="1">
         <v>46015</v>
       </c>
-      <c r="C44" s="2">
+      <c r="C44">
         <v>7</v>
       </c>
-      <c r="D44" s="2">
+      <c r="D44">
         <v>314.83000000000004</v>
       </c>
       <c r="E44" t="str">
         <f t="shared" si="0"/>
         <v>CUST_0042</v>
       </c>
-      <c r="F44" s="2">
+      <c r="F44">
         <f t="shared" ca="1" si="1"/>
         <v>48</v>
       </c>
@@ -25046,23 +25045,23 @@
       </c>
     </row>
     <row r="45" spans="1:8" x14ac:dyDescent="0.2">
-      <c r="A45" s="4" t="s">
+      <c r="A45" s="3" t="s">
         <v>666</v>
       </c>
       <c r="B45" s="1">
         <v>45974</v>
       </c>
-      <c r="C45" s="2">
+      <c r="C45">
         <v>2</v>
       </c>
-      <c r="D45" s="2">
+      <c r="D45">
         <v>94.96</v>
       </c>
       <c r="E45" t="str">
         <f t="shared" si="0"/>
         <v>CUST_0043</v>
       </c>
-      <c r="F45" s="2">
+      <c r="F45">
         <f t="shared" ca="1" si="1"/>
         <v>89</v>
       </c>
@@ -25076,23 +25075,23 @@
       </c>
     </row>
     <row r="46" spans="1:8" x14ac:dyDescent="0.2">
-      <c r="A46" s="4" t="s">
+      <c r="A46" s="3" t="s">
         <v>128</v>
       </c>
       <c r="B46" s="1">
         <v>45832</v>
       </c>
-      <c r="C46" s="2">
+      <c r="C46">
         <v>5</v>
       </c>
-      <c r="D46" s="2">
+      <c r="D46">
         <v>454.85</v>
       </c>
       <c r="E46" t="str">
         <f t="shared" si="0"/>
         <v>CUST_0044</v>
       </c>
-      <c r="F46" s="2">
+      <c r="F46">
         <f t="shared" ca="1" si="1"/>
         <v>231</v>
       </c>
@@ -25106,23 +25105,23 @@
       </c>
     </row>
     <row r="47" spans="1:8" x14ac:dyDescent="0.2">
-      <c r="A47" s="4" t="s">
+      <c r="A47" s="3" t="s">
         <v>264</v>
       </c>
       <c r="B47" s="1">
         <v>45818</v>
       </c>
-      <c r="C47" s="2">
+      <c r="C47">
         <v>1</v>
       </c>
-      <c r="D47" s="2">
+      <c r="D47">
         <v>19.98</v>
       </c>
       <c r="E47" t="str">
         <f t="shared" si="0"/>
         <v>CUST_0045</v>
       </c>
-      <c r="F47" s="2">
+      <c r="F47">
         <f t="shared" ca="1" si="1"/>
         <v>245</v>
       </c>
@@ -25136,23 +25135,23 @@
       </c>
     </row>
     <row r="48" spans="1:8" x14ac:dyDescent="0.2">
-      <c r="A48" s="4" t="s">
+      <c r="A48" s="3" t="s">
         <v>468</v>
       </c>
       <c r="B48" s="1">
         <v>46022</v>
       </c>
-      <c r="C48" s="2">
+      <c r="C48">
         <v>4</v>
       </c>
-      <c r="D48" s="2">
+      <c r="D48">
         <v>214.909999999999</v>
       </c>
       <c r="E48" t="str">
         <f t="shared" si="0"/>
         <v>CUST_0046</v>
       </c>
-      <c r="F48" s="2">
+      <c r="F48">
         <f t="shared" ca="1" si="1"/>
         <v>41</v>
       </c>
@@ -25166,23 +25165,23 @@
       </c>
     </row>
     <row r="49" spans="1:8" x14ac:dyDescent="0.2">
-      <c r="A49" s="4" t="s">
+      <c r="A49" s="3" t="s">
         <v>561</v>
       </c>
       <c r="B49" s="1">
         <v>46006</v>
       </c>
-      <c r="C49" s="2">
+      <c r="C49">
         <v>7</v>
       </c>
-      <c r="D49" s="2">
+      <c r="D49">
         <v>519.76</v>
       </c>
       <c r="E49" t="str">
         <f t="shared" si="0"/>
         <v>CUST_0047</v>
       </c>
-      <c r="F49" s="2">
+      <c r="F49">
         <f t="shared" ca="1" si="1"/>
         <v>57</v>
       </c>
@@ -25196,23 +25195,23 @@
       </c>
     </row>
     <row r="50" spans="1:8" x14ac:dyDescent="0.2">
-      <c r="A50" s="4" t="s">
+      <c r="A50" s="3" t="s">
         <v>193</v>
       </c>
       <c r="B50" s="1">
         <v>46047</v>
       </c>
-      <c r="C50" s="2">
+      <c r="C50">
         <v>3</v>
       </c>
-      <c r="D50" s="2">
+      <c r="D50">
         <v>164.89999999999998</v>
       </c>
       <c r="E50" t="str">
         <f t="shared" si="0"/>
         <v>CUST_0048</v>
       </c>
-      <c r="F50" s="2">
+      <c r="F50">
         <f t="shared" ca="1" si="1"/>
         <v>16</v>
       </c>
@@ -25226,23 +25225,23 @@
       </c>
     </row>
     <row r="51" spans="1:8" x14ac:dyDescent="0.2">
-      <c r="A51" s="4" t="s">
+      <c r="A51" s="3" t="s">
         <v>67</v>
       </c>
       <c r="B51" s="1">
         <v>45871</v>
       </c>
-      <c r="C51" s="2">
+      <c r="C51">
         <v>4</v>
       </c>
-      <c r="D51" s="2">
+      <c r="D51">
         <v>309.89</v>
       </c>
       <c r="E51" t="str">
         <f t="shared" si="0"/>
         <v>CUST_0049</v>
       </c>
-      <c r="F51" s="2">
+      <c r="F51">
         <f t="shared" ca="1" si="1"/>
         <v>192</v>
       </c>
@@ -25256,23 +25255,23 @@
       </c>
     </row>
     <row r="52" spans="1:8" x14ac:dyDescent="0.2">
-      <c r="A52" s="4" t="s">
+      <c r="A52" s="3" t="s">
         <v>114</v>
       </c>
       <c r="B52" s="1">
         <v>45866</v>
       </c>
-      <c r="C52" s="2">
+      <c r="C52">
         <v>1</v>
       </c>
-      <c r="D52" s="2">
+      <c r="D52">
         <v>19.98</v>
       </c>
       <c r="E52" t="str">
         <f t="shared" si="0"/>
         <v>CUST_0050</v>
       </c>
-      <c r="F52" s="2">
+      <c r="F52">
         <f t="shared" ca="1" si="1"/>
         <v>197</v>
       </c>
@@ -25286,23 +25285,23 @@
       </c>
     </row>
     <row r="53" spans="1:8" x14ac:dyDescent="0.2">
-      <c r="A53" s="4" t="s">
+      <c r="A53" s="3" t="s">
         <v>80</v>
       </c>
       <c r="B53" s="1">
         <v>46011</v>
       </c>
-      <c r="C53" s="2">
+      <c r="C53">
         <v>8</v>
       </c>
-      <c r="D53" s="2">
+      <c r="D53">
         <v>714.73</v>
       </c>
       <c r="E53" t="str">
         <f t="shared" si="0"/>
         <v>CUST_0051</v>
       </c>
-      <c r="F53" s="2">
+      <c r="F53">
         <f t="shared" ca="1" si="1"/>
         <v>52</v>
       </c>
@@ -25316,23 +25315,23 @@
       </c>
     </row>
     <row r="54" spans="1:8" x14ac:dyDescent="0.2">
-      <c r="A54" s="4" t="s">
+      <c r="A54" s="3" t="s">
         <v>233</v>
       </c>
       <c r="B54" s="1">
         <v>46004</v>
       </c>
-      <c r="C54" s="2">
+      <c r="C54">
         <v>3</v>
       </c>
-      <c r="D54" s="2">
+      <c r="D54">
         <v>144.93</v>
       </c>
       <c r="E54" t="str">
         <f t="shared" si="0"/>
         <v>CUST_0052</v>
       </c>
-      <c r="F54" s="2">
+      <c r="F54">
         <f t="shared" ca="1" si="1"/>
         <v>59</v>
       </c>
@@ -25346,23 +25345,23 @@
       </c>
     </row>
     <row r="55" spans="1:8" x14ac:dyDescent="0.2">
-      <c r="A55" s="4" t="s">
+      <c r="A55" s="3" t="s">
         <v>102</v>
       </c>
       <c r="B55" s="1">
         <v>46042</v>
       </c>
-      <c r="C55" s="2">
+      <c r="C55">
         <v>8</v>
       </c>
-      <c r="D55" s="2">
+      <c r="D55">
         <v>609.69999999999993</v>
       </c>
       <c r="E55" t="str">
         <f t="shared" si="0"/>
         <v>CUST_0053</v>
       </c>
-      <c r="F55" s="2">
+      <c r="F55">
         <f t="shared" ca="1" si="1"/>
         <v>21</v>
       </c>
@@ -25376,23 +25375,23 @@
       </c>
     </row>
     <row r="56" spans="1:8" x14ac:dyDescent="0.2">
-      <c r="A56" s="4" t="s">
+      <c r="A56" s="3" t="s">
         <v>118</v>
       </c>
       <c r="B56" s="1">
         <v>46020</v>
       </c>
-      <c r="C56" s="2">
+      <c r="C56">
         <v>8</v>
       </c>
-      <c r="D56" s="2">
+      <c r="D56">
         <v>424.8</v>
       </c>
       <c r="E56" t="str">
         <f t="shared" si="0"/>
         <v>CUST_0054</v>
       </c>
-      <c r="F56" s="2">
+      <c r="F56">
         <f t="shared" ca="1" si="1"/>
         <v>43</v>
       </c>
@@ -25406,23 +25405,23 @@
       </c>
     </row>
     <row r="57" spans="1:8" x14ac:dyDescent="0.2">
-      <c r="A57" s="4" t="s">
+      <c r="A57" s="3" t="s">
         <v>82</v>
       </c>
       <c r="B57" s="1">
         <v>45992</v>
       </c>
-      <c r="C57" s="2">
+      <c r="C57">
         <v>5</v>
       </c>
-      <c r="D57" s="2">
+      <c r="D57">
         <v>324.84999999999991</v>
       </c>
       <c r="E57" t="str">
         <f t="shared" si="0"/>
         <v>CUST_0055</v>
       </c>
-      <c r="F57" s="2">
+      <c r="F57">
         <f t="shared" ca="1" si="1"/>
         <v>71</v>
       </c>
@@ -25436,23 +25435,23 @@
       </c>
     </row>
     <row r="58" spans="1:8" x14ac:dyDescent="0.2">
-      <c r="A58" s="4" t="s">
+      <c r="A58" s="3" t="s">
         <v>1007</v>
       </c>
       <c r="B58" s="1">
         <v>45922</v>
       </c>
-      <c r="C58" s="2">
+      <c r="C58">
         <v>2</v>
       </c>
-      <c r="D58" s="2">
+      <c r="D58">
         <v>79.97</v>
       </c>
       <c r="E58" t="str">
         <f t="shared" si="0"/>
         <v>CUST_0056</v>
       </c>
-      <c r="F58" s="2">
+      <c r="F58">
         <f t="shared" ca="1" si="1"/>
         <v>141</v>
       </c>
@@ -25466,23 +25465,23 @@
       </c>
     </row>
     <row r="59" spans="1:8" x14ac:dyDescent="0.2">
-      <c r="A59" s="4" t="s">
+      <c r="A59" s="3" t="s">
         <v>740</v>
       </c>
       <c r="B59" s="1">
         <v>45921</v>
       </c>
-      <c r="C59" s="2">
+      <c r="C59">
         <v>2</v>
       </c>
-      <c r="D59" s="2">
+      <c r="D59">
         <v>59.97</v>
       </c>
       <c r="E59" t="str">
         <f t="shared" si="0"/>
         <v>CUST_0057</v>
       </c>
-      <c r="F59" s="2">
+      <c r="F59">
         <f t="shared" ca="1" si="1"/>
         <v>142</v>
       </c>
@@ -25496,23 +25495,23 @@
       </c>
     </row>
     <row r="60" spans="1:8" x14ac:dyDescent="0.2">
-      <c r="A60" s="4" t="s">
+      <c r="A60" s="3" t="s">
         <v>496</v>
       </c>
       <c r="B60" s="1">
         <v>45952</v>
       </c>
-      <c r="C60" s="2">
+      <c r="C60">
         <v>6</v>
       </c>
-      <c r="D60" s="2">
+      <c r="D60">
         <v>519.81999999999994</v>
       </c>
       <c r="E60" t="str">
         <f t="shared" si="0"/>
         <v>CUST_0058</v>
       </c>
-      <c r="F60" s="2">
+      <c r="F60">
         <f t="shared" ca="1" si="1"/>
         <v>111</v>
       </c>
@@ -25526,23 +25525,23 @@
       </c>
     </row>
     <row r="61" spans="1:8" x14ac:dyDescent="0.2">
-      <c r="A61" s="4" t="s">
+      <c r="A61" s="3" t="s">
         <v>69</v>
       </c>
       <c r="B61" s="1">
         <v>45964</v>
       </c>
-      <c r="C61" s="2">
+      <c r="C61">
         <v>3</v>
       </c>
-      <c r="D61" s="2">
+      <c r="D61">
         <v>214.90999999999997</v>
       </c>
       <c r="E61" t="str">
         <f t="shared" si="0"/>
         <v>CUST_0059</v>
       </c>
-      <c r="F61" s="2">
+      <c r="F61">
         <f t="shared" ca="1" si="1"/>
         <v>99</v>
       </c>
@@ -25556,23 +25555,23 @@
       </c>
     </row>
     <row r="62" spans="1:8" x14ac:dyDescent="0.2">
-      <c r="A62" s="4" t="s">
+      <c r="A62" s="3" t="s">
         <v>386</v>
       </c>
       <c r="B62" s="1">
         <v>46047</v>
       </c>
-      <c r="C62" s="2">
+      <c r="C62">
         <v>3</v>
       </c>
-      <c r="D62" s="2">
+      <c r="D62">
         <v>119.94</v>
       </c>
       <c r="E62" t="str">
         <f t="shared" si="0"/>
         <v>CUST_0060</v>
       </c>
-      <c r="F62" s="2">
+      <c r="F62">
         <f t="shared" ca="1" si="1"/>
         <v>16</v>
       </c>
@@ -25586,23 +25585,23 @@
       </c>
     </row>
     <row r="63" spans="1:8" x14ac:dyDescent="0.2">
-      <c r="A63" s="4" t="s">
+      <c r="A63" s="3" t="s">
         <v>982</v>
       </c>
       <c r="B63" s="1">
         <v>46026</v>
       </c>
-      <c r="C63" s="2">
+      <c r="C63">
         <v>3</v>
       </c>
-      <c r="D63" s="2">
+      <c r="D63">
         <v>99.94</v>
       </c>
       <c r="E63" t="str">
         <f t="shared" si="0"/>
         <v>CUST_0061</v>
       </c>
-      <c r="F63" s="2">
+      <c r="F63">
         <f t="shared" ca="1" si="1"/>
         <v>37</v>
       </c>
@@ -25616,23 +25615,23 @@
       </c>
     </row>
     <row r="64" spans="1:8" x14ac:dyDescent="0.2">
-      <c r="A64" s="4" t="s">
+      <c r="A64" s="3" t="s">
         <v>195</v>
       </c>
       <c r="B64" s="1">
         <v>46035</v>
       </c>
-      <c r="C64" s="2">
+      <c r="C64">
         <v>5</v>
       </c>
-      <c r="D64" s="2">
+      <c r="D64">
         <v>474.80999999999983</v>
       </c>
       <c r="E64" t="str">
         <f t="shared" si="0"/>
         <v>CUST_0062</v>
       </c>
-      <c r="F64" s="2">
+      <c r="F64">
         <f t="shared" ca="1" si="1"/>
         <v>28</v>
       </c>
@@ -25646,23 +25645,23 @@
       </c>
     </row>
     <row r="65" spans="1:8" x14ac:dyDescent="0.2">
-      <c r="A65" s="4" t="s">
+      <c r="A65" s="3" t="s">
         <v>170</v>
       </c>
       <c r="B65" s="1">
         <v>46045</v>
       </c>
-      <c r="C65" s="2">
+      <c r="C65">
         <v>8</v>
       </c>
-      <c r="D65" s="2">
+      <c r="D65">
         <v>664.74</v>
       </c>
       <c r="E65" t="str">
         <f t="shared" si="0"/>
         <v>CUST_0063</v>
       </c>
-      <c r="F65" s="2">
+      <c r="F65">
         <f t="shared" ca="1" si="1"/>
         <v>18</v>
       </c>
@@ -25676,23 +25675,23 @@
       </c>
     </row>
     <row r="66" spans="1:8" x14ac:dyDescent="0.2">
-      <c r="A66" s="4" t="s">
+      <c r="A66" s="3" t="s">
         <v>1433</v>
       </c>
       <c r="B66" s="1">
         <v>46005</v>
       </c>
-      <c r="C66" s="2">
+      <c r="C66">
         <v>1</v>
       </c>
-      <c r="D66" s="2">
+      <c r="D66">
         <v>49.98</v>
       </c>
       <c r="E66" t="str">
         <f t="shared" si="0"/>
         <v>CUST_0064</v>
       </c>
-      <c r="F66" s="2">
+      <c r="F66">
         <f t="shared" ca="1" si="1"/>
         <v>58</v>
       </c>
@@ -25706,23 +25705,23 @@
       </c>
     </row>
     <row r="67" spans="1:8" x14ac:dyDescent="0.2">
-      <c r="A67" s="4" t="s">
+      <c r="A67" s="3" t="s">
         <v>162</v>
       </c>
       <c r="B67" s="1">
         <v>46037</v>
       </c>
-      <c r="C67" s="2">
+      <c r="C67">
         <v>3</v>
       </c>
-      <c r="D67" s="2">
+      <c r="D67">
         <v>189.93</v>
       </c>
       <c r="E67" t="str">
         <f t="shared" si="0"/>
         <v>CUST_0065</v>
       </c>
-      <c r="F67" s="2">
+      <c r="F67">
         <f t="shared" ca="1" si="1"/>
         <v>26</v>
       </c>
@@ -25736,23 +25735,23 @@
       </c>
     </row>
     <row r="68" spans="1:8" x14ac:dyDescent="0.2">
-      <c r="A68" s="4" t="s">
+      <c r="A68" s="3" t="s">
         <v>261</v>
       </c>
       <c r="B68" s="1">
         <v>45824</v>
       </c>
-      <c r="C68" s="2">
+      <c r="C68">
         <v>2</v>
       </c>
-      <c r="D68" s="2">
+      <c r="D68">
         <v>59.940000000000005</v>
       </c>
       <c r="E68" t="str">
         <f t="shared" si="0"/>
         <v>CUST_0066</v>
       </c>
-      <c r="F68" s="2">
+      <c r="F68">
         <f t="shared" ca="1" si="1"/>
         <v>239</v>
       </c>
@@ -25766,23 +25765,23 @@
       </c>
     </row>
     <row r="69" spans="1:8" x14ac:dyDescent="0.2">
-      <c r="A69" s="4" t="s">
+      <c r="A69" s="3" t="s">
         <v>1057</v>
       </c>
       <c r="B69" s="1">
         <v>45854</v>
       </c>
-      <c r="C69" s="2">
+      <c r="C69">
         <v>3</v>
       </c>
-      <c r="D69" s="2">
+      <c r="D69">
         <v>109.92999999999999</v>
       </c>
       <c r="E69" t="str">
         <f t="shared" ref="E69:E132" si="4">A69</f>
         <v>CUST_0067</v>
       </c>
-      <c r="F69" s="2">
+      <c r="F69">
         <f t="shared" ref="F69:F132" ca="1" si="5">TODAY()-B69</f>
         <v>209</v>
       </c>
@@ -25796,23 +25795,23 @@
       </c>
     </row>
     <row r="70" spans="1:8" x14ac:dyDescent="0.2">
-      <c r="A70" s="4" t="s">
+      <c r="A70" s="3" t="s">
         <v>426</v>
       </c>
       <c r="B70" s="1">
         <v>45987</v>
       </c>
-      <c r="C70" s="2">
+      <c r="C70">
         <v>2</v>
       </c>
-      <c r="D70" s="2">
+      <c r="D70">
         <v>149.94</v>
       </c>
       <c r="E70" t="str">
         <f t="shared" si="4"/>
         <v>CUST_0068</v>
       </c>
-      <c r="F70" s="2">
+      <c r="F70">
         <f t="shared" ca="1" si="5"/>
         <v>76</v>
       </c>
@@ -25826,23 +25825,23 @@
       </c>
     </row>
     <row r="71" spans="1:8" x14ac:dyDescent="0.2">
-      <c r="A71" s="4" t="s">
+      <c r="A71" s="3" t="s">
         <v>604</v>
       </c>
       <c r="B71" s="1">
         <v>46035</v>
       </c>
-      <c r="C71" s="2">
+      <c r="C71">
         <v>7</v>
       </c>
-      <c r="D71" s="2">
+      <c r="D71">
         <v>519.81999999999994</v>
       </c>
       <c r="E71" t="str">
         <f t="shared" si="4"/>
         <v>CUST_0069</v>
       </c>
-      <c r="F71" s="2">
+      <c r="F71">
         <f t="shared" ca="1" si="5"/>
         <v>28</v>
       </c>
@@ -25856,23 +25855,23 @@
       </c>
     </row>
     <row r="72" spans="1:8" x14ac:dyDescent="0.2">
-      <c r="A72" s="4" t="s">
+      <c r="A72" s="3" t="s">
         <v>787</v>
       </c>
       <c r="B72" s="1">
         <v>46013</v>
       </c>
-      <c r="C72" s="2">
+      <c r="C72">
         <v>2</v>
       </c>
-      <c r="D72" s="2">
+      <c r="D72">
         <v>279.90999999999997</v>
       </c>
       <c r="E72" t="str">
         <f t="shared" si="4"/>
         <v>CUST_0070</v>
       </c>
-      <c r="F72" s="2">
+      <c r="F72">
         <f t="shared" ca="1" si="5"/>
         <v>50</v>
       </c>
@@ -25886,23 +25885,23 @@
       </c>
     </row>
     <row r="73" spans="1:8" x14ac:dyDescent="0.2">
-      <c r="A73" s="4" t="s">
+      <c r="A73" s="3" t="s">
         <v>21</v>
       </c>
       <c r="B73" s="1">
         <v>46009</v>
       </c>
-      <c r="C73" s="2">
+      <c r="C73">
         <v>2</v>
       </c>
-      <c r="D73" s="2">
+      <c r="D73">
         <v>49.95</v>
       </c>
       <c r="E73" t="str">
         <f t="shared" si="4"/>
         <v>CUST_0072</v>
       </c>
-      <c r="F73" s="2">
+      <c r="F73">
         <f t="shared" ca="1" si="5"/>
         <v>54</v>
       </c>
@@ -25916,23 +25915,23 @@
       </c>
     </row>
     <row r="74" spans="1:8" x14ac:dyDescent="0.2">
-      <c r="A74" s="4" t="s">
+      <c r="A74" s="3" t="s">
         <v>999</v>
       </c>
       <c r="B74" s="1">
         <v>45972</v>
       </c>
-      <c r="C74" s="2">
+      <c r="C74">
         <v>2</v>
       </c>
-      <c r="D74" s="2">
+      <c r="D74">
         <v>109.92999999999999</v>
       </c>
       <c r="E74" t="str">
         <f t="shared" si="4"/>
         <v>CUST_0073</v>
       </c>
-      <c r="F74" s="2">
+      <c r="F74">
         <f t="shared" ca="1" si="5"/>
         <v>91</v>
       </c>
@@ -25946,23 +25945,23 @@
       </c>
     </row>
     <row r="75" spans="1:8" x14ac:dyDescent="0.2">
-      <c r="A75" s="4" t="s">
+      <c r="A75" s="3" t="s">
         <v>763</v>
       </c>
       <c r="B75" s="1">
         <v>46007</v>
       </c>
-      <c r="C75" s="2">
+      <c r="C75">
         <v>1</v>
       </c>
-      <c r="D75" s="2">
+      <c r="D75">
         <v>39.979999999999997</v>
       </c>
       <c r="E75" t="str">
         <f t="shared" si="4"/>
         <v>CUST_0074</v>
       </c>
-      <c r="F75" s="2">
+      <c r="F75">
         <f t="shared" ca="1" si="5"/>
         <v>56</v>
       </c>
@@ -25976,23 +25975,23 @@
       </c>
     </row>
     <row r="76" spans="1:8" x14ac:dyDescent="0.2">
-      <c r="A76" s="4" t="s">
+      <c r="A76" s="3" t="s">
         <v>408</v>
       </c>
       <c r="B76" s="1">
         <v>46047</v>
       </c>
-      <c r="C76" s="2">
+      <c r="C76">
         <v>6</v>
       </c>
-      <c r="D76" s="2">
+      <c r="D76">
         <v>374.81</v>
       </c>
       <c r="E76" t="str">
         <f t="shared" si="4"/>
         <v>CUST_0075</v>
       </c>
-      <c r="F76" s="2">
+      <c r="F76">
         <f t="shared" ca="1" si="5"/>
         <v>16</v>
       </c>
@@ -26006,23 +26005,23 @@
       </c>
     </row>
     <row r="77" spans="1:8" x14ac:dyDescent="0.2">
-      <c r="A77" s="4" t="s">
+      <c r="A77" s="3" t="s">
         <v>609</v>
       </c>
       <c r="B77" s="1">
         <v>46033</v>
       </c>
-      <c r="C77" s="2">
+      <c r="C77">
         <v>5</v>
       </c>
-      <c r="D77" s="2">
+      <c r="D77">
         <v>309.89</v>
       </c>
       <c r="E77" t="str">
         <f t="shared" si="4"/>
         <v>CUST_0076</v>
       </c>
-      <c r="F77" s="2">
+      <c r="F77">
         <f t="shared" ca="1" si="5"/>
         <v>30</v>
       </c>
@@ -26036,23 +26035,23 @@
       </c>
     </row>
     <row r="78" spans="1:8" x14ac:dyDescent="0.2">
-      <c r="A78" s="4" t="s">
+      <c r="A78" s="3" t="s">
         <v>907</v>
       </c>
       <c r="B78" s="1">
         <v>45944</v>
       </c>
-      <c r="C78" s="2">
+      <c r="C78">
         <v>6</v>
       </c>
-      <c r="D78" s="2">
+      <c r="D78">
         <v>624.73</v>
       </c>
       <c r="E78" t="str">
         <f t="shared" si="4"/>
         <v>CUST_0078</v>
       </c>
-      <c r="F78" s="2">
+      <c r="F78">
         <f t="shared" ca="1" si="5"/>
         <v>119</v>
       </c>
@@ -26066,23 +26065,23 @@
       </c>
     </row>
     <row r="79" spans="1:8" x14ac:dyDescent="0.2">
-      <c r="A79" s="4" t="s">
+      <c r="A79" s="3" t="s">
         <v>819</v>
       </c>
       <c r="B79" s="1">
         <v>45937</v>
       </c>
-      <c r="C79" s="2">
+      <c r="C79">
         <v>2</v>
       </c>
-      <c r="D79" s="2">
+      <c r="D79">
         <v>174.9199999999999</v>
       </c>
       <c r="E79" t="str">
         <f t="shared" si="4"/>
         <v>CUST_0080</v>
       </c>
-      <c r="F79" s="2">
+      <c r="F79">
         <f t="shared" ca="1" si="5"/>
         <v>126</v>
       </c>
@@ -26096,23 +26095,23 @@
       </c>
     </row>
     <row r="80" spans="1:8" x14ac:dyDescent="0.2">
-      <c r="A80" s="4" t="s">
+      <c r="A80" s="3" t="s">
         <v>112</v>
       </c>
       <c r="B80" s="1">
         <v>46026</v>
       </c>
-      <c r="C80" s="2">
+      <c r="C80">
         <v>6</v>
       </c>
-      <c r="D80" s="2">
+      <c r="D80">
         <v>329.85</v>
       </c>
       <c r="E80" t="str">
         <f t="shared" si="4"/>
         <v>CUST_0081</v>
       </c>
-      <c r="F80" s="2">
+      <c r="F80">
         <f t="shared" ca="1" si="5"/>
         <v>37</v>
       </c>
@@ -26126,23 +26125,23 @@
       </c>
     </row>
     <row r="81" spans="1:8" x14ac:dyDescent="0.2">
-      <c r="A81" s="4" t="s">
+      <c r="A81" s="3" t="s">
         <v>865</v>
       </c>
       <c r="B81" s="1">
         <v>45838</v>
       </c>
-      <c r="C81" s="2">
+      <c r="C81">
         <v>2</v>
       </c>
-      <c r="D81" s="2">
+      <c r="D81">
         <v>89.94</v>
       </c>
       <c r="E81" t="str">
         <f t="shared" si="4"/>
         <v>CUST_0082</v>
       </c>
-      <c r="F81" s="2">
+      <c r="F81">
         <f t="shared" ca="1" si="5"/>
         <v>225</v>
       </c>
@@ -26156,23 +26155,23 @@
       </c>
     </row>
     <row r="82" spans="1:8" x14ac:dyDescent="0.2">
-      <c r="A82" s="4" t="s">
+      <c r="A82" s="3" t="s">
         <v>902</v>
       </c>
       <c r="B82" s="1">
         <v>45907</v>
       </c>
-      <c r="C82" s="2">
+      <c r="C82">
         <v>2</v>
       </c>
-      <c r="D82" s="2">
+      <c r="D82">
         <v>104.94999999999999</v>
       </c>
       <c r="E82" t="str">
         <f t="shared" si="4"/>
         <v>CUST_0083</v>
       </c>
-      <c r="F82" s="2">
+      <c r="F82">
         <f t="shared" ca="1" si="5"/>
         <v>156</v>
       </c>
@@ -26186,23 +26185,23 @@
       </c>
     </row>
     <row r="83" spans="1:8" x14ac:dyDescent="0.2">
-      <c r="A83" s="4" t="s">
+      <c r="A83" s="3" t="s">
         <v>717</v>
       </c>
       <c r="B83" s="1">
         <v>45944</v>
       </c>
-      <c r="C83" s="2">
+      <c r="C83">
         <v>3</v>
       </c>
-      <c r="D83" s="2">
+      <c r="D83">
         <v>149.88999999999999</v>
       </c>
       <c r="E83" t="str">
         <f t="shared" si="4"/>
         <v>CUST_0084</v>
       </c>
-      <c r="F83" s="2">
+      <c r="F83">
         <f t="shared" ca="1" si="5"/>
         <v>119</v>
       </c>
@@ -26216,23 +26215,23 @@
       </c>
     </row>
     <row r="84" spans="1:8" x14ac:dyDescent="0.2">
-      <c r="A84" s="4" t="s">
+      <c r="A84" s="3" t="s">
         <v>905</v>
       </c>
       <c r="B84" s="1">
         <v>45914</v>
       </c>
-      <c r="C84" s="2">
+      <c r="C84">
         <v>2</v>
       </c>
-      <c r="D84" s="2">
+      <c r="D84">
         <v>174.89999999999992</v>
       </c>
       <c r="E84" t="str">
         <f t="shared" si="4"/>
         <v>CUST_0085</v>
       </c>
-      <c r="F84" s="2">
+      <c r="F84">
         <f t="shared" ca="1" si="5"/>
         <v>149</v>
       </c>
@@ -26246,23 +26245,23 @@
       </c>
     </row>
     <row r="85" spans="1:8" x14ac:dyDescent="0.2">
-      <c r="A85" s="4" t="s">
+      <c r="A85" s="3" t="s">
         <v>257</v>
       </c>
       <c r="B85" s="1">
         <v>46041</v>
       </c>
-      <c r="C85" s="2">
+      <c r="C85">
         <v>5</v>
       </c>
-      <c r="D85" s="2">
+      <c r="D85">
         <v>579.79999999999995</v>
       </c>
       <c r="E85" t="str">
         <f t="shared" si="4"/>
         <v>CUST_0086</v>
       </c>
-      <c r="F85" s="2">
+      <c r="F85">
         <f t="shared" ca="1" si="5"/>
         <v>22</v>
       </c>
@@ -26276,23 +26275,23 @@
       </c>
     </row>
     <row r="86" spans="1:8" x14ac:dyDescent="0.2">
-      <c r="A86" s="4" t="s">
+      <c r="A86" s="3" t="s">
         <v>1329</v>
       </c>
       <c r="B86" s="1">
         <v>45760</v>
       </c>
-      <c r="C86" s="2">
+      <c r="C86">
         <v>2</v>
       </c>
-      <c r="D86" s="2">
+      <c r="D86">
         <v>184.91999999999899</v>
       </c>
       <c r="E86" t="str">
         <f t="shared" si="4"/>
         <v>CUST_0087</v>
       </c>
-      <c r="F86" s="2">
+      <c r="F86">
         <f t="shared" ca="1" si="5"/>
         <v>303</v>
       </c>
@@ -26306,23 +26305,23 @@
       </c>
     </row>
     <row r="87" spans="1:8" x14ac:dyDescent="0.2">
-      <c r="A87" s="4" t="s">
+      <c r="A87" s="3" t="s">
         <v>37</v>
       </c>
       <c r="B87" s="1">
         <v>45954</v>
       </c>
-      <c r="C87" s="2">
+      <c r="C87">
         <v>2</v>
       </c>
-      <c r="D87" s="2">
+      <c r="D87">
         <v>279.93</v>
       </c>
       <c r="E87" t="str">
         <f t="shared" si="4"/>
         <v>CUST_0088</v>
       </c>
-      <c r="F87" s="2">
+      <c r="F87">
         <f t="shared" ca="1" si="5"/>
         <v>109</v>
       </c>
@@ -26336,23 +26335,23 @@
       </c>
     </row>
     <row r="88" spans="1:8" x14ac:dyDescent="0.2">
-      <c r="A88" s="4" t="s">
+      <c r="A88" s="3" t="s">
         <v>94</v>
       </c>
       <c r="B88" s="1">
         <v>45939</v>
       </c>
-      <c r="C88" s="2">
+      <c r="C88">
         <v>5</v>
       </c>
-      <c r="D88" s="2">
+      <c r="D88">
         <v>394.86</v>
       </c>
       <c r="E88" t="str">
         <f t="shared" si="4"/>
         <v>CUST_0089</v>
       </c>
-      <c r="F88" s="2">
+      <c r="F88">
         <f t="shared" ca="1" si="5"/>
         <v>124</v>
       </c>
@@ -26366,23 +26365,23 @@
       </c>
     </row>
     <row r="89" spans="1:8" x14ac:dyDescent="0.2">
-      <c r="A89" s="4" t="s">
+      <c r="A89" s="3" t="s">
         <v>677</v>
       </c>
       <c r="B89" s="1">
         <v>46030</v>
       </c>
-      <c r="C89" s="2">
+      <c r="C89">
         <v>5</v>
       </c>
-      <c r="D89" s="2">
+      <c r="D89">
         <v>259.90999999999997</v>
       </c>
       <c r="E89" t="str">
         <f t="shared" si="4"/>
         <v>CUST_0090</v>
       </c>
-      <c r="F89" s="2">
+      <c r="F89">
         <f t="shared" ca="1" si="5"/>
         <v>33</v>
       </c>
@@ -26396,23 +26395,23 @@
       </c>
     </row>
     <row r="90" spans="1:8" x14ac:dyDescent="0.2">
-      <c r="A90" s="4" t="s">
+      <c r="A90" s="3" t="s">
         <v>794</v>
       </c>
       <c r="B90" s="1">
         <v>45957</v>
       </c>
-      <c r="C90" s="2">
+      <c r="C90">
         <v>1</v>
       </c>
-      <c r="D90" s="2">
+      <c r="D90">
         <v>99.96</v>
       </c>
       <c r="E90" t="str">
         <f t="shared" si="4"/>
         <v>CUST_0091</v>
       </c>
-      <c r="F90" s="2">
+      <c r="F90">
         <f t="shared" ca="1" si="5"/>
         <v>106</v>
       </c>
@@ -26426,23 +26425,23 @@
       </c>
     </row>
     <row r="91" spans="1:8" x14ac:dyDescent="0.2">
-      <c r="A91" s="4" t="s">
+      <c r="A91" s="3" t="s">
         <v>104</v>
       </c>
       <c r="B91" s="1">
         <v>46005</v>
       </c>
-      <c r="C91" s="2">
+      <c r="C91">
         <v>6</v>
       </c>
-      <c r="D91" s="2">
+      <c r="D91">
         <v>404.81999999999903</v>
       </c>
       <c r="E91" t="str">
         <f t="shared" si="4"/>
         <v>CUST_0092</v>
       </c>
-      <c r="F91" s="2">
+      <c r="F91">
         <f t="shared" ca="1" si="5"/>
         <v>58</v>
       </c>
@@ -26456,23 +26455,23 @@
       </c>
     </row>
     <row r="92" spans="1:8" x14ac:dyDescent="0.2">
-      <c r="A92" s="4" t="s">
+      <c r="A92" s="3" t="s">
         <v>680</v>
       </c>
       <c r="B92" s="1">
         <v>46033</v>
       </c>
-      <c r="C92" s="2">
+      <c r="C92">
         <v>2</v>
       </c>
-      <c r="D92" s="2">
+      <c r="D92">
         <v>94.94</v>
       </c>
       <c r="E92" t="str">
         <f t="shared" si="4"/>
         <v>CUST_0093</v>
       </c>
-      <c r="F92" s="2">
+      <c r="F92">
         <f t="shared" ca="1" si="5"/>
         <v>30</v>
       </c>
@@ -26486,23 +26485,23 @@
       </c>
     </row>
     <row r="93" spans="1:8" x14ac:dyDescent="0.2">
-      <c r="A93" s="4" t="s">
+      <c r="A93" s="3" t="s">
         <v>622</v>
       </c>
       <c r="B93" s="1">
         <v>46040</v>
       </c>
-      <c r="C93" s="2">
+      <c r="C93">
         <v>3</v>
       </c>
-      <c r="D93" s="2">
+      <c r="D93">
         <v>209.87</v>
       </c>
       <c r="E93" t="str">
         <f t="shared" si="4"/>
         <v>CUST_0094</v>
       </c>
-      <c r="F93" s="2">
+      <c r="F93">
         <f t="shared" ca="1" si="5"/>
         <v>23</v>
       </c>
@@ -26516,23 +26515,23 @@
       </c>
     </row>
     <row r="94" spans="1:8" x14ac:dyDescent="0.2">
-      <c r="A94" s="4" t="s">
+      <c r="A94" s="3" t="s">
         <v>478</v>
       </c>
       <c r="B94" s="1">
         <v>46007</v>
       </c>
-      <c r="C94" s="2">
+      <c r="C94">
         <v>7</v>
       </c>
-      <c r="D94" s="2">
+      <c r="D94">
         <v>624.77</v>
       </c>
       <c r="E94" t="str">
         <f t="shared" si="4"/>
         <v>CUST_0095</v>
       </c>
-      <c r="F94" s="2">
+      <c r="F94">
         <f t="shared" ca="1" si="5"/>
         <v>56</v>
       </c>
@@ -26546,23 +26545,23 @@
       </c>
     </row>
     <row r="95" spans="1:8" x14ac:dyDescent="0.2">
-      <c r="A95" s="4" t="s">
+      <c r="A95" s="3" t="s">
         <v>235</v>
       </c>
       <c r="B95" s="1">
         <v>45999</v>
       </c>
-      <c r="C95" s="2">
+      <c r="C95">
         <v>6</v>
       </c>
-      <c r="D95" s="2">
+      <c r="D95">
         <v>359.84</v>
       </c>
       <c r="E95" t="str">
         <f t="shared" si="4"/>
         <v>CUST_0096</v>
       </c>
-      <c r="F95" s="2">
+      <c r="F95">
         <f t="shared" ca="1" si="5"/>
         <v>64</v>
       </c>
@@ -26576,23 +26575,23 @@
       </c>
     </row>
     <row r="96" spans="1:8" x14ac:dyDescent="0.2">
-      <c r="A96" s="4" t="s">
+      <c r="A96" s="3" t="s">
         <v>354</v>
       </c>
       <c r="B96" s="1">
         <v>45995</v>
       </c>
-      <c r="C96" s="2">
+      <c r="C96">
         <v>4</v>
       </c>
-      <c r="D96" s="2">
+      <c r="D96">
         <v>229.88000000000002</v>
       </c>
       <c r="E96" t="str">
         <f t="shared" si="4"/>
         <v>CUST_0097</v>
       </c>
-      <c r="F96" s="2">
+      <c r="F96">
         <f t="shared" ca="1" si="5"/>
         <v>68</v>
       </c>
@@ -26606,23 +26605,23 @@
       </c>
     </row>
     <row r="97" spans="1:8" x14ac:dyDescent="0.2">
-      <c r="A97" s="4" t="s">
+      <c r="A97" s="3" t="s">
         <v>347</v>
       </c>
       <c r="B97" s="1">
         <v>46032</v>
       </c>
-      <c r="C97" s="2">
+      <c r="C97">
         <v>6</v>
       </c>
-      <c r="D97" s="2">
+      <c r="D97">
         <v>324.85000000000002</v>
       </c>
       <c r="E97" t="str">
         <f t="shared" si="4"/>
         <v>CUST_0098</v>
       </c>
-      <c r="F97" s="2">
+      <c r="F97">
         <f t="shared" ca="1" si="5"/>
         <v>31</v>
       </c>
@@ -26636,23 +26635,23 @@
       </c>
     </row>
     <row r="98" spans="1:8" x14ac:dyDescent="0.2">
-      <c r="A98" s="4" t="s">
+      <c r="A98" s="3" t="s">
         <v>201</v>
       </c>
       <c r="B98" s="1">
         <v>46007</v>
       </c>
-      <c r="C98" s="2">
+      <c r="C98">
         <v>9</v>
       </c>
-      <c r="D98" s="2">
+      <c r="D98">
         <v>709.78000000000009</v>
       </c>
       <c r="E98" t="str">
         <f t="shared" si="4"/>
         <v>CUST_0099</v>
       </c>
-      <c r="F98" s="2">
+      <c r="F98">
         <f t="shared" ca="1" si="5"/>
         <v>56</v>
       </c>
@@ -26666,23 +26665,23 @@
       </c>
     </row>
     <row r="99" spans="1:8" x14ac:dyDescent="0.2">
-      <c r="A99" s="4" t="s">
+      <c r="A99" s="3" t="s">
         <v>39</v>
       </c>
       <c r="B99" s="1">
         <v>46009</v>
       </c>
-      <c r="C99" s="2">
+      <c r="C99">
         <v>4</v>
       </c>
-      <c r="D99" s="2">
+      <c r="D99">
         <v>229.86999999999898</v>
       </c>
       <c r="E99" t="str">
         <f t="shared" si="4"/>
         <v>CUST_0100</v>
       </c>
-      <c r="F99" s="2">
+      <c r="F99">
         <f t="shared" ca="1" si="5"/>
         <v>54</v>
       </c>
@@ -26696,23 +26695,23 @@
       </c>
     </row>
     <row r="100" spans="1:8" x14ac:dyDescent="0.2">
-      <c r="A100" s="4" t="s">
+      <c r="A100" s="3" t="s">
         <v>210</v>
       </c>
       <c r="B100" s="1">
         <v>45955</v>
       </c>
-      <c r="C100" s="2">
+      <c r="C100">
         <v>8</v>
       </c>
-      <c r="D100" s="2">
+      <c r="D100">
         <v>529.69999999999891</v>
       </c>
       <c r="E100" t="str">
         <f t="shared" si="4"/>
         <v>CUST_0101</v>
       </c>
-      <c r="F100" s="2">
+      <c r="F100">
         <f t="shared" ca="1" si="5"/>
         <v>108</v>
       </c>
@@ -26726,23 +26725,23 @@
       </c>
     </row>
     <row r="101" spans="1:8" x14ac:dyDescent="0.2">
-      <c r="A101" s="4" t="s">
+      <c r="A101" s="3" t="s">
         <v>1484</v>
       </c>
       <c r="B101" s="1">
         <v>45983</v>
       </c>
-      <c r="C101" s="2">
+      <c r="C101">
         <v>1</v>
       </c>
-      <c r="D101" s="2">
+      <c r="D101">
         <v>59.96</v>
       </c>
       <c r="E101" t="str">
         <f t="shared" si="4"/>
         <v>CUST_0102</v>
       </c>
-      <c r="F101" s="2">
+      <c r="F101">
         <f t="shared" ca="1" si="5"/>
         <v>80</v>
       </c>
@@ -26756,23 +26755,23 @@
       </c>
     </row>
     <row r="102" spans="1:8" x14ac:dyDescent="0.2">
-      <c r="A102" s="4" t="s">
+      <c r="A102" s="3" t="s">
         <v>10</v>
       </c>
       <c r="B102" s="1">
         <v>45763</v>
       </c>
-      <c r="C102" s="2">
+      <c r="C102">
         <v>4</v>
       </c>
-      <c r="D102" s="2">
+      <c r="D102">
         <v>214.87</v>
       </c>
       <c r="E102" t="str">
         <f t="shared" si="4"/>
         <v>CUST_0103</v>
       </c>
-      <c r="F102" s="2">
+      <c r="F102">
         <f t="shared" ca="1" si="5"/>
         <v>300</v>
       </c>
@@ -26786,23 +26785,23 @@
       </c>
     </row>
     <row r="103" spans="1:8" x14ac:dyDescent="0.2">
-      <c r="A103" s="4" t="s">
+      <c r="A103" s="3" t="s">
         <v>411</v>
       </c>
       <c r="B103" s="1">
         <v>46033</v>
       </c>
-      <c r="C103" s="2">
+      <c r="C103">
         <v>8</v>
       </c>
-      <c r="D103" s="2">
+      <c r="D103">
         <v>439.80999999999995</v>
       </c>
       <c r="E103" t="str">
         <f t="shared" si="4"/>
         <v>CUST_0104</v>
       </c>
-      <c r="F103" s="2">
+      <c r="F103">
         <f t="shared" ca="1" si="5"/>
         <v>30</v>
       </c>
@@ -26816,23 +26815,23 @@
       </c>
     </row>
     <row r="104" spans="1:8" x14ac:dyDescent="0.2">
-      <c r="A104" s="4" t="s">
+      <c r="A104" s="3" t="s">
         <v>685</v>
       </c>
       <c r="B104" s="1">
         <v>45740</v>
       </c>
-      <c r="C104" s="2">
+      <c r="C104">
         <v>2</v>
       </c>
-      <c r="D104" s="2">
+      <c r="D104">
         <v>129.93</v>
       </c>
       <c r="E104" t="str">
         <f t="shared" si="4"/>
         <v>CUST_0105</v>
       </c>
-      <c r="F104" s="2">
+      <c r="F104">
         <f t="shared" ca="1" si="5"/>
         <v>323</v>
       </c>
@@ -26846,23 +26845,23 @@
       </c>
     </row>
     <row r="105" spans="1:8" x14ac:dyDescent="0.2">
-      <c r="A105" s="4" t="s">
+      <c r="A105" s="3" t="s">
         <v>120</v>
       </c>
       <c r="B105" s="1">
         <v>46002</v>
       </c>
-      <c r="C105" s="2">
+      <c r="C105">
         <v>4</v>
       </c>
-      <c r="D105" s="2">
+      <c r="D105">
         <v>269.89999999999998</v>
       </c>
       <c r="E105" t="str">
         <f t="shared" si="4"/>
         <v>CUST_0106</v>
       </c>
-      <c r="F105" s="2">
+      <c r="F105">
         <f t="shared" ca="1" si="5"/>
         <v>61</v>
       </c>
@@ -26876,23 +26875,23 @@
       </c>
     </row>
     <row r="106" spans="1:8" x14ac:dyDescent="0.2">
-      <c r="A106" s="4" t="s">
+      <c r="A106" s="3" t="s">
         <v>19</v>
       </c>
       <c r="B106" s="1">
         <v>45857</v>
       </c>
-      <c r="C106" s="2">
+      <c r="C106">
         <v>2</v>
       </c>
-      <c r="D106" s="2">
+      <c r="D106">
         <v>134.94999999999999</v>
       </c>
       <c r="E106" t="str">
         <f t="shared" si="4"/>
         <v>CUST_0107</v>
       </c>
-      <c r="F106" s="2">
+      <c r="F106">
         <f t="shared" ca="1" si="5"/>
         <v>206</v>
       </c>
@@ -26906,23 +26905,23 @@
       </c>
     </row>
     <row r="107" spans="1:8" x14ac:dyDescent="0.2">
-      <c r="A107" s="4" t="s">
+      <c r="A107" s="3" t="s">
         <v>271</v>
       </c>
       <c r="B107" s="1">
         <v>45830</v>
       </c>
-      <c r="C107" s="2">
+      <c r="C107">
         <v>3</v>
       </c>
-      <c r="D107" s="2">
+      <c r="D107">
         <v>199.90999999999997</v>
       </c>
       <c r="E107" t="str">
         <f t="shared" si="4"/>
         <v>CUST_0108</v>
       </c>
-      <c r="F107" s="2">
+      <c r="F107">
         <f t="shared" ca="1" si="5"/>
         <v>233</v>
       </c>
@@ -26936,23 +26935,23 @@
       </c>
     </row>
     <row r="108" spans="1:8" x14ac:dyDescent="0.2">
-      <c r="A108" s="4" t="s">
+      <c r="A108" s="3" t="s">
         <v>743</v>
       </c>
       <c r="B108" s="1">
         <v>45979</v>
       </c>
-      <c r="C108" s="2">
+      <c r="C108">
         <v>3</v>
       </c>
-      <c r="D108" s="2">
+      <c r="D108">
         <v>194.91</v>
       </c>
       <c r="E108" t="str">
         <f t="shared" si="4"/>
         <v>CUST_0109</v>
       </c>
-      <c r="F108" s="2">
+      <c r="F108">
         <f t="shared" ca="1" si="5"/>
         <v>84</v>
       </c>
@@ -26966,23 +26965,23 @@
       </c>
     </row>
     <row r="109" spans="1:8" x14ac:dyDescent="0.2">
-      <c r="A109" s="4" t="s">
+      <c r="A109" s="3" t="s">
         <v>1257</v>
       </c>
       <c r="B109" s="1">
         <v>45854</v>
       </c>
-      <c r="C109" s="2">
+      <c r="C109">
         <v>1</v>
       </c>
-      <c r="D109" s="2">
+      <c r="D109">
         <v>14.99</v>
       </c>
       <c r="E109" t="str">
         <f t="shared" si="4"/>
         <v>CUST_0110</v>
       </c>
-      <c r="F109" s="2">
+      <c r="F109">
         <f t="shared" ca="1" si="5"/>
         <v>209</v>
       </c>
@@ -26996,23 +26995,23 @@
       </c>
     </row>
     <row r="110" spans="1:8" x14ac:dyDescent="0.2">
-      <c r="A110" s="4" t="s">
+      <c r="A110" s="3" t="s">
         <v>968</v>
       </c>
       <c r="B110" s="1">
         <v>45969</v>
       </c>
-      <c r="C110" s="2">
+      <c r="C110">
         <v>8</v>
       </c>
-      <c r="D110" s="2">
+      <c r="D110">
         <v>904.7</v>
       </c>
       <c r="E110" t="str">
         <f t="shared" si="4"/>
         <v>CUST_0111</v>
       </c>
-      <c r="F110" s="2">
+      <c r="F110">
         <f t="shared" ca="1" si="5"/>
         <v>94</v>
       </c>
@@ -27026,23 +27025,23 @@
       </c>
     </row>
     <row r="111" spans="1:8" x14ac:dyDescent="0.2">
-      <c r="A111" s="4" t="s">
+      <c r="A111" s="3" t="s">
         <v>384</v>
       </c>
       <c r="B111" s="1">
         <v>46025</v>
       </c>
-      <c r="C111" s="2">
+      <c r="C111">
         <v>5</v>
       </c>
-      <c r="D111" s="2">
+      <c r="D111">
         <v>284.84000000000003</v>
       </c>
       <c r="E111" t="str">
         <f t="shared" si="4"/>
         <v>CUST_0112</v>
       </c>
-      <c r="F111" s="2">
+      <c r="F111">
         <f t="shared" ca="1" si="5"/>
         <v>38</v>
       </c>
@@ -27056,23 +27055,23 @@
       </c>
     </row>
     <row r="112" spans="1:8" x14ac:dyDescent="0.2">
-      <c r="A112" s="4" t="s">
+      <c r="A112" s="3" t="s">
         <v>307</v>
       </c>
       <c r="B112" s="1">
         <v>46035</v>
       </c>
-      <c r="C112" s="2">
+      <c r="C112">
         <v>9</v>
       </c>
-      <c r="D112" s="2">
+      <c r="D112">
         <v>534.70999999999992</v>
       </c>
       <c r="E112" t="str">
         <f t="shared" si="4"/>
         <v>CUST_0113</v>
       </c>
-      <c r="F112" s="2">
+      <c r="F112">
         <f t="shared" ca="1" si="5"/>
         <v>28</v>
       </c>
@@ -27086,23 +27085,23 @@
       </c>
     </row>
     <row r="113" spans="1:8" x14ac:dyDescent="0.2">
-      <c r="A113" s="4" t="s">
+      <c r="A113" s="3" t="s">
         <v>501</v>
       </c>
       <c r="B113" s="1">
         <v>45883</v>
       </c>
-      <c r="C113" s="2">
+      <c r="C113">
         <v>3</v>
       </c>
-      <c r="D113" s="2">
+      <c r="D113">
         <v>134.91</v>
       </c>
       <c r="E113" t="str">
         <f t="shared" si="4"/>
         <v>CUST_0114</v>
       </c>
-      <c r="F113" s="2">
+      <c r="F113">
         <f t="shared" ca="1" si="5"/>
         <v>180</v>
       </c>
@@ -27116,23 +27115,23 @@
       </c>
     </row>
     <row r="114" spans="1:8" x14ac:dyDescent="0.2">
-      <c r="A114" s="4" t="s">
+      <c r="A114" s="3" t="s">
         <v>683</v>
       </c>
       <c r="B114" s="1">
         <v>46042</v>
       </c>
-      <c r="C114" s="2">
+      <c r="C114">
         <v>3</v>
       </c>
-      <c r="D114" s="2">
+      <c r="D114">
         <v>179.90999999999988</v>
       </c>
       <c r="E114" t="str">
         <f t="shared" si="4"/>
         <v>CUST_0115</v>
       </c>
-      <c r="F114" s="2">
+      <c r="F114">
         <f t="shared" ca="1" si="5"/>
         <v>21</v>
       </c>
@@ -27146,23 +27145,23 @@
       </c>
     </row>
     <row r="115" spans="1:8" x14ac:dyDescent="0.2">
-      <c r="A115" s="4" t="s">
+      <c r="A115" s="3" t="s">
         <v>285</v>
       </c>
       <c r="B115" s="1">
         <v>45938</v>
       </c>
-      <c r="C115" s="2">
+      <c r="C115">
         <v>3</v>
       </c>
-      <c r="D115" s="2">
+      <c r="D115">
         <v>184.92</v>
       </c>
       <c r="E115" t="str">
         <f t="shared" si="4"/>
         <v>CUST_0116</v>
       </c>
-      <c r="F115" s="2">
+      <c r="F115">
         <f t="shared" ca="1" si="5"/>
         <v>125</v>
       </c>
@@ -27176,23 +27175,23 @@
       </c>
     </row>
     <row r="116" spans="1:8" x14ac:dyDescent="0.2">
-      <c r="A116" s="4" t="s">
+      <c r="A116" s="3" t="s">
         <v>579</v>
       </c>
       <c r="B116" s="1">
         <v>46001</v>
       </c>
-      <c r="C116" s="2">
+      <c r="C116">
         <v>5</v>
       </c>
-      <c r="D116" s="2">
+      <c r="D116">
         <v>344.8399999999998</v>
       </c>
       <c r="E116" t="str">
         <f t="shared" si="4"/>
         <v>CUST_0117</v>
       </c>
-      <c r="F116" s="2">
+      <c r="F116">
         <f t="shared" ca="1" si="5"/>
         <v>62</v>
       </c>
@@ -27206,23 +27205,23 @@
       </c>
     </row>
     <row r="117" spans="1:8" x14ac:dyDescent="0.2">
-      <c r="A117" s="4" t="s">
+      <c r="A117" s="3" t="s">
         <v>595</v>
       </c>
       <c r="B117" s="1">
         <v>45992</v>
       </c>
-      <c r="C117" s="2">
+      <c r="C117">
         <v>6</v>
       </c>
-      <c r="D117" s="2">
+      <c r="D117">
         <v>529.85</v>
       </c>
       <c r="E117" t="str">
         <f t="shared" si="4"/>
         <v>CUST_0118</v>
       </c>
-      <c r="F117" s="2">
+      <c r="F117">
         <f t="shared" ca="1" si="5"/>
         <v>71</v>
       </c>
@@ -27236,23 +27235,23 @@
       </c>
     </row>
     <row r="118" spans="1:8" x14ac:dyDescent="0.2">
-      <c r="A118" s="4" t="s">
+      <c r="A118" s="3" t="s">
         <v>876</v>
       </c>
       <c r="B118" s="1">
         <v>45992</v>
       </c>
-      <c r="C118" s="2">
+      <c r="C118">
         <v>3</v>
       </c>
-      <c r="D118" s="2">
+      <c r="D118">
         <v>154.92000000000002</v>
       </c>
       <c r="E118" t="str">
         <f t="shared" si="4"/>
         <v>CUST_0119</v>
       </c>
-      <c r="F118" s="2">
+      <c r="F118">
         <f t="shared" ca="1" si="5"/>
         <v>71</v>
       </c>
@@ -27266,23 +27265,23 @@
       </c>
     </row>
     <row r="119" spans="1:8" x14ac:dyDescent="0.2">
-      <c r="A119" s="4" t="s">
+      <c r="A119" s="3" t="s">
         <v>404</v>
       </c>
       <c r="B119" s="1">
         <v>46016</v>
       </c>
-      <c r="C119" s="2">
+      <c r="C119">
         <v>4</v>
       </c>
-      <c r="D119" s="2">
+      <c r="D119">
         <v>209.88999999999899</v>
       </c>
       <c r="E119" t="str">
         <f t="shared" si="4"/>
         <v>CUST_0120</v>
       </c>
-      <c r="F119" s="2">
+      <c r="F119">
         <f t="shared" ca="1" si="5"/>
         <v>47</v>
       </c>
@@ -27296,23 +27295,23 @@
       </c>
     </row>
     <row r="120" spans="1:8" x14ac:dyDescent="0.2">
-      <c r="A120" s="4" t="s">
+      <c r="A120" s="3" t="s">
         <v>283</v>
       </c>
       <c r="B120" s="1">
         <v>45932</v>
       </c>
-      <c r="C120" s="2">
+      <c r="C120">
         <v>2</v>
       </c>
-      <c r="D120" s="2">
+      <c r="D120">
         <v>219.92</v>
       </c>
       <c r="E120" t="str">
         <f t="shared" si="4"/>
         <v>CUST_0121</v>
       </c>
-      <c r="F120" s="2">
+      <c r="F120">
         <f t="shared" ca="1" si="5"/>
         <v>131</v>
       </c>
@@ -27326,23 +27325,23 @@
       </c>
     </row>
     <row r="121" spans="1:8" x14ac:dyDescent="0.2">
-      <c r="A121" s="4" t="s">
+      <c r="A121" s="3" t="s">
         <v>32</v>
       </c>
       <c r="B121" s="1">
         <v>46006</v>
       </c>
-      <c r="C121" s="2">
+      <c r="C121">
         <v>7</v>
       </c>
-      <c r="D121" s="2">
+      <c r="D121">
         <v>404.82999999999902</v>
       </c>
       <c r="E121" t="str">
         <f t="shared" si="4"/>
         <v>CUST_0122</v>
       </c>
-      <c r="F121" s="2">
+      <c r="F121">
         <f t="shared" ca="1" si="5"/>
         <v>57</v>
       </c>
@@ -27356,23 +27355,23 @@
       </c>
     </row>
     <row r="122" spans="1:8" x14ac:dyDescent="0.2">
-      <c r="A122" s="4" t="s">
+      <c r="A122" s="3" t="s">
         <v>342</v>
       </c>
       <c r="B122" s="1">
         <v>46037</v>
       </c>
-      <c r="C122" s="2">
+      <c r="C122">
         <v>2</v>
       </c>
-      <c r="D122" s="2">
+      <c r="D122">
         <v>149.92999999999989</v>
       </c>
       <c r="E122" t="str">
         <f t="shared" si="4"/>
         <v>CUST_0123</v>
       </c>
-      <c r="F122" s="2">
+      <c r="F122">
         <f t="shared" ca="1" si="5"/>
         <v>26</v>
       </c>
@@ -27386,23 +27385,23 @@
       </c>
     </row>
     <row r="123" spans="1:8" x14ac:dyDescent="0.2">
-      <c r="A123" s="4" t="s">
+      <c r="A123" s="3" t="s">
         <v>357</v>
       </c>
       <c r="B123" s="1">
         <v>45948</v>
       </c>
-      <c r="C123" s="2">
+      <c r="C123">
         <v>2</v>
       </c>
-      <c r="D123" s="2">
+      <c r="D123">
         <v>189.94</v>
       </c>
       <c r="E123" t="str">
         <f t="shared" si="4"/>
         <v>CUST_0124</v>
       </c>
-      <c r="F123" s="2">
+      <c r="F123">
         <f t="shared" ca="1" si="5"/>
         <v>115</v>
       </c>
@@ -27416,23 +27415,23 @@
       </c>
     </row>
     <row r="124" spans="1:8" x14ac:dyDescent="0.2">
-      <c r="A124" s="4" t="s">
+      <c r="A124" s="3" t="s">
         <v>542</v>
       </c>
       <c r="B124" s="1">
         <v>46041</v>
       </c>
-      <c r="C124" s="2">
+      <c r="C124">
         <v>2</v>
       </c>
-      <c r="D124" s="2">
+      <c r="D124">
         <v>179.92</v>
       </c>
       <c r="E124" t="str">
         <f t="shared" si="4"/>
         <v>CUST_0125</v>
       </c>
-      <c r="F124" s="2">
+      <c r="F124">
         <f t="shared" ca="1" si="5"/>
         <v>22</v>
       </c>
@@ -27446,23 +27445,23 @@
       </c>
     </row>
     <row r="125" spans="1:8" x14ac:dyDescent="0.2">
-      <c r="A125" s="4" t="s">
+      <c r="A125" s="3" t="s">
         <v>328</v>
       </c>
       <c r="B125" s="1">
         <v>45994</v>
       </c>
-      <c r="C125" s="2">
+      <c r="C125">
         <v>6</v>
       </c>
-      <c r="D125" s="2">
+      <c r="D125">
         <v>484.78999999999991</v>
       </c>
       <c r="E125" t="str">
         <f t="shared" si="4"/>
         <v>CUST_0126</v>
       </c>
-      <c r="F125" s="2">
+      <c r="F125">
         <f t="shared" ca="1" si="5"/>
         <v>69</v>
       </c>
@@ -27476,23 +27475,23 @@
       </c>
     </row>
     <row r="126" spans="1:8" x14ac:dyDescent="0.2">
-      <c r="A126" s="4" t="s">
+      <c r="A126" s="3" t="s">
         <v>506</v>
       </c>
       <c r="B126" s="1">
         <v>45993</v>
       </c>
-      <c r="C126" s="2">
+      <c r="C126">
         <v>4</v>
       </c>
-      <c r="D126" s="2">
+      <c r="D126">
         <v>154.91999999999999</v>
       </c>
       <c r="E126" t="str">
         <f t="shared" si="4"/>
         <v>CUST_0127</v>
       </c>
-      <c r="F126" s="2">
+      <c r="F126">
         <f t="shared" ca="1" si="5"/>
         <v>70</v>
       </c>
@@ -27506,23 +27505,23 @@
       </c>
     </row>
     <row r="127" spans="1:8" x14ac:dyDescent="0.2">
-      <c r="A127" s="4" t="s">
+      <c r="A127" s="3" t="s">
         <v>276</v>
       </c>
       <c r="B127" s="1">
         <v>46001</v>
       </c>
-      <c r="C127" s="2">
+      <c r="C127">
         <v>7</v>
       </c>
-      <c r="D127" s="2">
+      <c r="D127">
         <v>414.79999999999899</v>
       </c>
       <c r="E127" t="str">
         <f t="shared" si="4"/>
         <v>CUST_0128</v>
       </c>
-      <c r="F127" s="2">
+      <c r="F127">
         <f t="shared" ca="1" si="5"/>
         <v>62</v>
       </c>
@@ -27536,23 +27535,23 @@
       </c>
     </row>
     <row r="128" spans="1:8" x14ac:dyDescent="0.2">
-      <c r="A128" s="4" t="s">
+      <c r="A128" s="3" t="s">
         <v>166</v>
       </c>
       <c r="B128" s="1">
         <v>45842</v>
       </c>
-      <c r="C128" s="2">
+      <c r="C128">
         <v>4</v>
       </c>
-      <c r="D128" s="2">
+      <c r="D128">
         <v>299.85999999999996</v>
       </c>
       <c r="E128" t="str">
         <f t="shared" si="4"/>
         <v>CUST_0129</v>
       </c>
-      <c r="F128" s="2">
+      <c r="F128">
         <f t="shared" ca="1" si="5"/>
         <v>221</v>
       </c>
@@ -27566,23 +27565,23 @@
       </c>
     </row>
     <row r="129" spans="1:8" x14ac:dyDescent="0.2">
-      <c r="A129" s="4" t="s">
+      <c r="A129" s="3" t="s">
         <v>320</v>
       </c>
       <c r="B129" s="1">
         <v>46007</v>
       </c>
-      <c r="C129" s="2">
+      <c r="C129">
         <v>5</v>
       </c>
-      <c r="D129" s="2">
+      <c r="D129">
         <v>314.82</v>
       </c>
       <c r="E129" t="str">
         <f t="shared" si="4"/>
         <v>CUST_0130</v>
       </c>
-      <c r="F129" s="2">
+      <c r="F129">
         <f t="shared" ca="1" si="5"/>
         <v>56</v>
       </c>
@@ -27596,23 +27595,23 @@
       </c>
     </row>
     <row r="130" spans="1:8" x14ac:dyDescent="0.2">
-      <c r="A130" s="4" t="s">
+      <c r="A130" s="3" t="s">
         <v>44</v>
       </c>
       <c r="B130" s="1">
         <v>45942</v>
       </c>
-      <c r="C130" s="2">
+      <c r="C130">
         <v>6</v>
       </c>
-      <c r="D130" s="2">
+      <c r="D130">
         <v>194.87</v>
       </c>
       <c r="E130" t="str">
         <f t="shared" si="4"/>
         <v>CUST_0131</v>
       </c>
-      <c r="F130" s="2">
+      <c r="F130">
         <f t="shared" ca="1" si="5"/>
         <v>121</v>
       </c>
@@ -27626,23 +27625,23 @@
       </c>
     </row>
     <row r="131" spans="1:8" x14ac:dyDescent="0.2">
-      <c r="A131" s="4" t="s">
+      <c r="A131" s="3" t="s">
         <v>783</v>
       </c>
       <c r="B131" s="1">
         <v>45817</v>
       </c>
-      <c r="C131" s="2">
+      <c r="C131">
         <v>3</v>
       </c>
-      <c r="D131" s="2">
+      <c r="D131">
         <v>244.9</v>
       </c>
       <c r="E131" t="str">
         <f t="shared" si="4"/>
         <v>CUST_0132</v>
       </c>
-      <c r="F131" s="2">
+      <c r="F131">
         <f t="shared" ca="1" si="5"/>
         <v>246</v>
       </c>
@@ -27656,23 +27655,23 @@
       </c>
     </row>
     <row r="132" spans="1:8" x14ac:dyDescent="0.2">
-      <c r="A132" s="4" t="s">
+      <c r="A132" s="3" t="s">
         <v>750</v>
       </c>
       <c r="B132" s="1">
         <v>46034</v>
       </c>
-      <c r="C132" s="2">
+      <c r="C132">
         <v>6</v>
       </c>
-      <c r="D132" s="2">
+      <c r="D132">
         <v>514.78999999999985</v>
       </c>
       <c r="E132" t="str">
         <f t="shared" si="4"/>
         <v>CUST_0133</v>
       </c>
-      <c r="F132" s="2">
+      <c r="F132">
         <f t="shared" ca="1" si="5"/>
         <v>29</v>
       </c>
@@ -27686,23 +27685,23 @@
       </c>
     </row>
     <row r="133" spans="1:8" x14ac:dyDescent="0.2">
-      <c r="A133" s="4" t="s">
+      <c r="A133" s="3" t="s">
         <v>267</v>
       </c>
       <c r="B133" s="1">
         <v>45953</v>
       </c>
-      <c r="C133" s="2">
+      <c r="C133">
         <v>6</v>
       </c>
-      <c r="D133" s="2">
+      <c r="D133">
         <v>364.79999999999899</v>
       </c>
       <c r="E133" t="str">
         <f t="shared" ref="E133:E196" si="8">A133</f>
         <v>CUST_0134</v>
       </c>
-      <c r="F133" s="2">
+      <c r="F133">
         <f t="shared" ref="F133:F196" ca="1" si="9">TODAY()-B133</f>
         <v>110</v>
       </c>
@@ -27716,23 +27715,23 @@
       </c>
     </row>
     <row r="134" spans="1:8" x14ac:dyDescent="0.2">
-      <c r="A134" s="4" t="s">
+      <c r="A134" s="3" t="s">
         <v>87</v>
       </c>
       <c r="B134" s="1">
         <v>46030</v>
       </c>
-      <c r="C134" s="2">
+      <c r="C134">
         <v>3</v>
       </c>
-      <c r="D134" s="2">
+      <c r="D134">
         <v>59.959999999999994</v>
       </c>
       <c r="E134" t="str">
         <f t="shared" si="8"/>
         <v>CUST_0135</v>
       </c>
-      <c r="F134" s="2">
+      <c r="F134">
         <f t="shared" ca="1" si="9"/>
         <v>33</v>
       </c>
@@ -27746,23 +27745,23 @@
       </c>
     </row>
     <row r="135" spans="1:8" x14ac:dyDescent="0.2">
-      <c r="A135" s="4" t="s">
+      <c r="A135" s="3" t="s">
         <v>168</v>
       </c>
       <c r="B135" s="1">
         <v>45920</v>
       </c>
-      <c r="C135" s="2">
+      <c r="C135">
         <v>4</v>
       </c>
-      <c r="D135" s="2">
+      <c r="D135">
         <v>269.87</v>
       </c>
       <c r="E135" t="str">
         <f t="shared" si="8"/>
         <v>CUST_0136</v>
       </c>
-      <c r="F135" s="2">
+      <c r="F135">
         <f t="shared" ca="1" si="9"/>
         <v>143</v>
       </c>
@@ -27776,23 +27775,23 @@
       </c>
     </row>
     <row r="136" spans="1:8" x14ac:dyDescent="0.2">
-      <c r="A136" s="4" t="s">
+      <c r="A136" s="3" t="s">
         <v>293</v>
       </c>
       <c r="B136" s="1">
         <v>45857</v>
       </c>
-      <c r="C136" s="2">
+      <c r="C136">
         <v>4</v>
       </c>
-      <c r="D136" s="2">
+      <c r="D136">
         <v>374.8499999999998</v>
       </c>
       <c r="E136" t="str">
         <f t="shared" si="8"/>
         <v>CUST_0137</v>
       </c>
-      <c r="F136" s="2">
+      <c r="F136">
         <f t="shared" ca="1" si="9"/>
         <v>206</v>
       </c>
@@ -27806,23 +27805,23 @@
       </c>
     </row>
     <row r="137" spans="1:8" x14ac:dyDescent="0.2">
-      <c r="A137" s="4" t="s">
+      <c r="A137" s="3" t="s">
         <v>955</v>
       </c>
       <c r="B137" s="1">
         <v>45981</v>
       </c>
-      <c r="C137" s="2">
+      <c r="C137">
         <v>2</v>
       </c>
-      <c r="D137" s="2">
+      <c r="D137">
         <v>174.92999999999898</v>
       </c>
       <c r="E137" t="str">
         <f t="shared" si="8"/>
         <v>CUST_0138</v>
       </c>
-      <c r="F137" s="2">
+      <c r="F137">
         <f t="shared" ca="1" si="9"/>
         <v>82</v>
       </c>
@@ -27836,23 +27835,23 @@
       </c>
     </row>
     <row r="138" spans="1:8" x14ac:dyDescent="0.2">
-      <c r="A138" s="4" t="s">
+      <c r="A138" s="3" t="s">
         <v>172</v>
       </c>
       <c r="B138" s="1">
         <v>45907</v>
       </c>
-      <c r="C138" s="2">
+      <c r="C138">
         <v>2</v>
       </c>
-      <c r="D138" s="2">
+      <c r="D138">
         <v>104.94999999999999</v>
       </c>
       <c r="E138" t="str">
         <f t="shared" si="8"/>
         <v>CUST_0139</v>
       </c>
-      <c r="F138" s="2">
+      <c r="F138">
         <f t="shared" ca="1" si="9"/>
         <v>156</v>
       </c>
@@ -27866,23 +27865,23 @@
       </c>
     </row>
     <row r="139" spans="1:8" x14ac:dyDescent="0.2">
-      <c r="A139" s="4" t="s">
+      <c r="A139" s="3" t="s">
         <v>391</v>
       </c>
       <c r="B139" s="1">
         <v>46035</v>
       </c>
-      <c r="C139" s="2">
+      <c r="C139">
         <v>2</v>
       </c>
-      <c r="D139" s="2">
+      <c r="D139">
         <v>114.94999999999999</v>
       </c>
       <c r="E139" t="str">
         <f t="shared" si="8"/>
         <v>CUST_0140</v>
       </c>
-      <c r="F139" s="2">
+      <c r="F139">
         <f t="shared" ca="1" si="9"/>
         <v>28</v>
       </c>
@@ -27896,23 +27895,23 @@
       </c>
     </row>
     <row r="140" spans="1:8" x14ac:dyDescent="0.2">
-      <c r="A140" s="4" t="s">
+      <c r="A140" s="3" t="s">
         <v>770</v>
       </c>
       <c r="B140" s="1">
         <v>45965</v>
       </c>
-      <c r="C140" s="2">
+      <c r="C140">
         <v>4</v>
       </c>
-      <c r="D140" s="2">
+      <c r="D140">
         <v>284.87999999999897</v>
       </c>
       <c r="E140" t="str">
         <f t="shared" si="8"/>
         <v>CUST_0141</v>
       </c>
-      <c r="F140" s="2">
+      <c r="F140">
         <f t="shared" ca="1" si="9"/>
         <v>98</v>
       </c>
@@ -27926,23 +27925,23 @@
       </c>
     </row>
     <row r="141" spans="1:8" x14ac:dyDescent="0.2">
-      <c r="A141" s="4" t="s">
+      <c r="A141" s="3" t="s">
         <v>530</v>
       </c>
       <c r="B141" s="1">
         <v>45887</v>
       </c>
-      <c r="C141" s="2">
+      <c r="C141">
         <v>2</v>
       </c>
-      <c r="D141" s="2">
+      <c r="D141">
         <v>64.94</v>
       </c>
       <c r="E141" t="str">
         <f t="shared" si="8"/>
         <v>CUST_0142</v>
       </c>
-      <c r="F141" s="2">
+      <c r="F141">
         <f t="shared" ca="1" si="9"/>
         <v>176</v>
       </c>
@@ -27956,23 +27955,23 @@
       </c>
     </row>
     <row r="142" spans="1:8" x14ac:dyDescent="0.2">
-      <c r="A142" s="4" t="s">
+      <c r="A142" s="3" t="s">
         <v>241</v>
       </c>
       <c r="B142" s="1">
         <v>46002</v>
       </c>
-      <c r="C142" s="2">
+      <c r="C142">
         <v>5</v>
       </c>
-      <c r="D142" s="2">
+      <c r="D142">
         <v>319.80000000000007</v>
       </c>
       <c r="E142" t="str">
         <f t="shared" si="8"/>
         <v>CUST_0143</v>
       </c>
-      <c r="F142" s="2">
+      <c r="F142">
         <f t="shared" ca="1" si="9"/>
         <v>61</v>
       </c>
@@ -27986,23 +27985,23 @@
       </c>
     </row>
     <row r="143" spans="1:8" x14ac:dyDescent="0.2">
-      <c r="A143" s="4" t="s">
+      <c r="A143" s="3" t="s">
         <v>352</v>
       </c>
       <c r="B143" s="1">
         <v>45986</v>
       </c>
-      <c r="C143" s="2">
+      <c r="C143">
         <v>8</v>
       </c>
-      <c r="D143" s="2">
+      <c r="D143">
         <v>679.68999999999994</v>
       </c>
       <c r="E143" t="str">
         <f t="shared" si="8"/>
         <v>CUST_0144</v>
       </c>
-      <c r="F143" s="2">
+      <c r="F143">
         <f t="shared" ca="1" si="9"/>
         <v>77</v>
       </c>
@@ -28016,23 +28015,23 @@
       </c>
     </row>
     <row r="144" spans="1:8" x14ac:dyDescent="0.2">
-      <c r="A144" s="4" t="s">
+      <c r="A144" s="3" t="s">
         <v>570</v>
       </c>
       <c r="B144" s="1">
         <v>45982</v>
       </c>
-      <c r="C144" s="2">
+      <c r="C144">
         <v>6</v>
       </c>
-      <c r="D144" s="2">
+      <c r="D144">
         <v>464.77999999999992</v>
       </c>
       <c r="E144" t="str">
         <f t="shared" si="8"/>
         <v>CUST_0145</v>
       </c>
-      <c r="F144" s="2">
+      <c r="F144">
         <f t="shared" ca="1" si="9"/>
         <v>81</v>
       </c>
@@ -28046,23 +28045,23 @@
       </c>
     </row>
     <row r="145" spans="1:8" x14ac:dyDescent="0.2">
-      <c r="A145" s="4" t="s">
+      <c r="A145" s="3" t="s">
         <v>758</v>
       </c>
       <c r="B145" s="1">
         <v>46026</v>
       </c>
-      <c r="C145" s="2">
+      <c r="C145">
         <v>4</v>
       </c>
-      <c r="D145" s="2">
+      <c r="D145">
         <v>429.85999999999996</v>
       </c>
       <c r="E145" t="str">
         <f t="shared" si="8"/>
         <v>CUST_0146</v>
       </c>
-      <c r="F145" s="2">
+      <c r="F145">
         <f t="shared" ca="1" si="9"/>
         <v>37</v>
       </c>
@@ -28076,23 +28075,23 @@
       </c>
     </row>
     <row r="146" spans="1:8" x14ac:dyDescent="0.2">
-      <c r="A146" s="4" t="s">
+      <c r="A146" s="3" t="s">
         <v>364</v>
       </c>
       <c r="B146" s="1">
         <v>45966</v>
       </c>
-      <c r="C146" s="2">
+      <c r="C146">
         <v>7</v>
       </c>
-      <c r="D146" s="2">
+      <c r="D146">
         <v>394.80999999999995</v>
       </c>
       <c r="E146" t="str">
         <f t="shared" si="8"/>
         <v>CUST_0147</v>
       </c>
-      <c r="F146" s="2">
+      <c r="F146">
         <f t="shared" ca="1" si="9"/>
         <v>97</v>
       </c>
@@ -28106,23 +28105,23 @@
       </c>
     </row>
     <row r="147" spans="1:8" x14ac:dyDescent="0.2">
-      <c r="A147" s="4" t="s">
+      <c r="A147" s="3" t="s">
         <v>361</v>
       </c>
       <c r="B147" s="1">
         <v>46044</v>
       </c>
-      <c r="C147" s="2">
+      <c r="C147">
         <v>6</v>
       </c>
-      <c r="D147" s="2">
+      <c r="D147">
         <v>374.76999999999884</v>
       </c>
       <c r="E147" t="str">
         <f t="shared" si="8"/>
         <v>CUST_0148</v>
       </c>
-      <c r="F147" s="2">
+      <c r="F147">
         <f t="shared" ca="1" si="9"/>
         <v>19</v>
       </c>
@@ -28136,23 +28135,23 @@
       </c>
     </row>
     <row r="148" spans="1:8" x14ac:dyDescent="0.2">
-      <c r="A148" s="4" t="s">
+      <c r="A148" s="3" t="s">
         <v>817</v>
       </c>
       <c r="B148" s="1">
         <v>45974</v>
       </c>
-      <c r="C148" s="2">
+      <c r="C148">
         <v>4</v>
       </c>
-      <c r="D148" s="2">
+      <c r="D148">
         <v>269.89</v>
       </c>
       <c r="E148" t="str">
         <f t="shared" si="8"/>
         <v>CUST_0149</v>
       </c>
-      <c r="F148" s="2">
+      <c r="F148">
         <f t="shared" ca="1" si="9"/>
         <v>89</v>
       </c>
@@ -28166,23 +28165,23 @@
       </c>
     </row>
     <row r="149" spans="1:8" x14ac:dyDescent="0.2">
-      <c r="A149" s="4" t="s">
+      <c r="A149" s="3" t="s">
         <v>46</v>
       </c>
       <c r="B149" s="1">
         <v>45830</v>
       </c>
-      <c r="C149" s="2">
+      <c r="C149">
         <v>4</v>
       </c>
-      <c r="D149" s="2">
+      <c r="D149">
         <v>309.87</v>
       </c>
       <c r="E149" t="str">
         <f t="shared" si="8"/>
         <v>CUST_0150</v>
       </c>
-      <c r="F149" s="2">
+      <c r="F149">
         <f t="shared" ca="1" si="9"/>
         <v>233</v>
       </c>
@@ -28196,23 +28195,23 @@
       </c>
     </row>
     <row r="150" spans="1:8" x14ac:dyDescent="0.2">
-      <c r="A150" s="4" t="s">
+      <c r="A150" s="3" t="s">
         <v>375</v>
       </c>
       <c r="B150" s="1">
         <v>45976</v>
       </c>
-      <c r="C150" s="2">
+      <c r="C150">
         <v>6</v>
       </c>
-      <c r="D150" s="2">
+      <c r="D150">
         <v>434.78999999999894</v>
       </c>
       <c r="E150" t="str">
         <f t="shared" si="8"/>
         <v>CUST_0151</v>
       </c>
-      <c r="F150" s="2">
+      <c r="F150">
         <f t="shared" ca="1" si="9"/>
         <v>87</v>
       </c>
@@ -28226,23 +28225,23 @@
       </c>
     </row>
     <row r="151" spans="1:8" x14ac:dyDescent="0.2">
-      <c r="A151" s="4" t="s">
+      <c r="A151" s="3" t="s">
         <v>42</v>
       </c>
       <c r="B151" s="1">
         <v>46026</v>
       </c>
-      <c r="C151" s="2">
+      <c r="C151">
         <v>8</v>
       </c>
-      <c r="D151" s="2">
+      <c r="D151">
         <v>714.73999999999887</v>
       </c>
       <c r="E151" t="str">
         <f t="shared" si="8"/>
         <v>CUST_0152</v>
       </c>
-      <c r="F151" s="2">
+      <c r="F151">
         <f t="shared" ca="1" si="9"/>
         <v>37</v>
       </c>
@@ -28256,23 +28255,23 @@
       </c>
     </row>
     <row r="152" spans="1:8" x14ac:dyDescent="0.2">
-      <c r="A152" s="4" t="s">
+      <c r="A152" s="3" t="s">
         <v>417</v>
       </c>
       <c r="B152" s="1">
         <v>46031</v>
       </c>
-      <c r="C152" s="2">
+      <c r="C152">
         <v>4</v>
       </c>
-      <c r="D152" s="2">
+      <c r="D152">
         <v>544.82999999999993</v>
       </c>
       <c r="E152" t="str">
         <f t="shared" si="8"/>
         <v>CUST_0153</v>
       </c>
-      <c r="F152" s="2">
+      <c r="F152">
         <f t="shared" ca="1" si="9"/>
         <v>32</v>
       </c>
@@ -28286,23 +28285,23 @@
       </c>
     </row>
     <row r="153" spans="1:8" x14ac:dyDescent="0.2">
-      <c r="A153" s="4" t="s">
+      <c r="A153" s="3" t="s">
         <v>611</v>
       </c>
       <c r="B153" s="1">
         <v>46015</v>
       </c>
-      <c r="C153" s="2">
+      <c r="C153">
         <v>7</v>
       </c>
-      <c r="D153" s="2">
+      <c r="D153">
         <v>379.82</v>
       </c>
       <c r="E153" t="str">
         <f t="shared" si="8"/>
         <v>CUST_0154</v>
       </c>
-      <c r="F153" s="2">
+      <c r="F153">
         <f t="shared" ca="1" si="9"/>
         <v>48</v>
       </c>
@@ -28316,23 +28315,23 @@
       </c>
     </row>
     <row r="154" spans="1:8" x14ac:dyDescent="0.2">
-      <c r="A154" s="4" t="s">
+      <c r="A154" s="3" t="s">
         <v>508</v>
       </c>
       <c r="B154" s="1">
         <v>45990</v>
       </c>
-      <c r="C154" s="2">
+      <c r="C154">
         <v>2</v>
       </c>
-      <c r="D154" s="2">
+      <c r="D154">
         <v>129.9199999999999</v>
       </c>
       <c r="E154" t="str">
         <f t="shared" si="8"/>
         <v>CUST_0155</v>
       </c>
-      <c r="F154" s="2">
+      <c r="F154">
         <f t="shared" ca="1" si="9"/>
         <v>73</v>
       </c>
@@ -28346,23 +28345,23 @@
       </c>
     </row>
     <row r="155" spans="1:8" x14ac:dyDescent="0.2">
-      <c r="A155" s="4" t="s">
+      <c r="A155" s="3" t="s">
         <v>840</v>
       </c>
       <c r="B155" s="1">
         <v>45837</v>
       </c>
-      <c r="C155" s="2">
+      <c r="C155">
         <v>2</v>
       </c>
-      <c r="D155" s="2">
+      <c r="D155">
         <v>89.94</v>
       </c>
       <c r="E155" t="str">
         <f t="shared" si="8"/>
         <v>CUST_0156</v>
       </c>
-      <c r="F155" s="2">
+      <c r="F155">
         <f t="shared" ca="1" si="9"/>
         <v>226</v>
       </c>
@@ -28376,23 +28375,23 @@
       </c>
     </row>
     <row r="156" spans="1:8" x14ac:dyDescent="0.2">
-      <c r="A156" s="4" t="s">
+      <c r="A156" s="3" t="s">
         <v>158</v>
       </c>
       <c r="B156" s="1">
         <v>46042</v>
       </c>
-      <c r="C156" s="2">
+      <c r="C156">
         <v>5</v>
       </c>
-      <c r="D156" s="2">
+      <c r="D156">
         <v>224.9</v>
       </c>
       <c r="E156" t="str">
         <f t="shared" si="8"/>
         <v>CUST_0157</v>
       </c>
-      <c r="F156" s="2">
+      <c r="F156">
         <f t="shared" ca="1" si="9"/>
         <v>21</v>
       </c>
@@ -28406,23 +28405,23 @@
       </c>
     </row>
     <row r="157" spans="1:8" x14ac:dyDescent="0.2">
-      <c r="A157" s="4" t="s">
+      <c r="A157" s="3" t="s">
         <v>440</v>
       </c>
       <c r="B157" s="1">
         <v>45989</v>
       </c>
-      <c r="C157" s="2">
+      <c r="C157">
         <v>5</v>
       </c>
-      <c r="D157" s="2">
+      <c r="D157">
         <v>354.8</v>
       </c>
       <c r="E157" t="str">
         <f t="shared" si="8"/>
         <v>CUST_0158</v>
       </c>
-      <c r="F157" s="2">
+      <c r="F157">
         <f t="shared" ca="1" si="9"/>
         <v>74</v>
       </c>
@@ -28436,23 +28435,23 @@
       </c>
     </row>
     <row r="158" spans="1:8" x14ac:dyDescent="0.2">
-      <c r="A158" s="4" t="s">
+      <c r="A158" s="3" t="s">
         <v>1203</v>
       </c>
       <c r="B158" s="1">
         <v>45824</v>
       </c>
-      <c r="C158" s="2">
+      <c r="C158">
         <v>1</v>
       </c>
-      <c r="D158" s="2">
+      <c r="D158">
         <v>79.959999999999994</v>
       </c>
       <c r="E158" t="str">
         <f t="shared" si="8"/>
         <v>CUST_0159</v>
       </c>
-      <c r="F158" s="2">
+      <c r="F158">
         <f t="shared" ca="1" si="9"/>
         <v>239</v>
       </c>
@@ -28466,23 +28465,23 @@
       </c>
     </row>
     <row r="159" spans="1:8" x14ac:dyDescent="0.2">
-      <c r="A159" s="4" t="s">
+      <c r="A159" s="3" t="s">
         <v>251</v>
       </c>
       <c r="B159" s="1">
         <v>46044</v>
       </c>
-      <c r="C159" s="2">
+      <c r="C159">
         <v>7</v>
       </c>
-      <c r="D159" s="2">
+      <c r="D159">
         <v>359.77999999999986</v>
       </c>
       <c r="E159" t="str">
         <f t="shared" si="8"/>
         <v>CUST_0160</v>
       </c>
-      <c r="F159" s="2">
+      <c r="F159">
         <f t="shared" ca="1" si="9"/>
         <v>19</v>
       </c>
@@ -28496,23 +28495,23 @@
       </c>
     </row>
     <row r="160" spans="1:8" x14ac:dyDescent="0.2">
-      <c r="A160" s="4" t="s">
+      <c r="A160" s="3" t="s">
         <v>58</v>
       </c>
       <c r="B160" s="1">
         <v>45974</v>
       </c>
-      <c r="C160" s="2">
+      <c r="C160">
         <v>7</v>
       </c>
-      <c r="D160" s="2">
+      <c r="D160">
         <v>429.8</v>
       </c>
       <c r="E160" t="str">
         <f t="shared" si="8"/>
         <v>CUST_0161</v>
       </c>
-      <c r="F160" s="2">
+      <c r="F160">
         <f t="shared" ca="1" si="9"/>
         <v>89</v>
       </c>
@@ -28526,23 +28525,23 @@
       </c>
     </row>
     <row r="161" spans="1:8" x14ac:dyDescent="0.2">
-      <c r="A161" s="4" t="s">
+      <c r="A161" s="3" t="s">
         <v>130</v>
       </c>
       <c r="B161" s="1">
         <v>45911</v>
       </c>
-      <c r="C161" s="2">
+      <c r="C161">
         <v>3</v>
       </c>
-      <c r="D161" s="2">
+      <c r="D161">
         <v>259.88</v>
       </c>
       <c r="E161" t="str">
         <f t="shared" si="8"/>
         <v>CUST_0162</v>
       </c>
-      <c r="F161" s="2">
+      <c r="F161">
         <f t="shared" ca="1" si="9"/>
         <v>152</v>
       </c>
@@ -28556,23 +28555,23 @@
       </c>
     </row>
     <row r="162" spans="1:8" x14ac:dyDescent="0.2">
-      <c r="A162" s="4" t="s">
+      <c r="A162" s="3" t="s">
         <v>175</v>
       </c>
       <c r="B162" s="1">
         <v>45999</v>
       </c>
-      <c r="C162" s="2">
+      <c r="C162">
         <v>4</v>
       </c>
-      <c r="D162" s="2">
+      <c r="D162">
         <v>269.86999999999989</v>
       </c>
       <c r="E162" t="str">
         <f t="shared" si="8"/>
         <v>CUST_0163</v>
       </c>
-      <c r="F162" s="2">
+      <c r="F162">
         <f t="shared" ca="1" si="9"/>
         <v>64</v>
       </c>
@@ -28586,23 +28585,23 @@
       </c>
     </row>
     <row r="163" spans="1:8" x14ac:dyDescent="0.2">
-      <c r="A163" s="4" t="s">
+      <c r="A163" s="3" t="s">
         <v>694</v>
       </c>
       <c r="B163" s="1">
         <v>46034</v>
       </c>
-      <c r="C163" s="2">
+      <c r="C163">
         <v>4</v>
       </c>
-      <c r="D163" s="2">
+      <c r="D163">
         <v>339.88000000000005</v>
       </c>
       <c r="E163" t="str">
         <f t="shared" si="8"/>
         <v>CUST_0164</v>
       </c>
-      <c r="F163" s="2">
+      <c r="F163">
         <f t="shared" ca="1" si="9"/>
         <v>29</v>
       </c>
@@ -28616,23 +28615,23 @@
       </c>
     </row>
     <row r="164" spans="1:8" x14ac:dyDescent="0.2">
-      <c r="A164" s="4" t="s">
+      <c r="A164" s="3" t="s">
         <v>295</v>
       </c>
       <c r="B164" s="1">
         <v>45965</v>
       </c>
-      <c r="C164" s="2">
+      <c r="C164">
         <v>6</v>
       </c>
-      <c r="D164" s="2">
+      <c r="D164">
         <v>409.85</v>
       </c>
       <c r="E164" t="str">
         <f t="shared" si="8"/>
         <v>CUST_0165</v>
       </c>
-      <c r="F164" s="2">
+      <c r="F164">
         <f t="shared" ca="1" si="9"/>
         <v>98</v>
       </c>
@@ -28646,23 +28645,23 @@
       </c>
     </row>
     <row r="165" spans="1:8" x14ac:dyDescent="0.2">
-      <c r="A165" s="4" t="s">
+      <c r="A165" s="3" t="s">
         <v>945</v>
       </c>
       <c r="B165" s="1">
         <v>45910</v>
       </c>
-      <c r="C165" s="2">
+      <c r="C165">
         <v>2</v>
       </c>
-      <c r="D165" s="2">
+      <c r="D165">
         <v>169.95</v>
       </c>
       <c r="E165" t="str">
         <f t="shared" si="8"/>
         <v>CUST_0166</v>
       </c>
-      <c r="F165" s="2">
+      <c r="F165">
         <f t="shared" ca="1" si="9"/>
         <v>153</v>
       </c>
@@ -28676,23 +28675,23 @@
       </c>
     </row>
     <row r="166" spans="1:8" x14ac:dyDescent="0.2">
-      <c r="A166" s="4" t="s">
+      <c r="A166" s="3" t="s">
         <v>90</v>
       </c>
       <c r="B166" s="1">
         <v>45928</v>
       </c>
-      <c r="C166" s="2">
+      <c r="C166">
         <v>2</v>
       </c>
-      <c r="D166" s="2">
+      <c r="D166">
         <v>209.92</v>
       </c>
       <c r="E166" t="str">
         <f t="shared" si="8"/>
         <v>CUST_0167</v>
       </c>
-      <c r="F166" s="2">
+      <c r="F166">
         <f t="shared" ca="1" si="9"/>
         <v>135</v>
       </c>
@@ -28706,23 +28705,23 @@
       </c>
     </row>
     <row r="167" spans="1:8" x14ac:dyDescent="0.2">
-      <c r="A167" s="4" t="s">
+      <c r="A167" s="3" t="s">
         <v>664</v>
       </c>
       <c r="B167" s="1">
         <v>46023</v>
       </c>
-      <c r="C167" s="2">
+      <c r="C167">
         <v>4</v>
       </c>
-      <c r="D167" s="2">
+      <c r="D167">
         <v>279.89</v>
       </c>
       <c r="E167" t="str">
         <f t="shared" si="8"/>
         <v>CUST_0168</v>
       </c>
-      <c r="F167" s="2">
+      <c r="F167">
         <f t="shared" ca="1" si="9"/>
         <v>40</v>
       </c>
@@ -28736,23 +28735,23 @@
       </c>
     </row>
     <row r="168" spans="1:8" x14ac:dyDescent="0.2">
-      <c r="A168" s="4" t="s">
+      <c r="A168" s="3" t="s">
         <v>423</v>
       </c>
       <c r="B168" s="1">
         <v>45801</v>
       </c>
-      <c r="C168" s="2">
+      <c r="C168">
         <v>1</v>
       </c>
-      <c r="D168" s="2">
+      <c r="D168">
         <v>39.96</v>
       </c>
       <c r="E168" t="str">
         <f t="shared" si="8"/>
         <v>CUST_0169</v>
       </c>
-      <c r="F168" s="2">
+      <c r="F168">
         <f t="shared" ca="1" si="9"/>
         <v>262</v>
       </c>
@@ -28766,23 +28765,23 @@
       </c>
     </row>
     <row r="169" spans="1:8" x14ac:dyDescent="0.2">
-      <c r="A169" s="4" t="s">
+      <c r="A169" s="3" t="s">
         <v>71</v>
       </c>
       <c r="B169" s="1">
         <v>46030</v>
       </c>
-      <c r="C169" s="2">
+      <c r="C169">
         <v>6</v>
       </c>
-      <c r="D169" s="2">
+      <c r="D169">
         <v>444.75999999999897</v>
       </c>
       <c r="E169" t="str">
         <f t="shared" si="8"/>
         <v>CUST_0170</v>
       </c>
-      <c r="F169" s="2">
+      <c r="F169">
         <f t="shared" ca="1" si="9"/>
         <v>33</v>
       </c>
@@ -28796,23 +28795,23 @@
       </c>
     </row>
     <row r="170" spans="1:8" x14ac:dyDescent="0.2">
-      <c r="A170" s="4" t="s">
+      <c r="A170" s="3" t="s">
         <v>243</v>
       </c>
       <c r="B170" s="1">
         <v>45970</v>
       </c>
-      <c r="C170" s="2">
+      <c r="C170">
         <v>2</v>
       </c>
-      <c r="D170" s="2">
+      <c r="D170">
         <v>169.95</v>
       </c>
       <c r="E170" t="str">
         <f t="shared" si="8"/>
         <v>CUST_0171</v>
       </c>
-      <c r="F170" s="2">
+      <c r="F170">
         <f t="shared" ca="1" si="9"/>
         <v>93</v>
       </c>
@@ -28826,23 +28825,23 @@
       </c>
     </row>
     <row r="171" spans="1:8" x14ac:dyDescent="0.2">
-      <c r="A171" s="4" t="s">
+      <c r="A171" s="3" t="s">
         <v>203</v>
       </c>
       <c r="B171" s="1">
         <v>45899</v>
       </c>
-      <c r="C171" s="2">
+      <c r="C171">
         <v>6</v>
       </c>
-      <c r="D171" s="2">
+      <c r="D171">
         <v>214.9</v>
       </c>
       <c r="E171" t="str">
         <f t="shared" si="8"/>
         <v>CUST_0172</v>
       </c>
-      <c r="F171" s="2">
+      <c r="F171">
         <f t="shared" ca="1" si="9"/>
         <v>164</v>
       </c>
@@ -28856,23 +28855,23 @@
       </c>
     </row>
     <row r="172" spans="1:8" x14ac:dyDescent="0.2">
-      <c r="A172" s="4" t="s">
+      <c r="A172" s="3" t="s">
         <v>525</v>
       </c>
       <c r="B172" s="1">
         <v>46041</v>
       </c>
-      <c r="C172" s="2">
+      <c r="C172">
         <v>8</v>
       </c>
-      <c r="D172" s="2">
+      <c r="D172">
         <v>639.7399999999991</v>
       </c>
       <c r="E172" t="str">
         <f t="shared" si="8"/>
         <v>CUST_0173</v>
       </c>
-      <c r="F172" s="2">
+      <c r="F172">
         <f t="shared" ca="1" si="9"/>
         <v>22</v>
       </c>
@@ -28886,23 +28885,23 @@
       </c>
     </row>
     <row r="173" spans="1:8" x14ac:dyDescent="0.2">
-      <c r="A173" s="4" t="s">
+      <c r="A173" s="3" t="s">
         <v>498</v>
       </c>
       <c r="B173" s="1">
         <v>45889</v>
       </c>
-      <c r="C173" s="2">
+      <c r="C173">
         <v>2</v>
       </c>
-      <c r="D173" s="2">
+      <c r="D173">
         <v>69.94</v>
       </c>
       <c r="E173" t="str">
         <f t="shared" si="8"/>
         <v>CUST_0174</v>
       </c>
-      <c r="F173" s="2">
+      <c r="F173">
         <f t="shared" ca="1" si="9"/>
         <v>174</v>
       </c>
@@ -28916,23 +28915,23 @@
       </c>
     </row>
     <row r="174" spans="1:8" x14ac:dyDescent="0.2">
-      <c r="A174" s="4" t="s">
+      <c r="A174" s="3" t="s">
         <v>78</v>
       </c>
       <c r="B174" s="1">
         <v>45937</v>
       </c>
-      <c r="C174" s="2">
+      <c r="C174">
         <v>2</v>
       </c>
-      <c r="D174" s="2">
+      <c r="D174">
         <v>199.94</v>
       </c>
       <c r="E174" t="str">
         <f t="shared" si="8"/>
         <v>CUST_0175</v>
       </c>
-      <c r="F174" s="2">
+      <c r="F174">
         <f t="shared" ca="1" si="9"/>
         <v>126</v>
       </c>
@@ -28946,23 +28945,23 @@
       </c>
     </row>
     <row r="175" spans="1:8" x14ac:dyDescent="0.2">
-      <c r="A175" s="4" t="s">
+      <c r="A175" s="3" t="s">
         <v>435</v>
       </c>
       <c r="B175" s="1">
         <v>45932</v>
       </c>
-      <c r="C175" s="2">
+      <c r="C175">
         <v>2</v>
       </c>
-      <c r="D175" s="2">
+      <c r="D175">
         <v>99.94</v>
       </c>
       <c r="E175" t="str">
         <f t="shared" si="8"/>
         <v>CUST_0176</v>
       </c>
-      <c r="F175" s="2">
+      <c r="F175">
         <f t="shared" ca="1" si="9"/>
         <v>131</v>
       </c>
@@ -28976,23 +28975,23 @@
       </c>
     </row>
     <row r="176" spans="1:8" x14ac:dyDescent="0.2">
-      <c r="A176" s="4" t="s">
+      <c r="A176" s="3" t="s">
         <v>698</v>
       </c>
       <c r="B176" s="1">
         <v>46031</v>
       </c>
-      <c r="C176" s="2">
+      <c r="C176">
         <v>6</v>
       </c>
-      <c r="D176" s="2">
+      <c r="D176">
         <v>429.79</v>
       </c>
       <c r="E176" t="str">
         <f t="shared" si="8"/>
         <v>CUST_0177</v>
       </c>
-      <c r="F176" s="2">
+      <c r="F176">
         <f t="shared" ca="1" si="9"/>
         <v>32</v>
       </c>
@@ -29006,23 +29005,23 @@
       </c>
     </row>
     <row r="177" spans="1:8" x14ac:dyDescent="0.2">
-      <c r="A177" s="4" t="s">
+      <c r="A177" s="3" t="s">
         <v>656</v>
       </c>
       <c r="B177" s="1">
         <v>45995</v>
       </c>
-      <c r="C177" s="2">
+      <c r="C177">
         <v>4</v>
       </c>
-      <c r="D177" s="2">
+      <c r="D177">
         <v>294.85000000000002</v>
       </c>
       <c r="E177" t="str">
         <f t="shared" si="8"/>
         <v>CUST_0178</v>
       </c>
-      <c r="F177" s="2">
+      <c r="F177">
         <f t="shared" ca="1" si="9"/>
         <v>68</v>
       </c>
@@ -29036,23 +29035,23 @@
       </c>
     </row>
     <row r="178" spans="1:8" x14ac:dyDescent="0.2">
-      <c r="A178" s="4" t="s">
+      <c r="A178" s="3" t="s">
         <v>227</v>
       </c>
       <c r="B178" s="1">
         <v>45907</v>
       </c>
-      <c r="C178" s="2">
+      <c r="C178">
         <v>5</v>
       </c>
-      <c r="D178" s="2">
+      <c r="D178">
         <v>454.80999999999995</v>
       </c>
       <c r="E178" t="str">
         <f t="shared" si="8"/>
         <v>CUST_0179</v>
       </c>
-      <c r="F178" s="2">
+      <c r="F178">
         <f t="shared" ca="1" si="9"/>
         <v>156</v>
       </c>
@@ -29066,23 +29065,23 @@
       </c>
     </row>
     <row r="179" spans="1:8" x14ac:dyDescent="0.2">
-      <c r="A179" s="4" t="s">
+      <c r="A179" s="3" t="s">
         <v>305</v>
       </c>
       <c r="B179" s="1">
         <v>45948</v>
       </c>
-      <c r="C179" s="2">
+      <c r="C179">
         <v>6</v>
       </c>
-      <c r="D179" s="2">
+      <c r="D179">
         <v>409.82</v>
       </c>
       <c r="E179" t="str">
         <f t="shared" si="8"/>
         <v>CUST_0180</v>
       </c>
-      <c r="F179" s="2">
+      <c r="F179">
         <f t="shared" ca="1" si="9"/>
         <v>115</v>
       </c>
@@ -29096,23 +29095,23 @@
       </c>
     </row>
     <row r="180" spans="1:8" x14ac:dyDescent="0.2">
-      <c r="A180" s="4" t="s">
+      <c r="A180" s="3" t="s">
         <v>476</v>
       </c>
       <c r="B180" s="1">
         <v>46038</v>
       </c>
-      <c r="C180" s="2">
+      <c r="C180">
         <v>3</v>
       </c>
-      <c r="D180" s="2">
+      <c r="D180">
         <v>369.87</v>
       </c>
       <c r="E180" t="str">
         <f t="shared" si="8"/>
         <v>CUST_0181</v>
       </c>
-      <c r="F180" s="2">
+      <c r="F180">
         <f t="shared" ca="1" si="9"/>
         <v>25</v>
       </c>
@@ -29126,23 +29125,23 @@
       </c>
     </row>
     <row r="181" spans="1:8" x14ac:dyDescent="0.2">
-      <c r="A181" s="4" t="s">
+      <c r="A181" s="3" t="s">
         <v>791</v>
       </c>
       <c r="B181" s="1">
         <v>45947</v>
       </c>
-      <c r="C181" s="2">
+      <c r="C181">
         <v>4</v>
       </c>
-      <c r="D181" s="2">
+      <c r="D181">
         <v>259.92</v>
       </c>
       <c r="E181" t="str">
         <f t="shared" si="8"/>
         <v>CUST_0182</v>
       </c>
-      <c r="F181" s="2">
+      <c r="F181">
         <f t="shared" ca="1" si="9"/>
         <v>116</v>
       </c>
@@ -29156,23 +29155,23 @@
       </c>
     </row>
     <row r="182" spans="1:8" x14ac:dyDescent="0.2">
-      <c r="A182" s="4" t="s">
+      <c r="A182" s="3" t="s">
         <v>709</v>
       </c>
       <c r="B182" s="1">
         <v>46024</v>
       </c>
-      <c r="C182" s="2">
+      <c r="C182">
         <v>2</v>
       </c>
-      <c r="D182" s="2">
+      <c r="D182">
         <v>79.930000000000007</v>
       </c>
       <c r="E182" t="str">
         <f t="shared" si="8"/>
         <v>CUST_0183</v>
       </c>
-      <c r="F182" s="2">
+      <c r="F182">
         <f t="shared" ca="1" si="9"/>
         <v>39</v>
       </c>
@@ -29186,23 +29185,23 @@
       </c>
     </row>
     <row r="183" spans="1:8" x14ac:dyDescent="0.2">
-      <c r="A183" s="4" t="s">
+      <c r="A183" s="3" t="s">
         <v>340</v>
       </c>
       <c r="B183" s="1">
         <v>46045</v>
       </c>
-      <c r="C183" s="2">
+      <c r="C183">
         <v>4</v>
       </c>
-      <c r="D183" s="2">
+      <c r="D183">
         <v>374.88</v>
       </c>
       <c r="E183" t="str">
         <f t="shared" si="8"/>
         <v>CUST_0184</v>
       </c>
-      <c r="F183" s="2">
+      <c r="F183">
         <f t="shared" ca="1" si="9"/>
         <v>18</v>
       </c>
@@ -29216,23 +29215,23 @@
       </c>
     </row>
     <row r="184" spans="1:8" x14ac:dyDescent="0.2">
-      <c r="A184" s="4" t="s">
+      <c r="A184" s="3" t="s">
         <v>615</v>
       </c>
       <c r="B184" s="1">
         <v>45998</v>
       </c>
-      <c r="C184" s="2">
+      <c r="C184">
         <v>1</v>
       </c>
-      <c r="D184" s="2">
+      <c r="D184">
         <v>19.989999999999998</v>
       </c>
       <c r="E184" t="str">
         <f t="shared" si="8"/>
         <v>CUST_0185</v>
       </c>
-      <c r="F184" s="2">
+      <c r="F184">
         <f t="shared" ca="1" si="9"/>
         <v>65</v>
       </c>
@@ -29246,23 +29245,23 @@
       </c>
     </row>
     <row r="185" spans="1:8" x14ac:dyDescent="0.2">
-      <c r="A185" s="4" t="s">
+      <c r="A185" s="3" t="s">
         <v>538</v>
       </c>
       <c r="B185" s="1">
         <v>46000</v>
       </c>
-      <c r="C185" s="2">
+      <c r="C185">
         <v>3</v>
       </c>
-      <c r="D185" s="2">
+      <c r="D185">
         <v>239.91000000000003</v>
       </c>
       <c r="E185" t="str">
         <f t="shared" si="8"/>
         <v>CUST_0186</v>
       </c>
-      <c r="F185" s="2">
+      <c r="F185">
         <f t="shared" ca="1" si="9"/>
         <v>63</v>
       </c>
@@ -29276,23 +29275,23 @@
       </c>
     </row>
     <row r="186" spans="1:8" x14ac:dyDescent="0.2">
-      <c r="A186" s="4" t="s">
+      <c r="A186" s="3" t="s">
         <v>253</v>
       </c>
       <c r="B186" s="1">
         <v>46043</v>
       </c>
-      <c r="C186" s="2">
+      <c r="C186">
         <v>6</v>
       </c>
-      <c r="D186" s="2">
+      <c r="D186">
         <v>394.80999999999801</v>
       </c>
       <c r="E186" t="str">
         <f t="shared" si="8"/>
         <v>CUST_0187</v>
       </c>
-      <c r="F186" s="2">
+      <c r="F186">
         <f t="shared" ca="1" si="9"/>
         <v>20</v>
       </c>
@@ -29306,23 +29305,23 @@
       </c>
     </row>
     <row r="187" spans="1:8" x14ac:dyDescent="0.2">
-      <c r="A187" s="4" t="s">
+      <c r="A187" s="3" t="s">
         <v>73</v>
       </c>
       <c r="B187" s="1">
         <v>46030</v>
       </c>
-      <c r="C187" s="2">
+      <c r="C187">
         <v>4</v>
       </c>
-      <c r="D187" s="2">
+      <c r="D187">
         <v>319.84999999999985</v>
       </c>
       <c r="E187" t="str">
         <f t="shared" si="8"/>
         <v>CUST_0188</v>
       </c>
-      <c r="F187" s="2">
+      <c r="F187">
         <f t="shared" ca="1" si="9"/>
         <v>33</v>
       </c>
@@ -29336,23 +29335,23 @@
       </c>
     </row>
     <row r="188" spans="1:8" x14ac:dyDescent="0.2">
-      <c r="A188" s="4" t="s">
+      <c r="A188" s="3" t="s">
         <v>25</v>
       </c>
       <c r="B188" s="1">
         <v>45996</v>
       </c>
-      <c r="C188" s="2">
+      <c r="C188">
         <v>3</v>
       </c>
-      <c r="D188" s="2">
+      <c r="D188">
         <v>214.89999999999992</v>
       </c>
       <c r="E188" t="str">
         <f t="shared" si="8"/>
         <v>CUST_0189</v>
       </c>
-      <c r="F188" s="2">
+      <c r="F188">
         <f t="shared" ca="1" si="9"/>
         <v>67</v>
       </c>
@@ -29366,23 +29365,23 @@
       </c>
     </row>
     <row r="189" spans="1:8" x14ac:dyDescent="0.2">
-      <c r="A189" s="4" t="s">
+      <c r="A189" s="3" t="s">
         <v>76</v>
       </c>
       <c r="B189" s="1">
         <v>46010</v>
       </c>
-      <c r="C189" s="2">
+      <c r="C189">
         <v>7</v>
       </c>
-      <c r="D189" s="2">
+      <c r="D189">
         <v>369.83999999999901</v>
       </c>
       <c r="E189" t="str">
         <f t="shared" si="8"/>
         <v>CUST_0190</v>
       </c>
-      <c r="F189" s="2">
+      <c r="F189">
         <f t="shared" ca="1" si="9"/>
         <v>53</v>
       </c>
@@ -29396,23 +29395,23 @@
       </c>
     </row>
     <row r="190" spans="1:8" x14ac:dyDescent="0.2">
-      <c r="A190" s="4" t="s">
+      <c r="A190" s="3" t="s">
         <v>124</v>
       </c>
       <c r="B190" s="1">
         <v>46040</v>
       </c>
-      <c r="C190" s="2">
+      <c r="C190">
         <v>3</v>
       </c>
-      <c r="D190" s="2">
+      <c r="D190">
         <v>349.90999999999997</v>
       </c>
       <c r="E190" t="str">
         <f t="shared" si="8"/>
         <v>CUST_0191</v>
       </c>
-      <c r="F190" s="2">
+      <c r="F190">
         <f t="shared" ca="1" si="9"/>
         <v>23</v>
       </c>
@@ -29426,23 +29425,23 @@
       </c>
     </row>
     <row r="191" spans="1:8" x14ac:dyDescent="0.2">
-      <c r="A191" s="4" t="s">
+      <c r="A191" s="3" t="s">
         <v>54</v>
       </c>
       <c r="B191" s="1">
         <v>46040</v>
       </c>
-      <c r="C191" s="2">
+      <c r="C191">
         <v>7</v>
       </c>
-      <c r="D191" s="2">
+      <c r="D191">
         <v>559.79</v>
       </c>
       <c r="E191" t="str">
         <f t="shared" si="8"/>
         <v>CUST_0192</v>
       </c>
-      <c r="F191" s="2">
+      <c r="F191">
         <f t="shared" ca="1" si="9"/>
         <v>23</v>
       </c>
@@ -29456,23 +29455,23 @@
       </c>
     </row>
     <row r="192" spans="1:8" x14ac:dyDescent="0.2">
-      <c r="A192" s="4" t="s">
+      <c r="A192" s="3" t="s">
         <v>1436</v>
       </c>
       <c r="B192" s="1">
         <v>45786</v>
       </c>
-      <c r="C192" s="2">
+      <c r="C192">
         <v>1</v>
       </c>
-      <c r="D192" s="2">
+      <c r="D192">
         <v>29.98</v>
       </c>
       <c r="E192" t="str">
         <f t="shared" si="8"/>
         <v>CUST_0193</v>
       </c>
-      <c r="F192" s="2">
+      <c r="F192">
         <f t="shared" ca="1" si="9"/>
         <v>277</v>
       </c>
@@ -29486,23 +29485,23 @@
       </c>
     </row>
     <row r="193" spans="1:8" x14ac:dyDescent="0.2">
-      <c r="A193" s="4" t="s">
+      <c r="A193" s="3" t="s">
         <v>419</v>
       </c>
       <c r="B193" s="1">
         <v>45984</v>
       </c>
-      <c r="C193" s="2">
+      <c r="C193">
         <v>4</v>
       </c>
-      <c r="D193" s="2">
+      <c r="D193">
         <v>139.92999999999998</v>
       </c>
       <c r="E193" t="str">
         <f t="shared" si="8"/>
         <v>CUST_0194</v>
       </c>
-      <c r="F193" s="2">
+      <c r="F193">
         <f t="shared" ca="1" si="9"/>
         <v>79</v>
       </c>
@@ -29516,23 +29515,23 @@
       </c>
     </row>
     <row r="194" spans="1:8" x14ac:dyDescent="0.2">
-      <c r="A194" s="4" t="s">
+      <c r="A194" s="3" t="s">
         <v>431</v>
       </c>
       <c r="B194" s="1">
         <v>46017</v>
       </c>
-      <c r="C194" s="2">
+      <c r="C194">
         <v>4</v>
       </c>
-      <c r="D194" s="2">
+      <c r="D194">
         <v>309.90000000000003</v>
       </c>
       <c r="E194" t="str">
         <f t="shared" si="8"/>
         <v>CUST_0195</v>
       </c>
-      <c r="F194" s="2">
+      <c r="F194">
         <f t="shared" ca="1" si="9"/>
         <v>46</v>
       </c>
@@ -29546,23 +29545,23 @@
       </c>
     </row>
     <row r="195" spans="1:8" x14ac:dyDescent="0.2">
-      <c r="A195" s="4" t="s">
+      <c r="A195" s="3" t="s">
         <v>557</v>
       </c>
       <c r="B195" s="1">
         <v>46004</v>
       </c>
-      <c r="C195" s="2">
+      <c r="C195">
         <v>3</v>
       </c>
-      <c r="D195" s="2">
+      <c r="D195">
         <v>169.91</v>
       </c>
       <c r="E195" t="str">
         <f t="shared" si="8"/>
         <v>CUST_0196</v>
       </c>
-      <c r="F195" s="2">
+      <c r="F195">
         <f t="shared" ca="1" si="9"/>
         <v>59</v>
       </c>
@@ -29576,23 +29575,23 @@
       </c>
     </row>
     <row r="196" spans="1:8" x14ac:dyDescent="0.2">
-      <c r="A196" s="4" t="s">
+      <c r="A196" s="3" t="s">
         <v>868</v>
       </c>
       <c r="B196" s="1">
         <v>46039</v>
       </c>
-      <c r="C196" s="2">
+      <c r="C196">
         <v>3</v>
       </c>
-      <c r="D196" s="2">
+      <c r="D196">
         <v>134.96</v>
       </c>
       <c r="E196" t="str">
         <f t="shared" si="8"/>
         <v>CUST_0197</v>
       </c>
-      <c r="F196" s="2">
+      <c r="F196">
         <f t="shared" ca="1" si="9"/>
         <v>24</v>
       </c>
@@ -29606,23 +29605,23 @@
       </c>
     </row>
     <row r="197" spans="1:8" x14ac:dyDescent="0.2">
-      <c r="A197" s="4" t="s">
+      <c r="A197" s="3" t="s">
         <v>291</v>
       </c>
       <c r="B197" s="1">
         <v>46029</v>
       </c>
-      <c r="C197" s="2">
+      <c r="C197">
         <v>7</v>
       </c>
-      <c r="D197" s="2">
+      <c r="D197">
         <v>364.82000000000005</v>
       </c>
       <c r="E197" t="str">
         <f t="shared" ref="E197:E260" si="12">A197</f>
         <v>CUST_0198</v>
       </c>
-      <c r="F197" s="2">
+      <c r="F197">
         <f t="shared" ref="F197:F260" ca="1" si="13">TODAY()-B197</f>
         <v>34</v>
       </c>
@@ -29636,23 +29635,23 @@
       </c>
     </row>
     <row r="198" spans="1:8" x14ac:dyDescent="0.2">
-      <c r="A198" s="4" t="s">
+      <c r="A198" s="3" t="s">
         <v>367</v>
       </c>
       <c r="B198" s="1">
         <v>46037</v>
       </c>
-      <c r="C198" s="2">
+      <c r="C198">
         <v>2</v>
       </c>
-      <c r="D198" s="2">
+      <c r="D198">
         <v>69.94</v>
       </c>
       <c r="E198" t="str">
         <f t="shared" si="12"/>
         <v>CUST_0199</v>
       </c>
-      <c r="F198" s="2">
+      <c r="F198">
         <f t="shared" ca="1" si="13"/>
         <v>26</v>
       </c>
@@ -29666,23 +29665,23 @@
       </c>
     </row>
     <row r="199" spans="1:8" x14ac:dyDescent="0.2">
-      <c r="A199" s="4" t="s">
+      <c r="A199" s="3" t="s">
         <v>1230</v>
       </c>
       <c r="B199" s="1">
         <v>45966</v>
       </c>
-      <c r="C199" s="2">
+      <c r="C199">
         <v>2</v>
       </c>
-      <c r="D199" s="2">
+      <c r="D199">
         <v>144.93</v>
       </c>
       <c r="E199" t="str">
         <f t="shared" si="12"/>
         <v>CUST_0200</v>
       </c>
-      <c r="F199" s="2">
+      <c r="F199">
         <f t="shared" ca="1" si="13"/>
         <v>97</v>
       </c>
@@ -29696,23 +29695,23 @@
       </c>
     </row>
     <row r="200" spans="1:8" x14ac:dyDescent="0.2">
-      <c r="A200" s="4" t="s">
+      <c r="A200" s="3" t="s">
         <v>187</v>
       </c>
       <c r="B200" s="1">
         <v>45989</v>
       </c>
-      <c r="C200" s="2">
+      <c r="C200">
         <v>6</v>
       </c>
-      <c r="D200" s="2">
+      <c r="D200">
         <v>319.82999999999993</v>
       </c>
       <c r="E200" t="str">
         <f t="shared" si="12"/>
         <v>CUST_0201</v>
       </c>
-      <c r="F200" s="2">
+      <c r="F200">
         <f t="shared" ca="1" si="13"/>
         <v>74</v>
       </c>
@@ -29726,23 +29725,23 @@
       </c>
     </row>
     <row r="201" spans="1:8" x14ac:dyDescent="0.2">
-      <c r="A201" s="4" t="s">
+      <c r="A201" s="3" t="s">
         <v>132</v>
       </c>
       <c r="B201" s="1">
         <v>45945</v>
       </c>
-      <c r="C201" s="2">
+      <c r="C201">
         <v>6</v>
       </c>
-      <c r="D201" s="2">
+      <c r="D201">
         <v>274.83999999999901</v>
       </c>
       <c r="E201" t="str">
         <f t="shared" si="12"/>
         <v>CUST_0202</v>
       </c>
-      <c r="F201" s="2">
+      <c r="F201">
         <f t="shared" ca="1" si="13"/>
         <v>118</v>
       </c>
@@ -29756,23 +29755,23 @@
       </c>
     </row>
     <row r="202" spans="1:8" x14ac:dyDescent="0.2">
-      <c r="A202" s="4" t="s">
+      <c r="A202" s="3" t="s">
         <v>338</v>
       </c>
       <c r="B202" s="1">
         <v>45966</v>
       </c>
-      <c r="C202" s="2">
+      <c r="C202">
         <v>3</v>
       </c>
-      <c r="D202" s="2">
+      <c r="D202">
         <v>129.96</v>
       </c>
       <c r="E202" t="str">
         <f t="shared" si="12"/>
         <v>CUST_0203</v>
       </c>
-      <c r="F202" s="2">
+      <c r="F202">
         <f t="shared" ca="1" si="13"/>
         <v>97</v>
       </c>
@@ -29786,23 +29785,23 @@
       </c>
     </row>
     <row r="203" spans="1:8" x14ac:dyDescent="0.2">
-      <c r="A203" s="4" t="s">
+      <c r="A203" s="3" t="s">
         <v>625</v>
       </c>
       <c r="B203" s="1">
         <v>45722</v>
       </c>
-      <c r="C203" s="2">
+      <c r="C203">
         <v>1</v>
       </c>
-      <c r="D203" s="2">
+      <c r="D203">
         <v>14.99</v>
       </c>
       <c r="E203" t="str">
         <f t="shared" si="12"/>
         <v>CUST_0204</v>
       </c>
-      <c r="F203" s="2">
+      <c r="F203">
         <f t="shared" ca="1" si="13"/>
         <v>341</v>
       </c>
@@ -29816,23 +29815,23 @@
       </c>
     </row>
     <row r="204" spans="1:8" x14ac:dyDescent="0.2">
-      <c r="A204" s="4" t="s">
+      <c r="A204" s="3" t="s">
         <v>912</v>
       </c>
       <c r="B204" s="1">
         <v>45950</v>
       </c>
-      <c r="C204" s="2">
+      <c r="C204">
         <v>2</v>
       </c>
-      <c r="D204" s="2">
+      <c r="D204">
         <v>199.89999999999981</v>
       </c>
       <c r="E204" t="str">
         <f t="shared" si="12"/>
         <v>CUST_0205</v>
       </c>
-      <c r="F204" s="2">
+      <c r="F204">
         <f t="shared" ca="1" si="13"/>
         <v>113</v>
       </c>
@@ -29846,23 +29845,23 @@
       </c>
     </row>
     <row r="205" spans="1:8" x14ac:dyDescent="0.2">
-      <c r="A205" s="4" t="s">
+      <c r="A205" s="3" t="s">
         <v>110</v>
       </c>
       <c r="B205" s="1">
         <v>45926</v>
       </c>
-      <c r="C205" s="2">
+      <c r="C205">
         <v>2</v>
       </c>
-      <c r="D205" s="2">
+      <c r="D205">
         <v>179.92</v>
       </c>
       <c r="E205" t="str">
         <f t="shared" si="12"/>
         <v>CUST_0206</v>
       </c>
-      <c r="F205" s="2">
+      <c r="F205">
         <f t="shared" ca="1" si="13"/>
         <v>137</v>
       </c>
@@ -29876,23 +29875,23 @@
       </c>
     </row>
     <row r="206" spans="1:8" x14ac:dyDescent="0.2">
-      <c r="A206" s="4" t="s">
+      <c r="A206" s="3" t="s">
         <v>222</v>
       </c>
       <c r="B206" s="1">
         <v>45780</v>
       </c>
-      <c r="C206" s="2">
+      <c r="C206">
         <v>3</v>
       </c>
-      <c r="D206" s="2">
+      <c r="D206">
         <v>239.88</v>
       </c>
       <c r="E206" t="str">
         <f t="shared" si="12"/>
         <v>CUST_0207</v>
       </c>
-      <c r="F206" s="2">
+      <c r="F206">
         <f t="shared" ca="1" si="13"/>
         <v>283</v>
       </c>
@@ -29906,23 +29905,23 @@
       </c>
     </row>
     <row r="207" spans="1:8" x14ac:dyDescent="0.2">
-      <c r="A207" s="4" t="s">
+      <c r="A207" s="3" t="s">
         <v>145</v>
       </c>
       <c r="B207" s="1">
         <v>45914</v>
       </c>
-      <c r="C207" s="2">
+      <c r="C207">
         <v>3</v>
       </c>
-      <c r="D207" s="2">
+      <c r="D207">
         <v>219.90999999999991</v>
       </c>
       <c r="E207" t="str">
         <f t="shared" si="12"/>
         <v>CUST_0208</v>
       </c>
-      <c r="F207" s="2">
+      <c r="F207">
         <f t="shared" ca="1" si="13"/>
         <v>149</v>
       </c>
@@ -29936,23 +29935,23 @@
       </c>
     </row>
     <row r="208" spans="1:8" x14ac:dyDescent="0.2">
-      <c r="A208" s="4" t="s">
+      <c r="A208" s="3" t="s">
         <v>1388</v>
       </c>
       <c r="B208" s="1">
         <v>46024</v>
       </c>
-      <c r="C208" s="2">
+      <c r="C208">
         <v>2</v>
       </c>
-      <c r="D208" s="2">
+      <c r="D208">
         <v>219.92999999999998</v>
       </c>
       <c r="E208" t="str">
         <f t="shared" si="12"/>
         <v>CUST_0209</v>
       </c>
-      <c r="F208" s="2">
+      <c r="F208">
         <f t="shared" ca="1" si="13"/>
         <v>39</v>
       </c>
@@ -29966,23 +29965,23 @@
       </c>
     </row>
     <row r="209" spans="1:8" x14ac:dyDescent="0.2">
-      <c r="A209" s="4" t="s">
+      <c r="A209" s="3" t="s">
         <v>1236</v>
       </c>
       <c r="B209" s="1">
         <v>45962</v>
       </c>
-      <c r="C209" s="2">
+      <c r="C209">
         <v>2</v>
       </c>
-      <c r="D209" s="2">
+      <c r="D209">
         <v>109.92999999999999</v>
       </c>
       <c r="E209" t="str">
         <f t="shared" si="12"/>
         <v>CUST_0210</v>
       </c>
-      <c r="F209" s="2">
+      <c r="F209">
         <f t="shared" ca="1" si="13"/>
         <v>101</v>
       </c>
@@ -29996,23 +29995,23 @@
       </c>
     </row>
     <row r="210" spans="1:8" x14ac:dyDescent="0.2">
-      <c r="A210" s="4" t="s">
+      <c r="A210" s="3" t="s">
         <v>1303</v>
       </c>
       <c r="B210" s="1">
         <v>45989</v>
       </c>
-      <c r="C210" s="2">
+      <c r="C210">
         <v>1</v>
       </c>
-      <c r="D210" s="2">
+      <c r="D210">
         <v>124.94999999999899</v>
       </c>
       <c r="E210" t="str">
         <f t="shared" si="12"/>
         <v>CUST_0211</v>
       </c>
-      <c r="F210" s="2">
+      <c r="F210">
         <f t="shared" ca="1" si="13"/>
         <v>74</v>
       </c>
@@ -30026,23 +30025,23 @@
       </c>
     </row>
     <row r="211" spans="1:8" x14ac:dyDescent="0.2">
-      <c r="A211" s="4" t="s">
+      <c r="A211" s="3" t="s">
         <v>858</v>
       </c>
       <c r="B211" s="1">
         <v>46017</v>
       </c>
-      <c r="C211" s="2">
+      <c r="C211">
         <v>3</v>
       </c>
-      <c r="D211" s="2">
+      <c r="D211">
         <v>334.8599999999999</v>
       </c>
       <c r="E211" t="str">
         <f t="shared" si="12"/>
         <v>CUST_0212</v>
       </c>
-      <c r="F211" s="2">
+      <c r="F211">
         <f t="shared" ca="1" si="13"/>
         <v>46</v>
       </c>
@@ -30056,23 +30055,23 @@
       </c>
     </row>
     <row r="212" spans="1:8" x14ac:dyDescent="0.2">
-      <c r="A212" s="4" t="s">
+      <c r="A212" s="3" t="s">
         <v>143</v>
       </c>
       <c r="B212" s="1">
         <v>45963</v>
       </c>
-      <c r="C212" s="2">
+      <c r="C212">
         <v>3</v>
       </c>
-      <c r="D212" s="2">
+      <c r="D212">
         <v>274.849999999999</v>
       </c>
       <c r="E212" t="str">
         <f t="shared" si="12"/>
         <v>CUST_0213</v>
       </c>
-      <c r="F212" s="2">
+      <c r="F212">
         <f t="shared" ca="1" si="13"/>
         <v>100</v>
       </c>
@@ -30086,23 +30085,23 @@
       </c>
     </row>
     <row r="213" spans="1:8" x14ac:dyDescent="0.2">
-      <c r="A213" s="4" t="s">
+      <c r="A213" s="3" t="s">
         <v>205</v>
       </c>
       <c r="B213" s="1">
         <v>45979</v>
       </c>
-      <c r="C213" s="2">
+      <c r="C213">
         <v>4</v>
       </c>
-      <c r="D213" s="2">
+      <c r="D213">
         <v>299.84999999999991</v>
       </c>
       <c r="E213" t="str">
         <f t="shared" si="12"/>
         <v>CUST_0214</v>
       </c>
-      <c r="F213" s="2">
+      <c r="F213">
         <f t="shared" ca="1" si="13"/>
         <v>84</v>
       </c>
@@ -30116,23 +30115,23 @@
       </c>
     </row>
     <row r="214" spans="1:8" x14ac:dyDescent="0.2">
-      <c r="A214" s="4" t="s">
+      <c r="A214" s="3" t="s">
         <v>34</v>
       </c>
       <c r="B214" s="1">
         <v>46040</v>
       </c>
-      <c r="C214" s="2">
+      <c r="C214">
         <v>9</v>
       </c>
-      <c r="D214" s="2">
+      <c r="D214">
         <v>929.71</v>
       </c>
       <c r="E214" t="str">
         <f t="shared" si="12"/>
         <v>CUST_0215</v>
       </c>
-      <c r="F214" s="2">
+      <c r="F214">
         <f t="shared" ca="1" si="13"/>
         <v>23</v>
       </c>
@@ -30146,23 +30145,23 @@
       </c>
     </row>
     <row r="215" spans="1:8" x14ac:dyDescent="0.2">
-      <c r="A215" s="4" t="s">
+      <c r="A215" s="3" t="s">
         <v>197</v>
       </c>
       <c r="B215" s="1">
         <v>45997</v>
       </c>
-      <c r="C215" s="2">
+      <c r="C215">
         <v>4</v>
       </c>
-      <c r="D215" s="2">
+      <c r="D215">
         <v>239.86999999999998</v>
       </c>
       <c r="E215" t="str">
         <f t="shared" si="12"/>
         <v>CUST_0216</v>
       </c>
-      <c r="F215" s="2">
+      <c r="F215">
         <f t="shared" ca="1" si="13"/>
         <v>66</v>
       </c>
@@ -30176,23 +30175,23 @@
       </c>
     </row>
     <row r="216" spans="1:8" x14ac:dyDescent="0.2">
-      <c r="A216" s="4" t="s">
+      <c r="A216" s="3" t="s">
         <v>152</v>
       </c>
       <c r="B216" s="1">
         <v>46009</v>
       </c>
-      <c r="C216" s="2">
+      <c r="C216">
         <v>7</v>
       </c>
-      <c r="D216" s="2">
+      <c r="D216">
         <v>514.78999999999905</v>
       </c>
       <c r="E216" t="str">
         <f t="shared" si="12"/>
         <v>CUST_0217</v>
       </c>
-      <c r="F216" s="2">
+      <c r="F216">
         <f t="shared" ca="1" si="13"/>
         <v>54</v>
       </c>
@@ -30206,23 +30205,23 @@
       </c>
     </row>
     <row r="217" spans="1:8" x14ac:dyDescent="0.2">
-      <c r="A217" s="4" t="s">
+      <c r="A217" s="3" t="s">
         <v>126</v>
       </c>
       <c r="B217" s="1">
         <v>46021</v>
       </c>
-      <c r="C217" s="2">
+      <c r="C217">
         <v>6</v>
       </c>
-      <c r="D217" s="2">
+      <c r="D217">
         <v>474.82</v>
       </c>
       <c r="E217" t="str">
         <f t="shared" si="12"/>
         <v>CUST_0218</v>
       </c>
-      <c r="F217" s="2">
+      <c r="F217">
         <f t="shared" ca="1" si="13"/>
         <v>42</v>
       </c>
@@ -30236,23 +30235,23 @@
       </c>
     </row>
     <row r="218" spans="1:8" x14ac:dyDescent="0.2">
-      <c r="A218" s="4" t="s">
+      <c r="A218" s="3" t="s">
         <v>1423</v>
       </c>
       <c r="B218" s="1">
         <v>45901</v>
       </c>
-      <c r="C218" s="2">
+      <c r="C218">
         <v>1</v>
       </c>
-      <c r="D218" s="2">
+      <c r="D218">
         <v>119.97</v>
       </c>
       <c r="E218" t="str">
         <f t="shared" si="12"/>
         <v>CUST_0219</v>
       </c>
-      <c r="F218" s="2">
+      <c r="F218">
         <f t="shared" ca="1" si="13"/>
         <v>162</v>
       </c>
@@ -30266,23 +30265,23 @@
       </c>
     </row>
     <row r="219" spans="1:8" x14ac:dyDescent="0.2">
-      <c r="A219" s="4" t="s">
+      <c r="A219" s="3" t="s">
         <v>322</v>
       </c>
       <c r="B219" s="1">
         <v>46017</v>
       </c>
-      <c r="C219" s="2">
+      <c r="C219">
         <v>7</v>
       </c>
-      <c r="D219" s="2">
+      <c r="D219">
         <v>809.75999999999908</v>
       </c>
       <c r="E219" t="str">
         <f t="shared" si="12"/>
         <v>CUST_0220</v>
       </c>
-      <c r="F219" s="2">
+      <c r="F219">
         <f t="shared" ca="1" si="13"/>
         <v>46</v>
       </c>
@@ -30296,23 +30295,23 @@
       </c>
     </row>
     <row r="220" spans="1:8" x14ac:dyDescent="0.2">
-      <c r="A220" s="4" t="s">
+      <c r="A220" s="3" t="s">
         <v>754</v>
       </c>
       <c r="B220" s="1">
         <v>45792</v>
       </c>
-      <c r="C220" s="2">
+      <c r="C220">
         <v>1</v>
       </c>
-      <c r="D220" s="2">
+      <c r="D220">
         <v>59.98</v>
       </c>
       <c r="E220" t="str">
         <f t="shared" si="12"/>
         <v>CUST_0221</v>
       </c>
-      <c r="F220" s="2">
+      <c r="F220">
         <f t="shared" ca="1" si="13"/>
         <v>271</v>
       </c>
@@ -30326,23 +30325,23 @@
       </c>
     </row>
     <row r="221" spans="1:8" x14ac:dyDescent="0.2">
-      <c r="A221" s="4" t="s">
+      <c r="A221" s="3" t="s">
         <v>237</v>
       </c>
       <c r="B221" s="1">
         <v>46012</v>
       </c>
-      <c r="C221" s="2">
+      <c r="C221">
         <v>5</v>
       </c>
-      <c r="D221" s="2">
+      <c r="D221">
         <v>224.86999999999998</v>
       </c>
       <c r="E221" t="str">
         <f t="shared" si="12"/>
         <v>CUST_0222</v>
       </c>
-      <c r="F221" s="2">
+      <c r="F221">
         <f t="shared" ca="1" si="13"/>
         <v>51</v>
       </c>
@@ -30356,23 +30355,23 @@
       </c>
     </row>
     <row r="222" spans="1:8" x14ac:dyDescent="0.2">
-      <c r="A222" s="4" t="s">
+      <c r="A222" s="3" t="s">
         <v>493</v>
       </c>
       <c r="B222" s="1">
         <v>45995</v>
       </c>
-      <c r="C222" s="2">
+      <c r="C222">
         <v>6</v>
       </c>
-      <c r="D222" s="2">
+      <c r="D222">
         <v>359.82</v>
       </c>
       <c r="E222" t="str">
         <f t="shared" si="12"/>
         <v>CUST_0223</v>
       </c>
-      <c r="F222" s="2">
+      <c r="F222">
         <f t="shared" ca="1" si="13"/>
         <v>68</v>
       </c>
@@ -30386,23 +30385,23 @@
       </c>
     </row>
     <row r="223" spans="1:8" x14ac:dyDescent="0.2">
-      <c r="A223" s="4" t="s">
+      <c r="A223" s="3" t="s">
         <v>325</v>
       </c>
       <c r="B223" s="1">
         <v>46045</v>
       </c>
-      <c r="C223" s="2">
+      <c r="C223">
         <v>6</v>
       </c>
-      <c r="D223" s="2">
+      <c r="D223">
         <v>374.84</v>
       </c>
       <c r="E223" t="str">
         <f t="shared" si="12"/>
         <v>CUST_0224</v>
       </c>
-      <c r="F223" s="2">
+      <c r="F223">
         <f t="shared" ca="1" si="13"/>
         <v>18</v>
       </c>
@@ -30416,23 +30415,23 @@
       </c>
     </row>
     <row r="224" spans="1:8" x14ac:dyDescent="0.2">
-      <c r="A224" s="4" t="s">
+      <c r="A224" s="3" t="s">
         <v>280</v>
       </c>
       <c r="B224" s="1">
         <v>46034</v>
       </c>
-      <c r="C224" s="2">
+      <c r="C224">
         <v>5</v>
       </c>
-      <c r="D224" s="2">
+      <c r="D224">
         <v>229.86</v>
       </c>
       <c r="E224" t="str">
         <f t="shared" si="12"/>
         <v>CUST_0225</v>
       </c>
-      <c r="F224" s="2">
+      <c r="F224">
         <f t="shared" ca="1" si="13"/>
         <v>29</v>
       </c>
@@ -30446,23 +30445,23 @@
       </c>
     </row>
     <row r="225" spans="1:8" x14ac:dyDescent="0.2">
-      <c r="A225" s="4" t="s">
+      <c r="A225" s="3" t="s">
         <v>451</v>
       </c>
       <c r="B225" s="1">
         <v>45997</v>
       </c>
-      <c r="C225" s="2">
+      <c r="C225">
         <v>4</v>
       </c>
-      <c r="D225" s="2">
+      <c r="D225">
         <v>259.87</v>
       </c>
       <c r="E225" t="str">
         <f t="shared" si="12"/>
         <v>CUST_0226</v>
       </c>
-      <c r="F225" s="2">
+      <c r="F225">
         <f t="shared" ca="1" si="13"/>
         <v>66</v>
       </c>
@@ -30476,23 +30475,23 @@
       </c>
     </row>
     <row r="226" spans="1:8" x14ac:dyDescent="0.2">
-      <c r="A226" s="4" t="s">
+      <c r="A226" s="3" t="s">
         <v>208</v>
       </c>
       <c r="B226" s="1">
         <v>46015</v>
       </c>
-      <c r="C226" s="2">
+      <c r="C226">
         <v>7</v>
       </c>
-      <c r="D226" s="2">
+      <c r="D226">
         <v>499.78999999999985</v>
       </c>
       <c r="E226" t="str">
         <f t="shared" si="12"/>
         <v>CUST_0227</v>
       </c>
-      <c r="F226" s="2">
+      <c r="F226">
         <f t="shared" ca="1" si="13"/>
         <v>48</v>
       </c>
@@ -30506,23 +30505,23 @@
       </c>
     </row>
     <row r="227" spans="1:8" x14ac:dyDescent="0.2">
-      <c r="A227" s="4" t="s">
+      <c r="A227" s="3" t="s">
         <v>853</v>
       </c>
       <c r="B227" s="1">
         <v>46023</v>
       </c>
-      <c r="C227" s="2">
+      <c r="C227">
         <v>3</v>
       </c>
-      <c r="D227" s="2">
+      <c r="D227">
         <v>199.89999999999998</v>
       </c>
       <c r="E227" t="str">
         <f t="shared" si="12"/>
         <v>CUST_0228</v>
       </c>
-      <c r="F227" s="2">
+      <c r="F227">
         <f t="shared" ca="1" si="13"/>
         <v>40</v>
       </c>
@@ -30536,23 +30535,23 @@
       </c>
     </row>
     <row r="228" spans="1:8" x14ac:dyDescent="0.2">
-      <c r="A228" s="4" t="s">
+      <c r="A228" s="3" t="s">
         <v>577</v>
       </c>
       <c r="B228" s="1">
         <v>46019</v>
       </c>
-      <c r="C228" s="2">
+      <c r="C228">
         <v>8</v>
       </c>
-      <c r="D228" s="2">
+      <c r="D228">
         <v>499.75</v>
       </c>
       <c r="E228" t="str">
         <f t="shared" si="12"/>
         <v>CUST_0229</v>
       </c>
-      <c r="F228" s="2">
+      <c r="F228">
         <f t="shared" ca="1" si="13"/>
         <v>44</v>
       </c>
@@ -30566,23 +30565,23 @@
       </c>
     </row>
     <row r="229" spans="1:8" x14ac:dyDescent="0.2">
-      <c r="A229" s="4" t="s">
+      <c r="A229" s="3" t="s">
         <v>444</v>
       </c>
       <c r="B229" s="1">
         <v>46026</v>
       </c>
-      <c r="C229" s="2">
+      <c r="C229">
         <v>2</v>
       </c>
-      <c r="D229" s="2">
+      <c r="D229">
         <v>139.92999999999989</v>
       </c>
       <c r="E229" t="str">
         <f t="shared" si="12"/>
         <v>CUST_0230</v>
       </c>
-      <c r="F229" s="2">
+      <c r="F229">
         <f t="shared" ca="1" si="13"/>
         <v>37</v>
       </c>
@@ -30596,23 +30595,23 @@
       </c>
     </row>
     <row r="230" spans="1:8" x14ac:dyDescent="0.2">
-      <c r="A230" s="4" t="s">
+      <c r="A230" s="3" t="s">
         <v>181</v>
       </c>
       <c r="B230" s="1">
         <v>46019</v>
       </c>
-      <c r="C230" s="2">
+      <c r="C230">
         <v>6</v>
       </c>
-      <c r="D230" s="2">
+      <c r="D230">
         <v>379.82999999999902</v>
       </c>
       <c r="E230" t="str">
         <f t="shared" si="12"/>
         <v>CUST_0231</v>
       </c>
-      <c r="F230" s="2">
+      <c r="F230">
         <f t="shared" ca="1" si="13"/>
         <v>44</v>
       </c>
@@ -30626,23 +30625,23 @@
       </c>
     </row>
     <row r="231" spans="1:8" x14ac:dyDescent="0.2">
-      <c r="A231" s="4" t="s">
+      <c r="A231" s="3" t="s">
         <v>1450</v>
       </c>
       <c r="B231" s="1">
         <v>45862</v>
       </c>
-      <c r="C231" s="2">
+      <c r="C231">
         <v>1</v>
       </c>
-      <c r="D231" s="2">
+      <c r="D231">
         <v>49.95</v>
       </c>
       <c r="E231" t="str">
         <f t="shared" si="12"/>
         <v>CUST_0232</v>
       </c>
-      <c r="F231" s="2">
+      <c r="F231">
         <f t="shared" ca="1" si="13"/>
         <v>201</v>
       </c>
@@ -30656,23 +30655,23 @@
       </c>
     </row>
     <row r="232" spans="1:8" x14ac:dyDescent="0.2">
-      <c r="A232" s="4" t="s">
+      <c r="A232" s="3" t="s">
         <v>287</v>
       </c>
       <c r="B232" s="1">
         <v>46030</v>
       </c>
-      <c r="C232" s="2">
+      <c r="C232">
         <v>8</v>
       </c>
-      <c r="D232" s="2">
+      <c r="D232">
         <v>774.75</v>
       </c>
       <c r="E232" t="str">
         <f t="shared" si="12"/>
         <v>CUST_0233</v>
       </c>
-      <c r="F232" s="2">
+      <c r="F232">
         <f t="shared" ca="1" si="13"/>
         <v>33</v>
       </c>
@@ -30686,23 +30685,23 @@
       </c>
     </row>
     <row r="233" spans="1:8" x14ac:dyDescent="0.2">
-      <c r="A233" s="4" t="s">
+      <c r="A233" s="3" t="s">
         <v>298</v>
       </c>
       <c r="B233" s="1">
         <v>45810</v>
       </c>
-      <c r="C233" s="2">
+      <c r="C233">
         <v>2</v>
       </c>
-      <c r="D233" s="2">
+      <c r="D233">
         <v>219.92000000000002</v>
       </c>
       <c r="E233" t="str">
         <f t="shared" si="12"/>
         <v>CUST_0234</v>
       </c>
-      <c r="F233" s="2">
+      <c r="F233">
         <f t="shared" ca="1" si="13"/>
         <v>253</v>
       </c>
@@ -30716,23 +30715,23 @@
       </c>
     </row>
     <row r="234" spans="1:8" x14ac:dyDescent="0.2">
-      <c r="A234" s="4" t="s">
+      <c r="A234" s="3" t="s">
         <v>756</v>
       </c>
       <c r="B234" s="1">
         <v>45985</v>
       </c>
-      <c r="C234" s="2">
+      <c r="C234">
         <v>3</v>
       </c>
-      <c r="D234" s="2">
+      <c r="D234">
         <v>479.88</v>
       </c>
       <c r="E234" t="str">
         <f t="shared" si="12"/>
         <v>CUST_0235</v>
       </c>
-      <c r="F234" s="2">
+      <c r="F234">
         <f t="shared" ca="1" si="13"/>
         <v>78</v>
       </c>
@@ -30746,23 +30745,23 @@
       </c>
     </row>
     <row r="235" spans="1:8" x14ac:dyDescent="0.2">
-      <c r="A235" s="4" t="s">
+      <c r="A235" s="3" t="s">
         <v>65</v>
       </c>
       <c r="B235" s="1">
         <v>46046</v>
       </c>
-      <c r="C235" s="2">
+      <c r="C235">
         <v>4</v>
       </c>
-      <c r="D235" s="2">
+      <c r="D235">
         <v>184.92000000000002</v>
       </c>
       <c r="E235" t="str">
         <f t="shared" si="12"/>
         <v>CUST_0236</v>
       </c>
-      <c r="F235" s="2">
+      <c r="F235">
         <f t="shared" ca="1" si="13"/>
         <v>17</v>
       </c>
@@ -30776,23 +30775,23 @@
       </c>
     </row>
     <row r="236" spans="1:8" x14ac:dyDescent="0.2">
-      <c r="A236" s="4" t="s">
+      <c r="A236" s="3" t="s">
         <v>147</v>
       </c>
       <c r="B236" s="1">
         <v>45986</v>
       </c>
-      <c r="C236" s="2">
+      <c r="C236">
         <v>6</v>
       </c>
-      <c r="D236" s="2">
+      <c r="D236">
         <v>459.79999999999995</v>
       </c>
       <c r="E236" t="str">
         <f t="shared" si="12"/>
         <v>CUST_0237</v>
       </c>
-      <c r="F236" s="2">
+      <c r="F236">
         <f t="shared" ca="1" si="13"/>
         <v>77</v>
       </c>
@@ -30806,23 +30805,23 @@
       </c>
     </row>
     <row r="237" spans="1:8" x14ac:dyDescent="0.2">
-      <c r="A237" s="4" t="s">
+      <c r="A237" s="3" t="s">
         <v>438</v>
       </c>
       <c r="B237" s="1">
         <v>45958</v>
       </c>
-      <c r="C237" s="2">
+      <c r="C237">
         <v>3</v>
       </c>
-      <c r="D237" s="2">
+      <c r="D237">
         <v>84.93</v>
       </c>
       <c r="E237" t="str">
         <f t="shared" si="12"/>
         <v>CUST_0238</v>
       </c>
-      <c r="F237" s="2">
+      <c r="F237">
         <f t="shared" ca="1" si="13"/>
         <v>105</v>
       </c>
@@ -30836,23 +30835,23 @@
       </c>
     </row>
     <row r="238" spans="1:8" x14ac:dyDescent="0.2">
-      <c r="A238" s="4" t="s">
+      <c r="A238" s="3" t="s">
         <v>589</v>
       </c>
       <c r="B238" s="1">
         <v>45895</v>
       </c>
-      <c r="C238" s="2">
+      <c r="C238">
         <v>7</v>
       </c>
-      <c r="D238" s="2">
+      <c r="D238">
         <v>344.79999999999905</v>
       </c>
       <c r="E238" t="str">
         <f t="shared" si="12"/>
         <v>CUST_0239</v>
       </c>
-      <c r="F238" s="2">
+      <c r="F238">
         <f t="shared" ca="1" si="13"/>
         <v>168</v>
       </c>
@@ -30866,23 +30865,23 @@
       </c>
     </row>
     <row r="239" spans="1:8" x14ac:dyDescent="0.2">
-      <c r="A239" s="4" t="s">
+      <c r="A239" s="3" t="s">
         <v>350</v>
       </c>
       <c r="B239" s="1">
         <v>45981</v>
       </c>
-      <c r="C239" s="2">
+      <c r="C239">
         <v>3</v>
       </c>
-      <c r="D239" s="2">
+      <c r="D239">
         <v>149.91</v>
       </c>
       <c r="E239" t="str">
         <f t="shared" si="12"/>
         <v>CUST_0240</v>
       </c>
-      <c r="F239" s="2">
+      <c r="F239">
         <f t="shared" ca="1" si="13"/>
         <v>82</v>
       </c>
@@ -30896,23 +30895,23 @@
       </c>
     </row>
     <row r="240" spans="1:8" x14ac:dyDescent="0.2">
-      <c r="A240" s="4" t="s">
+      <c r="A240" s="3" t="s">
         <v>231</v>
       </c>
       <c r="B240" s="1">
         <v>45743</v>
       </c>
-      <c r="C240" s="2">
+      <c r="C240">
         <v>1</v>
       </c>
-      <c r="D240" s="2">
+      <c r="D240">
         <v>9.99</v>
       </c>
       <c r="E240" t="str">
         <f t="shared" si="12"/>
         <v>CUST_0241</v>
       </c>
-      <c r="F240" s="2">
+      <c r="F240">
         <f t="shared" ca="1" si="13"/>
         <v>320</v>
       </c>
@@ -30926,23 +30925,23 @@
       </c>
     </row>
     <row r="241" spans="1:8" x14ac:dyDescent="0.2">
-      <c r="A241" s="4" t="s">
+      <c r="A241" s="3" t="s">
         <v>98</v>
       </c>
       <c r="B241" s="1">
         <v>45981</v>
       </c>
-      <c r="C241" s="2">
+      <c r="C241">
         <v>4</v>
       </c>
-      <c r="D241" s="2">
+      <c r="D241">
         <v>264.8599999999999</v>
       </c>
       <c r="E241" t="str">
         <f t="shared" si="12"/>
         <v>CUST_0242</v>
       </c>
-      <c r="F241" s="2">
+      <c r="F241">
         <f t="shared" ca="1" si="13"/>
         <v>82</v>
       </c>
@@ -30956,23 +30955,23 @@
       </c>
     </row>
     <row r="242" spans="1:8" x14ac:dyDescent="0.2">
-      <c r="A242" s="4" t="s">
+      <c r="A242" s="3" t="s">
         <v>255</v>
       </c>
       <c r="B242" s="1">
         <v>46004</v>
       </c>
-      <c r="C242" s="2">
+      <c r="C242">
         <v>3</v>
       </c>
-      <c r="D242" s="2">
+      <c r="D242">
         <v>94.92</v>
       </c>
       <c r="E242" t="str">
         <f t="shared" si="12"/>
         <v>CUST_0243</v>
       </c>
-      <c r="F242" s="2">
+      <c r="F242">
         <f t="shared" ca="1" si="13"/>
         <v>59</v>
       </c>
@@ -30986,23 +30985,23 @@
       </c>
     </row>
     <row r="243" spans="1:8" x14ac:dyDescent="0.2">
-      <c r="A243" s="4" t="s">
+      <c r="A243" s="3" t="s">
         <v>84</v>
       </c>
       <c r="B243" s="1">
         <v>45997</v>
       </c>
-      <c r="C243" s="2">
+      <c r="C243">
         <v>3</v>
       </c>
-      <c r="D243" s="2">
+      <c r="D243">
         <v>239.9</v>
       </c>
       <c r="E243" t="str">
         <f t="shared" si="12"/>
         <v>CUST_0244</v>
       </c>
-      <c r="F243" s="2">
+      <c r="F243">
         <f t="shared" ca="1" si="13"/>
         <v>66</v>
       </c>
@@ -31016,23 +31015,23 @@
       </c>
     </row>
     <row r="244" spans="1:8" x14ac:dyDescent="0.2">
-      <c r="A244" s="4" t="s">
+      <c r="A244" s="3" t="s">
         <v>515</v>
       </c>
       <c r="B244" s="1">
         <v>45932</v>
       </c>
-      <c r="C244" s="2">
+      <c r="C244">
         <v>4</v>
       </c>
-      <c r="D244" s="2">
+      <c r="D244">
         <v>299.89</v>
       </c>
       <c r="E244" t="str">
         <f t="shared" si="12"/>
         <v>CUST_0246</v>
       </c>
-      <c r="F244" s="2">
+      <c r="F244">
         <f t="shared" ca="1" si="13"/>
         <v>131</v>
       </c>
@@ -31046,23 +31045,23 @@
       </c>
     </row>
     <row r="245" spans="1:8" x14ac:dyDescent="0.2">
-      <c r="A245" s="4" t="s">
+      <c r="A245" s="3" t="s">
         <v>336</v>
       </c>
       <c r="B245" s="1">
         <v>46036</v>
       </c>
-      <c r="C245" s="2">
+      <c r="C245">
         <v>7</v>
       </c>
-      <c r="D245" s="2">
+      <c r="D245">
         <v>569.78</v>
       </c>
       <c r="E245" t="str">
         <f t="shared" si="12"/>
         <v>CUST_0247</v>
       </c>
-      <c r="F245" s="2">
+      <c r="F245">
         <f t="shared" ca="1" si="13"/>
         <v>27</v>
       </c>
@@ -31076,23 +31075,23 @@
       </c>
     </row>
     <row r="246" spans="1:8" x14ac:dyDescent="0.2">
-      <c r="A246" s="4" t="s">
+      <c r="A246" s="3" t="s">
         <v>692</v>
       </c>
       <c r="B246" s="1">
         <v>45972</v>
       </c>
-      <c r="C246" s="2">
+      <c r="C246">
         <v>5</v>
       </c>
-      <c r="D246" s="2">
+      <c r="D246">
         <v>599.83000000000004</v>
       </c>
       <c r="E246" t="str">
         <f t="shared" si="12"/>
         <v>CUST_0249</v>
       </c>
-      <c r="F246" s="2">
+      <c r="F246">
         <f t="shared" ca="1" si="13"/>
         <v>91</v>
       </c>
@@ -31106,23 +31105,23 @@
       </c>
     </row>
     <row r="247" spans="1:8" x14ac:dyDescent="0.2">
-      <c r="A247" s="4" t="s">
+      <c r="A247" s="3" t="s">
         <v>635</v>
       </c>
       <c r="B247" s="1">
         <v>45999</v>
       </c>
-      <c r="C247" s="2">
+      <c r="C247">
         <v>5</v>
       </c>
-      <c r="D247" s="2">
+      <c r="D247">
         <v>324.83</v>
       </c>
       <c r="E247" t="str">
         <f t="shared" si="12"/>
         <v>CUST_0250</v>
       </c>
-      <c r="F247" s="2">
+      <c r="F247">
         <f t="shared" ca="1" si="13"/>
         <v>64</v>
       </c>
@@ -31136,23 +31135,23 @@
       </c>
     </row>
     <row r="248" spans="1:8" x14ac:dyDescent="0.2">
-      <c r="A248" s="4" t="s">
+      <c r="A248" s="3" t="s">
         <v>873</v>
       </c>
       <c r="B248" s="1">
         <v>45971</v>
       </c>
-      <c r="C248" s="2">
+      <c r="C248">
         <v>3</v>
       </c>
-      <c r="D248" s="2">
+      <c r="D248">
         <v>279.89</v>
       </c>
       <c r="E248" t="str">
         <f t="shared" si="12"/>
         <v>CUST_0251</v>
       </c>
-      <c r="F248" s="2">
+      <c r="F248">
         <f t="shared" ca="1" si="13"/>
         <v>92</v>
       </c>
@@ -31166,23 +31165,23 @@
       </c>
     </row>
     <row r="249" spans="1:8" x14ac:dyDescent="0.2">
-      <c r="A249" s="4" t="s">
+      <c r="A249" s="3" t="s">
         <v>138</v>
       </c>
       <c r="B249" s="1">
         <v>46031</v>
       </c>
-      <c r="C249" s="2">
+      <c r="C249">
         <v>7</v>
       </c>
-      <c r="D249" s="2">
+      <c r="D249">
         <v>414.7999999999999</v>
       </c>
       <c r="E249" t="str">
         <f t="shared" si="12"/>
         <v>CUST_0252</v>
       </c>
-      <c r="F249" s="2">
+      <c r="F249">
         <f t="shared" ca="1" si="13"/>
         <v>32</v>
       </c>
@@ -31196,23 +31195,23 @@
       </c>
     </row>
     <row r="250" spans="1:8" x14ac:dyDescent="0.2">
-      <c r="A250" s="4" t="s">
+      <c r="A250" s="3" t="s">
         <v>62</v>
       </c>
       <c r="B250" s="1">
         <v>45988</v>
       </c>
-      <c r="C250" s="2">
+      <c r="C250">
         <v>6</v>
       </c>
-      <c r="D250" s="2">
+      <c r="D250">
         <v>379.81999999999982</v>
       </c>
       <c r="E250" t="str">
         <f t="shared" si="12"/>
         <v>CUST_0253</v>
       </c>
-      <c r="F250" s="2">
+      <c r="F250">
         <f t="shared" ca="1" si="13"/>
         <v>75</v>
       </c>
@@ -31226,23 +31225,23 @@
       </c>
     </row>
     <row r="251" spans="1:8" x14ac:dyDescent="0.2">
-      <c r="A251" s="4" t="s">
+      <c r="A251" s="3" t="s">
         <v>389</v>
       </c>
       <c r="B251" s="1">
         <v>46029</v>
       </c>
-      <c r="C251" s="2">
+      <c r="C251">
         <v>5</v>
       </c>
-      <c r="D251" s="2">
+      <c r="D251">
         <v>174.87</v>
       </c>
       <c r="E251" t="str">
         <f t="shared" si="12"/>
         <v>CUST_0254</v>
       </c>
-      <c r="F251" s="2">
+      <c r="F251">
         <f t="shared" ca="1" si="13"/>
         <v>34</v>
       </c>
@@ -31256,23 +31255,23 @@
       </c>
     </row>
     <row r="252" spans="1:8" x14ac:dyDescent="0.2">
-      <c r="A252" s="4" t="s">
+      <c r="A252" s="3" t="s">
         <v>218</v>
       </c>
       <c r="B252" s="1">
         <v>45991</v>
       </c>
-      <c r="C252" s="2">
+      <c r="C252">
         <v>4</v>
       </c>
-      <c r="D252" s="2">
+      <c r="D252">
         <v>174.89</v>
       </c>
       <c r="E252" t="str">
         <f t="shared" si="12"/>
         <v>CUST_0255</v>
       </c>
-      <c r="F252" s="2">
+      <c r="F252">
         <f t="shared" ca="1" si="13"/>
         <v>72</v>
       </c>
@@ -31286,23 +31285,23 @@
       </c>
     </row>
     <row r="253" spans="1:8" x14ac:dyDescent="0.2">
-      <c r="A253" s="4" t="s">
+      <c r="A253" s="3" t="s">
         <v>486</v>
       </c>
       <c r="B253" s="1">
         <v>46033</v>
       </c>
-      <c r="C253" s="2">
+      <c r="C253">
         <v>3</v>
       </c>
-      <c r="D253" s="2">
+      <c r="D253">
         <v>154.9199999999999</v>
       </c>
       <c r="E253" t="str">
         <f t="shared" si="12"/>
         <v>CUST_0256</v>
       </c>
-      <c r="F253" s="2">
+      <c r="F253">
         <f t="shared" ca="1" si="13"/>
         <v>30</v>
       </c>
@@ -31316,23 +31315,23 @@
       </c>
     </row>
     <row r="254" spans="1:8" x14ac:dyDescent="0.2">
-      <c r="A254" s="4" t="s">
+      <c r="A254" s="3" t="s">
         <v>213</v>
       </c>
       <c r="B254" s="1">
         <v>46032</v>
       </c>
-      <c r="C254" s="2">
+      <c r="C254">
         <v>6</v>
       </c>
-      <c r="D254" s="2">
+      <c r="D254">
         <v>354.86</v>
       </c>
       <c r="E254" t="str">
         <f t="shared" si="12"/>
         <v>CUST_0257</v>
       </c>
-      <c r="F254" s="2">
+      <c r="F254">
         <f t="shared" ca="1" si="13"/>
         <v>31</v>
       </c>
@@ -31346,23 +31345,23 @@
       </c>
     </row>
     <row r="255" spans="1:8" x14ac:dyDescent="0.2">
-      <c r="A255" s="4" t="s">
+      <c r="A255" s="3" t="s">
         <v>49</v>
       </c>
       <c r="B255" s="1">
         <v>45869</v>
       </c>
-      <c r="C255" s="2">
+      <c r="C255">
         <v>2</v>
       </c>
-      <c r="D255" s="2">
+      <c r="D255">
         <v>129.94999999999999</v>
       </c>
       <c r="E255" t="str">
         <f t="shared" si="12"/>
         <v>CUST_0258</v>
       </c>
-      <c r="F255" s="2">
+      <c r="F255">
         <f t="shared" ca="1" si="13"/>
         <v>194</v>
       </c>
@@ -31376,23 +31375,23 @@
       </c>
     </row>
     <row r="256" spans="1:8" x14ac:dyDescent="0.2">
-      <c r="A256" s="4" t="s">
+      <c r="A256" s="3" t="s">
         <v>289</v>
       </c>
       <c r="B256" s="1">
         <v>45985</v>
       </c>
-      <c r="C256" s="2">
+      <c r="C256">
         <v>6</v>
       </c>
-      <c r="D256" s="2">
+      <c r="D256">
         <v>264.86</v>
       </c>
       <c r="E256" t="str">
         <f t="shared" si="12"/>
         <v>CUST_0259</v>
       </c>
-      <c r="F256" s="2">
+      <c r="F256">
         <f t="shared" ca="1" si="13"/>
         <v>78</v>
       </c>
@@ -31406,23 +31405,23 @@
       </c>
     </row>
     <row r="257" spans="1:8" x14ac:dyDescent="0.2">
-      <c r="A257" s="4" t="s">
+      <c r="A257" s="3" t="s">
         <v>122</v>
       </c>
       <c r="B257" s="1">
         <v>45947</v>
       </c>
-      <c r="C257" s="2">
+      <c r="C257">
         <v>2</v>
       </c>
-      <c r="D257" s="2">
+      <c r="D257">
         <v>139.93999999999991</v>
       </c>
       <c r="E257" t="str">
         <f t="shared" si="12"/>
         <v>CUST_0260</v>
       </c>
-      <c r="F257" s="2">
+      <c r="F257">
         <f t="shared" ca="1" si="13"/>
         <v>116</v>
       </c>
@@ -31436,23 +31435,23 @@
       </c>
     </row>
     <row r="258" spans="1:8" x14ac:dyDescent="0.2">
-      <c r="A258" s="4" t="s">
+      <c r="A258" s="3" t="s">
         <v>179</v>
       </c>
       <c r="B258" s="1">
         <v>45941</v>
       </c>
-      <c r="C258" s="2">
+      <c r="C258">
         <v>4</v>
       </c>
-      <c r="D258" s="2">
+      <c r="D258">
         <v>214.90999999999997</v>
       </c>
       <c r="E258" t="str">
         <f t="shared" si="12"/>
         <v>CUST_0261</v>
       </c>
-      <c r="F258" s="2">
+      <c r="F258">
         <f t="shared" ca="1" si="13"/>
         <v>122</v>
       </c>
@@ -31466,23 +31465,23 @@
       </c>
     </row>
     <row r="259" spans="1:8" x14ac:dyDescent="0.2">
-      <c r="A259" s="4" t="s">
+      <c r="A259" s="3" t="s">
         <v>559</v>
       </c>
       <c r="B259" s="1">
         <v>45982</v>
       </c>
-      <c r="C259" s="2">
+      <c r="C259">
         <v>2</v>
       </c>
-      <c r="D259" s="2">
+      <c r="D259">
         <v>139.91999999999999</v>
       </c>
       <c r="E259" t="str">
         <f t="shared" si="12"/>
         <v>CUST_0262</v>
       </c>
-      <c r="F259" s="2">
+      <c r="F259">
         <f t="shared" ca="1" si="13"/>
         <v>81</v>
       </c>
@@ -31496,23 +31495,23 @@
       </c>
     </row>
     <row r="260" spans="1:8" x14ac:dyDescent="0.2">
-      <c r="A260" s="4" t="s">
+      <c r="A260" s="3" t="s">
         <v>380</v>
       </c>
       <c r="B260" s="1">
         <v>45763</v>
       </c>
-      <c r="C260" s="2">
+      <c r="C260">
         <v>2</v>
       </c>
-      <c r="D260" s="2">
+      <c r="D260">
         <v>159.94</v>
       </c>
       <c r="E260" t="str">
         <f t="shared" si="12"/>
         <v>CUST_0263</v>
       </c>
-      <c r="F260" s="2">
+      <c r="F260">
         <f t="shared" ca="1" si="13"/>
         <v>300</v>
       </c>
@@ -31526,23 +31525,23 @@
       </c>
     </row>
     <row r="261" spans="1:8" x14ac:dyDescent="0.2">
-      <c r="A261" s="4" t="s">
+      <c r="A261" s="3" t="s">
         <v>106</v>
       </c>
       <c r="B261" s="1">
         <v>46001</v>
       </c>
-      <c r="C261" s="2">
+      <c r="C261">
         <v>9</v>
       </c>
-      <c r="D261" s="2">
+      <c r="D261">
         <v>929.63</v>
       </c>
       <c r="E261" t="str">
         <f t="shared" ref="E261:E297" si="16">A261</f>
         <v>CUST_0264</v>
       </c>
-      <c r="F261" s="2">
+      <c r="F261">
         <f t="shared" ref="F261:F297" ca="1" si="17">TODAY()-B261</f>
         <v>62</v>
       </c>
@@ -31556,23 +31555,23 @@
       </c>
     </row>
     <row r="262" spans="1:8" x14ac:dyDescent="0.2">
-      <c r="A262" s="4" t="s">
+      <c r="A262" s="3" t="s">
         <v>100</v>
       </c>
       <c r="B262" s="1">
         <v>45939</v>
       </c>
-      <c r="C262" s="2">
+      <c r="C262">
         <v>3</v>
       </c>
-      <c r="D262" s="2">
+      <c r="D262">
         <v>154.90999999999991</v>
       </c>
       <c r="E262" t="str">
         <f t="shared" si="16"/>
         <v>CUST_0265</v>
       </c>
-      <c r="F262" s="2">
+      <c r="F262">
         <f t="shared" ca="1" si="17"/>
         <v>124</v>
       </c>
@@ -31586,23 +31585,23 @@
       </c>
     </row>
     <row r="263" spans="1:8" x14ac:dyDescent="0.2">
-      <c r="A263" s="4" t="s">
+      <c r="A263" s="3" t="s">
         <v>1326</v>
       </c>
       <c r="B263" s="1">
         <v>45927</v>
       </c>
-      <c r="C263" s="2">
+      <c r="C263">
         <v>2</v>
       </c>
-      <c r="D263" s="2">
+      <c r="D263">
         <v>64.94</v>
       </c>
       <c r="E263" t="str">
         <f t="shared" si="16"/>
         <v>CUST_0266</v>
       </c>
-      <c r="F263" s="2">
+      <c r="F263">
         <f t="shared" ca="1" si="17"/>
         <v>136</v>
       </c>
@@ -31616,23 +31615,23 @@
       </c>
     </row>
     <row r="264" spans="1:8" x14ac:dyDescent="0.2">
-      <c r="A264" s="4" t="s">
+      <c r="A264" s="3" t="s">
         <v>373</v>
       </c>
       <c r="B264" s="1">
         <v>45984</v>
       </c>
-      <c r="C264" s="2">
+      <c r="C264">
         <v>5</v>
       </c>
-      <c r="D264" s="2">
+      <c r="D264">
         <v>219.88999999999993</v>
       </c>
       <c r="E264" t="str">
         <f t="shared" si="16"/>
         <v>CUST_0267</v>
       </c>
-      <c r="F264" s="2">
+      <c r="F264">
         <f t="shared" ca="1" si="17"/>
         <v>79</v>
       </c>
@@ -31646,23 +31645,23 @@
       </c>
     </row>
     <row r="265" spans="1:8" x14ac:dyDescent="0.2">
-      <c r="A265" s="4" t="s">
+      <c r="A265" s="3" t="s">
         <v>189</v>
       </c>
       <c r="B265" s="1">
         <v>45991</v>
       </c>
-      <c r="C265" s="2">
+      <c r="C265">
         <v>7</v>
       </c>
-      <c r="D265" s="2">
+      <c r="D265">
         <v>474.79999999999995</v>
       </c>
       <c r="E265" t="str">
         <f t="shared" si="16"/>
         <v>CUST_0268</v>
       </c>
-      <c r="F265" s="2">
+      <c r="F265">
         <f t="shared" ca="1" si="17"/>
         <v>72</v>
       </c>
@@ -31676,23 +31675,23 @@
       </c>
     </row>
     <row r="266" spans="1:8" x14ac:dyDescent="0.2">
-      <c r="A266" s="4" t="s">
+      <c r="A266" s="3" t="s">
         <v>564</v>
       </c>
       <c r="B266" s="1">
         <v>45783</v>
       </c>
-      <c r="C266" s="2">
+      <c r="C266">
         <v>1</v>
       </c>
-      <c r="D266" s="2">
+      <c r="D266">
         <v>59.96</v>
       </c>
       <c r="E266" t="str">
         <f t="shared" si="16"/>
         <v>CUST_0269</v>
       </c>
-      <c r="F266" s="2">
+      <c r="F266">
         <f t="shared" ca="1" si="17"/>
         <v>280</v>
       </c>
@@ -31706,23 +31705,23 @@
       </c>
     </row>
     <row r="267" spans="1:8" x14ac:dyDescent="0.2">
-      <c r="A267" s="4" t="s">
+      <c r="A267" s="3" t="s">
         <v>134</v>
       </c>
       <c r="B267" s="1">
         <v>45992</v>
       </c>
-      <c r="C267" s="2">
+      <c r="C267">
         <v>3</v>
       </c>
-      <c r="D267" s="2">
+      <c r="D267">
         <v>234.88000000000002</v>
       </c>
       <c r="E267" t="str">
         <f t="shared" si="16"/>
         <v>CUST_0270</v>
       </c>
-      <c r="F267" s="2">
+      <c r="F267">
         <f t="shared" ca="1" si="17"/>
         <v>71</v>
       </c>
@@ -31736,23 +31735,23 @@
       </c>
     </row>
     <row r="268" spans="1:8" x14ac:dyDescent="0.2">
-      <c r="A268" s="4" t="s">
+      <c r="A268" s="3" t="s">
         <v>15</v>
       </c>
       <c r="B268" s="1">
         <v>45891</v>
       </c>
-      <c r="C268" s="2">
+      <c r="C268">
         <v>4</v>
       </c>
-      <c r="D268" s="2">
+      <c r="D268">
         <v>189.86</v>
       </c>
       <c r="E268" t="str">
         <f t="shared" si="16"/>
         <v>CUST_0271</v>
       </c>
-      <c r="F268" s="2">
+      <c r="F268">
         <f t="shared" ca="1" si="17"/>
         <v>172</v>
       </c>
@@ -31766,23 +31765,23 @@
       </c>
     </row>
     <row r="269" spans="1:8" x14ac:dyDescent="0.2">
-      <c r="A269" s="4" t="s">
+      <c r="A269" s="3" t="s">
         <v>600</v>
       </c>
       <c r="B269" s="1">
         <v>45980</v>
       </c>
-      <c r="C269" s="2">
+      <c r="C269">
         <v>2</v>
       </c>
-      <c r="D269" s="2">
+      <c r="D269">
         <v>154.939999999999</v>
       </c>
       <c r="E269" t="str">
         <f t="shared" si="16"/>
         <v>CUST_0272</v>
       </c>
-      <c r="F269" s="2">
+      <c r="F269">
         <f t="shared" ca="1" si="17"/>
         <v>83</v>
       </c>
@@ -31796,23 +31795,23 @@
       </c>
     </row>
     <row r="270" spans="1:8" x14ac:dyDescent="0.2">
-      <c r="A270" s="4" t="s">
+      <c r="A270" s="3" t="s">
         <v>510</v>
       </c>
       <c r="B270" s="1">
         <v>45985</v>
       </c>
-      <c r="C270" s="2">
+      <c r="C270">
         <v>5</v>
       </c>
-      <c r="D270" s="2">
+      <c r="D270">
         <v>189.88000000000002</v>
       </c>
       <c r="E270" t="str">
         <f t="shared" si="16"/>
         <v>CUST_0273</v>
       </c>
-      <c r="F270" s="2">
+      <c r="F270">
         <f t="shared" ca="1" si="17"/>
         <v>78</v>
       </c>
@@ -31826,23 +31825,23 @@
       </c>
     </row>
     <row r="271" spans="1:8" x14ac:dyDescent="0.2">
-      <c r="A271" s="4" t="s">
+      <c r="A271" s="3" t="s">
         <v>92</v>
       </c>
       <c r="B271" s="1">
         <v>45950</v>
       </c>
-      <c r="C271" s="2">
+      <c r="C271">
         <v>2</v>
       </c>
-      <c r="D271" s="2">
+      <c r="D271">
         <v>44.97</v>
       </c>
       <c r="E271" t="str">
         <f t="shared" si="16"/>
         <v>CUST_0274</v>
       </c>
-      <c r="F271" s="2">
+      <c r="F271">
         <f t="shared" ca="1" si="17"/>
         <v>113</v>
       </c>
@@ -31856,23 +31855,23 @@
       </c>
     </row>
     <row r="272" spans="1:8" x14ac:dyDescent="0.2">
-      <c r="A272" s="4" t="s">
+      <c r="A272" s="3" t="s">
         <v>573</v>
       </c>
       <c r="B272" s="1">
         <v>46042</v>
       </c>
-      <c r="C272" s="2">
+      <c r="C272">
         <v>4</v>
       </c>
-      <c r="D272" s="2">
+      <c r="D272">
         <v>144.9</v>
       </c>
       <c r="E272" t="str">
         <f t="shared" si="16"/>
         <v>CUST_0275</v>
       </c>
-      <c r="F272" s="2">
+      <c r="F272">
         <f t="shared" ca="1" si="17"/>
         <v>21</v>
       </c>
@@ -31886,23 +31885,23 @@
       </c>
     </row>
     <row r="273" spans="1:8" x14ac:dyDescent="0.2">
-      <c r="A273" s="4" t="s">
+      <c r="A273" s="3" t="s">
         <v>56</v>
       </c>
       <c r="B273" s="1">
         <v>45873</v>
       </c>
-      <c r="C273" s="2">
+      <c r="C273">
         <v>6</v>
       </c>
-      <c r="D273" s="2">
+      <c r="D273">
         <v>409.84000000000003</v>
       </c>
       <c r="E273" t="str">
         <f t="shared" si="16"/>
         <v>CUST_0277</v>
       </c>
-      <c r="F273" s="2">
+      <c r="F273">
         <f t="shared" ca="1" si="17"/>
         <v>190</v>
       </c>
@@ -31916,23 +31915,23 @@
       </c>
     </row>
     <row r="274" spans="1:8" x14ac:dyDescent="0.2">
-      <c r="A274" s="4" t="s">
+      <c r="A274" s="3" t="s">
         <v>606</v>
       </c>
       <c r="B274" s="1">
         <v>45855</v>
       </c>
-      <c r="C274" s="2">
+      <c r="C274">
         <v>2</v>
       </c>
-      <c r="D274" s="2">
+      <c r="D274">
         <v>59.96</v>
       </c>
       <c r="E274" t="str">
         <f t="shared" si="16"/>
         <v>CUST_0278</v>
       </c>
-      <c r="F274" s="2">
+      <c r="F274">
         <f t="shared" ca="1" si="17"/>
         <v>208</v>
       </c>
@@ -31946,23 +31945,23 @@
       </c>
     </row>
     <row r="275" spans="1:8" x14ac:dyDescent="0.2">
-      <c r="A275" s="4" t="s">
+      <c r="A275" s="3" t="s">
         <v>581</v>
       </c>
       <c r="B275" s="1">
         <v>45777</v>
       </c>
-      <c r="C275" s="2">
+      <c r="C275">
         <v>2</v>
       </c>
-      <c r="D275" s="2">
+      <c r="D275">
         <v>129.93999999999991</v>
       </c>
       <c r="E275" t="str">
         <f t="shared" si="16"/>
         <v>CUST_0279</v>
       </c>
-      <c r="F275" s="2">
+      <c r="F275">
         <f t="shared" ca="1" si="17"/>
         <v>286</v>
       </c>
@@ -31976,23 +31975,23 @@
       </c>
     </row>
     <row r="276" spans="1:8" x14ac:dyDescent="0.2">
-      <c r="A276" s="4" t="s">
+      <c r="A276" s="3" t="s">
         <v>150</v>
       </c>
       <c r="B276" s="1">
         <v>45984</v>
       </c>
-      <c r="C276" s="2">
+      <c r="C276">
         <v>6</v>
       </c>
-      <c r="D276" s="2">
+      <c r="D276">
         <v>209.85</v>
       </c>
       <c r="E276" t="str">
         <f t="shared" si="16"/>
         <v>CUST_0280</v>
       </c>
-      <c r="F276" s="2">
+      <c r="F276">
         <f t="shared" ca="1" si="17"/>
         <v>79</v>
       </c>
@@ -32006,23 +32005,23 @@
       </c>
     </row>
     <row r="277" spans="1:8" x14ac:dyDescent="0.2">
-      <c r="A277" s="4" t="s">
+      <c r="A277" s="3" t="s">
         <v>491</v>
       </c>
       <c r="B277" s="1">
         <v>46014</v>
       </c>
-      <c r="C277" s="2">
+      <c r="C277">
         <v>3</v>
       </c>
-      <c r="D277" s="2">
+      <c r="D277">
         <v>214.90999999999897</v>
       </c>
       <c r="E277" t="str">
         <f t="shared" si="16"/>
         <v>CUST_0281</v>
       </c>
-      <c r="F277" s="2">
+      <c r="F277">
         <f t="shared" ca="1" si="17"/>
         <v>49</v>
       </c>
@@ -32036,23 +32035,23 @@
       </c>
     </row>
     <row r="278" spans="1:8" x14ac:dyDescent="0.2">
-      <c r="A278" s="4" t="s">
+      <c r="A278" s="3" t="s">
         <v>885</v>
       </c>
       <c r="B278" s="1">
         <v>45974</v>
       </c>
-      <c r="C278" s="2">
+      <c r="C278">
         <v>6</v>
       </c>
-      <c r="D278" s="2">
+      <c r="D278">
         <v>249.82000000000002</v>
       </c>
       <c r="E278" t="str">
         <f t="shared" si="16"/>
         <v>CUST_0282</v>
       </c>
-      <c r="F278" s="2">
+      <c r="F278">
         <f t="shared" ca="1" si="17"/>
         <v>89</v>
       </c>
@@ -32066,23 +32065,23 @@
       </c>
     </row>
     <row r="279" spans="1:8" x14ac:dyDescent="0.2">
-      <c r="A279" s="4" t="s">
+      <c r="A279" s="3" t="s">
         <v>220</v>
       </c>
       <c r="B279" s="1">
         <v>46026</v>
       </c>
-      <c r="C279" s="2">
+      <c r="C279">
         <v>6</v>
       </c>
-      <c r="D279" s="2">
+      <c r="D279">
         <v>489.80000000000007</v>
       </c>
       <c r="E279" t="str">
         <f t="shared" si="16"/>
         <v>CUST_0283</v>
       </c>
-      <c r="F279" s="2">
+      <c r="F279">
         <f t="shared" ca="1" si="17"/>
         <v>37</v>
       </c>
@@ -32096,23 +32095,23 @@
       </c>
     </row>
     <row r="280" spans="1:8" x14ac:dyDescent="0.2">
-      <c r="A280" s="4" t="s">
+      <c r="A280" s="3" t="s">
         <v>259</v>
       </c>
       <c r="B280" s="1">
         <v>46013</v>
       </c>
-      <c r="C280" s="2">
+      <c r="C280">
         <v>4</v>
       </c>
-      <c r="D280" s="2">
+      <c r="D280">
         <v>349.83999999999799</v>
       </c>
       <c r="E280" t="str">
         <f t="shared" si="16"/>
         <v>CUST_0284</v>
       </c>
-      <c r="F280" s="2">
+      <c r="F280">
         <f t="shared" ca="1" si="17"/>
         <v>50</v>
       </c>
@@ -32126,23 +32125,23 @@
       </c>
     </row>
     <row r="281" spans="1:8" x14ac:dyDescent="0.2">
-      <c r="A281" s="4" t="s">
+      <c r="A281" s="3" t="s">
         <v>617</v>
       </c>
       <c r="B281" s="1">
         <v>45990</v>
       </c>
-      <c r="C281" s="2">
+      <c r="C281">
         <v>6</v>
       </c>
-      <c r="D281" s="2">
+      <c r="D281">
         <v>494.81</v>
       </c>
       <c r="E281" t="str">
         <f t="shared" si="16"/>
         <v>CUST_0285</v>
       </c>
-      <c r="F281" s="2">
+      <c r="F281">
         <f t="shared" ca="1" si="17"/>
         <v>73</v>
       </c>
@@ -32156,23 +32155,23 @@
       </c>
     </row>
     <row r="282" spans="1:8" x14ac:dyDescent="0.2">
-      <c r="A282" s="4" t="s">
+      <c r="A282" s="3" t="s">
         <v>274</v>
       </c>
       <c r="B282" s="1">
         <v>45931</v>
       </c>
-      <c r="C282" s="2">
+      <c r="C282">
         <v>7</v>
       </c>
-      <c r="D282" s="2">
+      <c r="D282">
         <v>374.81</v>
       </c>
       <c r="E282" t="str">
         <f t="shared" si="16"/>
         <v>CUST_0286</v>
       </c>
-      <c r="F282" s="2">
+      <c r="F282">
         <f t="shared" ca="1" si="17"/>
         <v>132</v>
       </c>
@@ -32186,23 +32185,23 @@
       </c>
     </row>
     <row r="283" spans="1:8" x14ac:dyDescent="0.2">
-      <c r="A283" s="4" t="s">
+      <c r="A283" s="3" t="s">
         <v>1246</v>
       </c>
       <c r="B283" s="1">
         <v>46017</v>
       </c>
-      <c r="C283" s="2">
+      <c r="C283">
         <v>2</v>
       </c>
-      <c r="D283" s="2">
+      <c r="D283">
         <v>114.93</v>
       </c>
       <c r="E283" t="str">
         <f t="shared" si="16"/>
         <v>CUST_0287</v>
       </c>
-      <c r="F283" s="2">
+      <c r="F283">
         <f t="shared" ca="1" si="17"/>
         <v>46</v>
       </c>
@@ -32216,23 +32215,23 @@
       </c>
     </row>
     <row r="284" spans="1:8" x14ac:dyDescent="0.2">
-      <c r="A284" s="4" t="s">
+      <c r="A284" s="3" t="s">
         <v>503</v>
       </c>
       <c r="B284" s="1">
         <v>46021</v>
       </c>
-      <c r="C284" s="2">
+      <c r="C284">
         <v>8</v>
       </c>
-      <c r="D284" s="2">
+      <c r="D284">
         <v>534.74</v>
       </c>
       <c r="E284" t="str">
         <f t="shared" si="16"/>
         <v>CUST_0288</v>
       </c>
-      <c r="F284" s="2">
+      <c r="F284">
         <f t="shared" ca="1" si="17"/>
         <v>42</v>
       </c>
@@ -32246,23 +32245,23 @@
       </c>
     </row>
     <row r="285" spans="1:8" x14ac:dyDescent="0.2">
-      <c r="A285" s="4" t="s">
+      <c r="A285" s="3" t="s">
         <v>177</v>
       </c>
       <c r="B285" s="1">
         <v>45952</v>
       </c>
-      <c r="C285" s="2">
+      <c r="C285">
         <v>8</v>
       </c>
-      <c r="D285" s="2">
+      <c r="D285">
         <v>534.76999999999907</v>
       </c>
       <c r="E285" t="str">
         <f t="shared" si="16"/>
         <v>CUST_0289</v>
       </c>
-      <c r="F285" s="2">
+      <c r="F285">
         <f t="shared" ca="1" si="17"/>
         <v>111</v>
       </c>
@@ -32276,23 +32275,23 @@
       </c>
     </row>
     <row r="286" spans="1:8" x14ac:dyDescent="0.2">
-      <c r="A286" s="4" t="s">
+      <c r="A286" s="3" t="s">
         <v>591</v>
       </c>
       <c r="B286" s="1">
         <v>45906</v>
       </c>
-      <c r="C286" s="2">
+      <c r="C286">
         <v>2</v>
       </c>
-      <c r="D286" s="2">
+      <c r="D286">
         <v>94.949999999999989</v>
       </c>
       <c r="E286" t="str">
         <f t="shared" si="16"/>
         <v>CUST_0290</v>
       </c>
-      <c r="F286" s="2">
+      <c r="F286">
         <f t="shared" ca="1" si="17"/>
         <v>157</v>
       </c>
@@ -32306,23 +32305,23 @@
       </c>
     </row>
     <row r="287" spans="1:8" x14ac:dyDescent="0.2">
-      <c r="A287" s="4" t="s">
+      <c r="A287" s="3" t="s">
         <v>1153</v>
       </c>
       <c r="B287" s="1">
         <v>45989</v>
       </c>
-      <c r="C287" s="2">
+      <c r="C287">
         <v>4</v>
       </c>
-      <c r="D287" s="2">
+      <c r="D287">
         <v>344.9</v>
       </c>
       <c r="E287" t="str">
         <f t="shared" si="16"/>
         <v>CUST_0291</v>
       </c>
-      <c r="F287" s="2">
+      <c r="F287">
         <f t="shared" ca="1" si="17"/>
         <v>74</v>
       </c>
@@ -32336,23 +32335,23 @@
       </c>
     </row>
     <row r="288" spans="1:8" x14ac:dyDescent="0.2">
-      <c r="A288" s="4" t="s">
+      <c r="A288" s="3" t="s">
         <v>785</v>
       </c>
       <c r="B288" s="1">
         <v>45947</v>
       </c>
-      <c r="C288" s="2">
+      <c r="C288">
         <v>4</v>
       </c>
-      <c r="D288" s="2">
+      <c r="D288">
         <v>139.88</v>
       </c>
       <c r="E288" t="str">
         <f t="shared" si="16"/>
         <v>CUST_0292</v>
       </c>
-      <c r="F288" s="2">
+      <c r="F288">
         <f t="shared" ca="1" si="17"/>
         <v>116</v>
       </c>
@@ -32366,23 +32365,23 @@
       </c>
     </row>
     <row r="289" spans="1:8" x14ac:dyDescent="0.2">
-      <c r="A289" s="4" t="s">
+      <c r="A289" s="3" t="s">
         <v>199</v>
       </c>
       <c r="B289" s="1">
         <v>45995</v>
       </c>
-      <c r="C289" s="2">
+      <c r="C289">
         <v>5</v>
       </c>
-      <c r="D289" s="2">
+      <c r="D289">
         <v>409.80999999999892</v>
       </c>
       <c r="E289" t="str">
         <f t="shared" si="16"/>
         <v>CUST_0293</v>
       </c>
-      <c r="F289" s="2">
+      <c r="F289">
         <f t="shared" ca="1" si="17"/>
         <v>68</v>
       </c>
@@ -32396,23 +32395,23 @@
       </c>
     </row>
     <row r="290" spans="1:8" x14ac:dyDescent="0.2">
-      <c r="A290" s="4" t="s">
+      <c r="A290" s="3" t="s">
         <v>52</v>
       </c>
       <c r="B290" s="1">
         <v>45982</v>
       </c>
-      <c r="C290" s="2">
+      <c r="C290">
         <v>6</v>
       </c>
-      <c r="D290" s="2">
+      <c r="D290">
         <v>329.83</v>
       </c>
       <c r="E290" t="str">
         <f t="shared" si="16"/>
         <v>CUST_0294</v>
       </c>
-      <c r="F290" s="2">
+      <c r="F290">
         <f t="shared" ca="1" si="17"/>
         <v>81</v>
       </c>
@@ -32426,23 +32425,23 @@
       </c>
     </row>
     <row r="291" spans="1:8" x14ac:dyDescent="0.2">
-      <c r="A291" s="4" t="s">
+      <c r="A291" s="3" t="s">
         <v>311</v>
       </c>
       <c r="B291" s="1">
         <v>46029</v>
       </c>
-      <c r="C291" s="2">
+      <c r="C291">
         <v>3</v>
       </c>
-      <c r="D291" s="2">
+      <c r="D291">
         <v>234.87</v>
       </c>
       <c r="E291" t="str">
         <f t="shared" si="16"/>
         <v>CUST_0295</v>
       </c>
-      <c r="F291" s="2">
+      <c r="F291">
         <f t="shared" ca="1" si="17"/>
         <v>34</v>
       </c>
@@ -32456,23 +32455,23 @@
       </c>
     </row>
     <row r="292" spans="1:8" x14ac:dyDescent="0.2">
-      <c r="A292" s="4" t="s">
+      <c r="A292" s="3" t="s">
         <v>141</v>
       </c>
       <c r="B292" s="1">
         <v>45969</v>
       </c>
-      <c r="C292" s="2">
+      <c r="C292">
         <v>6</v>
       </c>
-      <c r="D292" s="2">
+      <c r="D292">
         <v>384.83000000000004</v>
       </c>
       <c r="E292" t="str">
         <f t="shared" si="16"/>
         <v>CUST_0296</v>
       </c>
-      <c r="F292" s="2">
+      <c r="F292">
         <f t="shared" ca="1" si="17"/>
         <v>94</v>
       </c>
@@ -32486,23 +32485,23 @@
       </c>
     </row>
     <row r="293" spans="1:8" x14ac:dyDescent="0.2">
-      <c r="A293" s="4" t="s">
+      <c r="A293" s="3" t="s">
         <v>1251</v>
       </c>
       <c r="B293" s="1">
         <v>45822</v>
       </c>
-      <c r="C293" s="2">
+      <c r="C293">
         <v>1</v>
       </c>
-      <c r="D293" s="2">
+      <c r="D293">
         <v>49.98</v>
       </c>
       <c r="E293" t="str">
         <f t="shared" si="16"/>
         <v>CUST_0297</v>
       </c>
-      <c r="F293" s="2">
+      <c r="F293">
         <f t="shared" ca="1" si="17"/>
         <v>241</v>
       </c>
@@ -32516,23 +32515,23 @@
       </c>
     </row>
     <row r="294" spans="1:8" x14ac:dyDescent="0.2">
-      <c r="A294" s="4" t="s">
+      <c r="A294" s="3" t="s">
         <v>377</v>
       </c>
       <c r="B294" s="1">
         <v>45905</v>
       </c>
-      <c r="C294" s="2">
+      <c r="C294">
         <v>1</v>
       </c>
-      <c r="D294" s="2">
+      <c r="D294">
         <v>49.95</v>
       </c>
       <c r="E294" t="str">
         <f t="shared" si="16"/>
         <v>CUST_0298</v>
       </c>
-      <c r="F294" s="2">
+      <c r="F294">
         <f t="shared" ca="1" si="17"/>
         <v>158</v>
       </c>
@@ -32546,23 +32545,23 @@
       </c>
     </row>
     <row r="295" spans="1:8" x14ac:dyDescent="0.2">
-      <c r="A295" s="4" t="s">
+      <c r="A295" s="3" t="s">
         <v>513</v>
       </c>
       <c r="B295" s="1">
         <v>46017</v>
       </c>
-      <c r="C295" s="2">
+      <c r="C295">
         <v>2</v>
       </c>
-      <c r="D295" s="2">
+      <c r="D295">
         <v>149.89999999999992</v>
       </c>
       <c r="E295" t="str">
         <f t="shared" si="16"/>
         <v>CUST_0299</v>
       </c>
-      <c r="F295" s="2">
+      <c r="F295">
         <f t="shared" ca="1" si="17"/>
         <v>46</v>
       </c>
@@ -32576,23 +32575,23 @@
       </c>
     </row>
     <row r="296" spans="1:8" x14ac:dyDescent="0.2">
-      <c r="A296" s="4" t="s">
+      <c r="A296" s="3" t="s">
         <v>1049</v>
       </c>
       <c r="B296" s="1">
         <v>46028</v>
       </c>
-      <c r="C296" s="2">
+      <c r="C296">
         <v>2</v>
       </c>
-      <c r="D296" s="2">
+      <c r="D296">
         <v>94.92</v>
       </c>
       <c r="E296" t="str">
         <f t="shared" si="16"/>
         <v>CUST_0300</v>
       </c>
-      <c r="F296" s="2">
+      <c r="F296">
         <f t="shared" ca="1" si="17"/>
         <v>35</v>
       </c>
@@ -32606,23 +32605,23 @@
       </c>
     </row>
     <row r="297" spans="1:8" x14ac:dyDescent="0.2">
-      <c r="A297" s="4" t="s">
+      <c r="A297" s="3" t="s">
         <v>1517</v>
       </c>
       <c r="B297" s="1">
         <v>46047</v>
       </c>
-      <c r="C297" s="2">
+      <c r="C297">
         <v>1200</v>
       </c>
-      <c r="D297" s="2">
+      <c r="D297">
         <v>81923.630000000267</v>
       </c>
       <c r="E297" t="str">
         <f t="shared" si="16"/>
         <v>Grand Total</v>
       </c>
-      <c r="F297" s="2">
+      <c r="F297">
         <f t="shared" ca="1" si="17"/>
         <v>16</v>
       </c>
@@ -32645,7 +32644,7 @@
   <dimension ref="A3:D22"/>
   <sheetViews>
     <sheetView workbookViewId="0">
-      <selection activeCell="B6" sqref="B6"/>
+      <selection activeCell="L8" sqref="L8"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr baseColWidth="10" defaultColWidth="14" defaultRowHeight="16" x14ac:dyDescent="0.2"/>
@@ -32657,7 +32656,7 @@
   </cols>
   <sheetData>
     <row r="3" spans="1:4" x14ac:dyDescent="0.2">
-      <c r="A3" s="3" t="s">
+      <c r="A3" s="2" t="s">
         <v>1516</v>
       </c>
       <c r="B3" t="s">
@@ -32665,10 +32664,10 @@
       </c>
     </row>
     <row r="4" spans="1:4" x14ac:dyDescent="0.2">
-      <c r="A4" s="4" t="s">
+      <c r="A4" s="3" t="s">
         <v>1537</v>
       </c>
-      <c r="B4" s="2">
+      <c r="B4">
         <v>17</v>
       </c>
       <c r="C4" t="s">
@@ -32676,10 +32675,10 @@
       </c>
     </row>
     <row r="5" spans="1:4" x14ac:dyDescent="0.2">
-      <c r="A5" s="4" t="s">
+      <c r="A5" s="3" t="s">
         <v>1539</v>
       </c>
-      <c r="B5" s="2">
+      <c r="B5">
         <v>69</v>
       </c>
       <c r="C5" t="s">
@@ -32687,18 +32686,18 @@
       </c>
     </row>
     <row r="6" spans="1:4" x14ac:dyDescent="0.2">
-      <c r="A6" s="4" t="s">
+      <c r="A6" s="3" t="s">
         <v>1540</v>
       </c>
-      <c r="B6" s="2">
+      <c r="B6">
         <v>84</v>
       </c>
     </row>
     <row r="7" spans="1:4" x14ac:dyDescent="0.2">
-      <c r="A7" s="4" t="s">
+      <c r="A7" s="3" t="s">
         <v>1538</v>
       </c>
-      <c r="B7" s="2">
+      <c r="B7">
         <v>50</v>
       </c>
       <c r="C7" t="s">
@@ -32706,23 +32705,23 @@
       </c>
     </row>
     <row r="8" spans="1:4" x14ac:dyDescent="0.2">
-      <c r="A8" s="4" t="s">
+      <c r="A8" s="3" t="s">
         <v>1541</v>
       </c>
-      <c r="B8" s="2">
+      <c r="B8">
         <v>73</v>
       </c>
     </row>
     <row r="9" spans="1:4" x14ac:dyDescent="0.2">
-      <c r="A9" s="4" t="s">
+      <c r="A9" s="3" t="s">
         <v>1517</v>
       </c>
-      <c r="B9" s="2">
+      <c r="B9">
         <v>293</v>
       </c>
     </row>
     <row r="16" spans="1:4" x14ac:dyDescent="0.2">
-      <c r="A16" s="3" t="s">
+      <c r="A16" s="2" t="s">
         <v>1516</v>
       </c>
       <c r="B16" t="s">
@@ -32736,86 +32735,86 @@
       </c>
     </row>
     <row r="17" spans="1:4" x14ac:dyDescent="0.2">
-      <c r="A17" s="4" t="s">
+      <c r="A17" s="3" t="s">
         <v>1537</v>
       </c>
-      <c r="B17" s="2">
+      <c r="B17">
         <v>227.8235294117647</v>
       </c>
-      <c r="C17" s="2">
+      <c r="C17">
         <v>1</v>
       </c>
-      <c r="D17" s="2">
+      <c r="D17">
         <v>44.67941176470589</v>
       </c>
     </row>
     <row r="18" spans="1:4" x14ac:dyDescent="0.2">
-      <c r="A18" s="4" t="s">
+      <c r="A18" s="3" t="s">
         <v>1538</v>
       </c>
-      <c r="B18" s="2">
+      <c r="B18">
         <v>141.18</v>
       </c>
-      <c r="C18" s="2">
+      <c r="C18">
         <v>1.98</v>
       </c>
-      <c r="D18" s="2">
+      <c r="D18">
         <v>115.14159999999993</v>
       </c>
     </row>
     <row r="19" spans="1:4" x14ac:dyDescent="0.2">
-      <c r="A19" s="4" t="s">
+      <c r="A19" s="3" t="s">
         <v>1539</v>
       </c>
-      <c r="B19" s="2">
+      <c r="B19">
         <v>27.072463768115941</v>
       </c>
-      <c r="C19" s="2">
+      <c r="C19">
         <v>6.6086956521739131</v>
       </c>
-      <c r="D19" s="2">
+      <c r="D19">
         <v>497.25898550724611</v>
       </c>
     </row>
     <row r="20" spans="1:4" x14ac:dyDescent="0.2">
-      <c r="A20" s="4" t="s">
+      <c r="A20" s="3" t="s">
         <v>1540</v>
       </c>
-      <c r="B20" s="2">
+      <c r="B20">
         <v>54.452380952380949</v>
       </c>
-      <c r="C20" s="2">
+      <c r="C20">
         <v>4.7619047619047619</v>
       </c>
-      <c r="D20" s="2">
+      <c r="D20">
         <v>314.26071428571407</v>
       </c>
     </row>
     <row r="21" spans="1:4" x14ac:dyDescent="0.2">
-      <c r="A21" s="4" t="s">
+      <c r="A21" s="3" t="s">
         <v>1541</v>
       </c>
-      <c r="B21" s="2">
+      <c r="B21">
         <v>92.438356164383563</v>
       </c>
-      <c r="C21" s="2">
+      <c r="C21">
         <v>3.1232876712328768</v>
       </c>
-      <c r="D21" s="2">
+      <c r="D21">
         <v>201.34561643835602</v>
       </c>
     </row>
     <row r="22" spans="1:4" x14ac:dyDescent="0.2">
-      <c r="A22" s="4" t="s">
+      <c r="A22" s="3" t="s">
         <v>1517</v>
       </c>
-      <c r="B22" s="2">
+      <c r="B22">
         <v>82.327645051194537</v>
       </c>
-      <c r="C22" s="2">
+      <c r="C22">
         <v>4.0955631399317403</v>
       </c>
-      <c r="D22" s="2">
+      <c r="D22">
         <v>279.6028327645048</v>
       </c>
     </row>
@@ -32828,8 +32827,8 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{B8FC8FF4-9DC1-0B4F-96C5-8CD870AC2C5A}">
   <dimension ref="A1:I294"/>
   <sheetViews>
-    <sheetView workbookViewId="0">
-      <selection activeCell="A2" sqref="A2"/>
+    <sheetView tabSelected="1" workbookViewId="0">
+      <selection activeCell="L9" sqref="L9"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr baseColWidth="10" defaultRowHeight="16" x14ac:dyDescent="0.2"/>
